--- a/BackTest/2020-01-20 BackTest TRV.xlsx
+++ b/BackTest/2020-01-20 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M264"/>
+  <dimension ref="A1:M265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>55838.3201</v>
+        <v>58419.0163</v>
       </c>
       <c r="G2" t="n">
-        <v>11.97066666666666</v>
+        <v>11.97316666666666</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.04</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>12.04</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>12.04</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
-        <v>12.04</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
-        <v>42</v>
+        <v>55838.3201</v>
       </c>
       <c r="G3" t="n">
-        <v>11.97133333333332</v>
+        <v>11.97066666666666</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>12.04</v>
       </c>
       <c r="F4" t="n">
-        <v>3022</v>
+        <v>42</v>
       </c>
       <c r="G4" t="n">
-        <v>11.97033333333332</v>
+        <v>11.97133333333332</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>12.04</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7613</v>
+        <v>3022</v>
       </c>
       <c r="G5" t="n">
-        <v>11.96849999999999</v>
+        <v>11.97033333333332</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.01</v>
+        <v>12.04</v>
       </c>
       <c r="C6" t="n">
-        <v>12.01</v>
+        <v>12.04</v>
       </c>
       <c r="D6" t="n">
-        <v>12.01</v>
+        <v>12.04</v>
       </c>
       <c r="E6" t="n">
-        <v>12.01</v>
+        <v>12.04</v>
       </c>
       <c r="F6" t="n">
-        <v>35324</v>
+        <v>0.7613</v>
       </c>
       <c r="G6" t="n">
-        <v>11.96616666666666</v>
+        <v>11.96849999999999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>12.01</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2356</v>
+        <v>35324</v>
       </c>
       <c r="G7" t="n">
-        <v>11.96383333333332</v>
+        <v>11.96616666666666</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.9</v>
+        <v>12.01</v>
       </c>
       <c r="C8" t="n">
-        <v>11.9</v>
+        <v>12.01</v>
       </c>
       <c r="D8" t="n">
-        <v>11.9</v>
+        <v>12.01</v>
       </c>
       <c r="E8" t="n">
-        <v>11.9</v>
+        <v>12.01</v>
       </c>
       <c r="F8" t="n">
-        <v>2505.6212</v>
+        <v>0.2356</v>
       </c>
       <c r="G8" t="n">
-        <v>11.96366666666666</v>
+        <v>11.96383333333332</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.82</v>
+        <v>11.9</v>
       </c>
       <c r="C9" t="n">
-        <v>11.81</v>
+        <v>11.9</v>
       </c>
       <c r="D9" t="n">
-        <v>11.82</v>
+        <v>11.9</v>
       </c>
       <c r="E9" t="n">
-        <v>11.81</v>
+        <v>11.9</v>
       </c>
       <c r="F9" t="n">
-        <v>121146.8103</v>
+        <v>2505.6212</v>
       </c>
       <c r="G9" t="n">
-        <v>11.95666666666666</v>
+        <v>11.96366666666666</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.81</v>
+        <v>11.82</v>
       </c>
       <c r="C10" t="n">
         <v>11.81</v>
       </c>
       <c r="D10" t="n">
-        <v>11.81</v>
+        <v>11.82</v>
       </c>
       <c r="E10" t="n">
         <v>11.81</v>
       </c>
       <c r="F10" t="n">
-        <v>161882.565</v>
+        <v>121146.8103</v>
       </c>
       <c r="G10" t="n">
-        <v>11.95116666666666</v>
+        <v>11.95666666666666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.98</v>
+        <v>11.81</v>
       </c>
       <c r="C11" t="n">
-        <v>12.04</v>
+        <v>11.81</v>
       </c>
       <c r="D11" t="n">
-        <v>12.04</v>
+        <v>11.81</v>
       </c>
       <c r="E11" t="n">
-        <v>11.98</v>
+        <v>11.81</v>
       </c>
       <c r="F11" t="n">
-        <v>71410.92419999999</v>
+        <v>161882.565</v>
       </c>
       <c r="G11" t="n">
-        <v>11.95266666666666</v>
+        <v>11.95116666666666</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11.84</v>
+        <v>11.98</v>
       </c>
       <c r="C12" t="n">
-        <v>11.84</v>
+        <v>12.04</v>
       </c>
       <c r="D12" t="n">
-        <v>11.84</v>
+        <v>12.04</v>
       </c>
       <c r="E12" t="n">
-        <v>11.84</v>
+        <v>11.98</v>
       </c>
       <c r="F12" t="n">
-        <v>17429.0686</v>
+        <v>71410.92419999999</v>
       </c>
       <c r="G12" t="n">
-        <v>11.95099999999999</v>
+        <v>11.95266666666666</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.87</v>
+        <v>11.84</v>
       </c>
       <c r="C13" t="n">
-        <v>11.85</v>
+        <v>11.84</v>
       </c>
       <c r="D13" t="n">
-        <v>11.87</v>
+        <v>11.84</v>
       </c>
       <c r="E13" t="n">
-        <v>11.85</v>
+        <v>11.84</v>
       </c>
       <c r="F13" t="n">
-        <v>144694.2911</v>
+        <v>17429.0686</v>
       </c>
       <c r="G13" t="n">
-        <v>11.94666666666665</v>
+        <v>11.95099999999999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.85</v>
+        <v>11.87</v>
       </c>
       <c r="C14" t="n">
         <v>11.85</v>
       </c>
       <c r="D14" t="n">
-        <v>11.85</v>
+        <v>11.87</v>
       </c>
       <c r="E14" t="n">
         <v>11.85</v>
       </c>
       <c r="F14" t="n">
-        <v>110268.413</v>
+        <v>144694.2911</v>
       </c>
       <c r="G14" t="n">
-        <v>11.94233333333332</v>
+        <v>11.94666666666665</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>11.85</v>
       </c>
       <c r="F15" t="n">
-        <v>64957.5133</v>
+        <v>110268.413</v>
       </c>
       <c r="G15" t="n">
-        <v>11.94183333333332</v>
+        <v>11.94233333333332</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12.02</v>
+        <v>11.85</v>
       </c>
       <c r="C16" t="n">
-        <v>12.02</v>
+        <v>11.85</v>
       </c>
       <c r="D16" t="n">
-        <v>12.02</v>
+        <v>11.85</v>
       </c>
       <c r="E16" t="n">
-        <v>12.02</v>
+        <v>11.85</v>
       </c>
       <c r="F16" t="n">
-        <v>280.9399</v>
+        <v>64957.5133</v>
       </c>
       <c r="G16" t="n">
-        <v>11.94783333333332</v>
+        <v>11.94183333333332</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>12.02</v>
       </c>
       <c r="F17" t="n">
-        <v>28000</v>
+        <v>280.9399</v>
       </c>
       <c r="G17" t="n">
-        <v>11.95399999999999</v>
+        <v>11.94783333333332</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>12.02</v>
       </c>
       <c r="C18" t="n">
-        <v>12.03</v>
+        <v>12.02</v>
       </c>
       <c r="D18" t="n">
-        <v>12.03</v>
+        <v>12.02</v>
       </c>
       <c r="E18" t="n">
         <v>12.02</v>
       </c>
       <c r="F18" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="G18" t="n">
-        <v>11.95283333333332</v>
+        <v>11.95399999999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="C19" t="n">
         <v>12.03</v>
       </c>
-      <c r="C19" t="n">
-        <v>12.04</v>
-      </c>
       <c r="D19" t="n">
-        <v>12.04</v>
+        <v>12.03</v>
       </c>
       <c r="E19" t="n">
-        <v>12.03</v>
+        <v>12.02</v>
       </c>
       <c r="F19" t="n">
-        <v>2200</v>
+        <v>15000</v>
       </c>
       <c r="G19" t="n">
-        <v>11.95916666666665</v>
+        <v>11.95283333333332</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="C20" t="n">
         <v>12.04</v>
       </c>
-      <c r="C20" t="n">
-        <v>12.18</v>
-      </c>
       <c r="D20" t="n">
-        <v>12.18</v>
+        <v>12.04</v>
       </c>
       <c r="E20" t="n">
-        <v>12.04</v>
+        <v>12.03</v>
       </c>
       <c r="F20" t="n">
-        <v>2904.7984</v>
+        <v>2200</v>
       </c>
       <c r="G20" t="n">
-        <v>11.96549999999999</v>
+        <v>11.95916666666665</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="C21" t="n">
         <v>12.18</v>
       </c>
-      <c r="C21" t="n">
-        <v>12.19</v>
-      </c>
       <c r="D21" t="n">
-        <v>12.19</v>
+        <v>12.18</v>
       </c>
       <c r="E21" t="n">
-        <v>12.18</v>
+        <v>12.04</v>
       </c>
       <c r="F21" t="n">
-        <v>77047.54526845583</v>
+        <v>2904.7984</v>
       </c>
       <c r="G21" t="n">
-        <v>11.97199999999999</v>
+        <v>11.96549999999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.19</v>
+        <v>12.18</v>
       </c>
       <c r="C22" t="n">
         <v>12.19</v>
@@ -1142,13 +1142,13 @@
         <v>12.19</v>
       </c>
       <c r="E22" t="n">
-        <v>12.19</v>
+        <v>12.18</v>
       </c>
       <c r="F22" t="n">
-        <v>42</v>
+        <v>77047.54526845583</v>
       </c>
       <c r="G22" t="n">
-        <v>11.97849999999999</v>
+        <v>11.97199999999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12.2</v>
+        <v>12.19</v>
       </c>
       <c r="C23" t="n">
-        <v>12.2</v>
+        <v>12.19</v>
       </c>
       <c r="D23" t="n">
-        <v>12.2</v>
+        <v>12.19</v>
       </c>
       <c r="E23" t="n">
-        <v>12.2</v>
+        <v>12.19</v>
       </c>
       <c r="F23" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G23" t="n">
-        <v>11.98516666666666</v>
+        <v>11.97849999999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>12.2</v>
       </c>
       <c r="C24" t="n">
-        <v>12.21</v>
+        <v>12.2</v>
       </c>
       <c r="D24" t="n">
-        <v>12.21</v>
+        <v>12.2</v>
       </c>
       <c r="E24" t="n">
         <v>12.2</v>
       </c>
       <c r="F24" t="n">
-        <v>124649.8416</v>
+        <v>41</v>
       </c>
       <c r="G24" t="n">
-        <v>11.99199999999999</v>
+        <v>11.98516666666666</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>12.24</v>
+        <v>12.2</v>
       </c>
       <c r="C25" t="n">
-        <v>12.29</v>
+        <v>12.21</v>
       </c>
       <c r="D25" t="n">
-        <v>12.29</v>
+        <v>12.21</v>
       </c>
       <c r="E25" t="n">
-        <v>12.24</v>
+        <v>12.2</v>
       </c>
       <c r="F25" t="n">
-        <v>139932.4685</v>
+        <v>124649.8416</v>
       </c>
       <c r="G25" t="n">
-        <v>12.00016666666666</v>
+        <v>11.99199999999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12.29</v>
+        <v>12.24</v>
       </c>
       <c r="C26" t="n">
         <v>12.29</v>
@@ -1282,13 +1282,13 @@
         <v>12.29</v>
       </c>
       <c r="E26" t="n">
-        <v>12.29</v>
+        <v>12.24</v>
       </c>
       <c r="F26" t="n">
-        <v>35532.6135</v>
+        <v>139932.4685</v>
       </c>
       <c r="G26" t="n">
-        <v>12.00516666666666</v>
+        <v>12.00016666666666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1311,19 @@
         <v>12.29</v>
       </c>
       <c r="C27" t="n">
-        <v>12.59</v>
+        <v>12.29</v>
       </c>
       <c r="D27" t="n">
-        <v>12.59</v>
+        <v>12.29</v>
       </c>
       <c r="E27" t="n">
         <v>12.29</v>
       </c>
       <c r="F27" t="n">
-        <v>126297.1813</v>
+        <v>35532.6135</v>
       </c>
       <c r="G27" t="n">
-        <v>12.01999999999999</v>
+        <v>12.00516666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>12.59</v>
+        <v>12.29</v>
       </c>
       <c r="C28" t="n">
         <v>12.59</v>
@@ -1352,13 +1352,13 @@
         <v>12.59</v>
       </c>
       <c r="E28" t="n">
-        <v>12.59</v>
+        <v>12.29</v>
       </c>
       <c r="F28" t="n">
-        <v>198129.833</v>
+        <v>126297.1813</v>
       </c>
       <c r="G28" t="n">
-        <v>12.03166666666666</v>
+        <v>12.01999999999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12.8</v>
+        <v>12.59</v>
       </c>
       <c r="C29" t="n">
-        <v>12.8</v>
+        <v>12.59</v>
       </c>
       <c r="D29" t="n">
-        <v>12.8</v>
+        <v>12.59</v>
       </c>
       <c r="E29" t="n">
-        <v>12.8</v>
+        <v>12.59</v>
       </c>
       <c r="F29" t="n">
-        <v>30000</v>
+        <v>198129.833</v>
       </c>
       <c r="G29" t="n">
-        <v>12.04683333333333</v>
+        <v>12.03166666666666</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1416,19 @@
         <v>12.8</v>
       </c>
       <c r="C30" t="n">
-        <v>12.49</v>
+        <v>12.8</v>
       </c>
       <c r="D30" t="n">
         <v>12.8</v>
       </c>
       <c r="E30" t="n">
-        <v>12.49</v>
+        <v>12.8</v>
       </c>
       <c r="F30" t="n">
-        <v>308844.5694</v>
+        <v>30000</v>
       </c>
       <c r="G30" t="n">
-        <v>12.05666666666666</v>
+        <v>12.04683333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>12.99</v>
+        <v>12.8</v>
       </c>
       <c r="C31" t="n">
-        <v>12.62</v>
+        <v>12.49</v>
       </c>
       <c r="D31" t="n">
-        <v>12.99</v>
+        <v>12.8</v>
       </c>
       <c r="E31" t="n">
-        <v>12.62</v>
+        <v>12.49</v>
       </c>
       <c r="F31" t="n">
-        <v>97050</v>
+        <v>308844.5694</v>
       </c>
       <c r="G31" t="n">
-        <v>12.06749999999999</v>
+        <v>12.05666666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,28 +1483,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12.72</v>
+        <v>12.99</v>
       </c>
       <c r="C32" t="n">
-        <v>12.63</v>
+        <v>12.62</v>
       </c>
       <c r="D32" t="n">
-        <v>12.78</v>
+        <v>12.99</v>
       </c>
       <c r="E32" t="n">
-        <v>12.63</v>
+        <v>12.62</v>
       </c>
       <c r="F32" t="n">
-        <v>26073.0127</v>
+        <v>97050</v>
       </c>
       <c r="G32" t="n">
-        <v>12.07799999999999</v>
+        <v>12.06749999999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1518,28 +1518,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>12.72</v>
+      </c>
+      <c r="C33" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="D33" t="n">
         <v>12.78</v>
       </c>
-      <c r="C33" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D33" t="n">
-        <v>12.79</v>
-      </c>
       <c r="E33" t="n">
-        <v>12.6</v>
+        <v>12.63</v>
       </c>
       <c r="F33" t="n">
-        <v>222756.1957</v>
+        <v>26073.0127</v>
       </c>
       <c r="G33" t="n">
-        <v>12.08599999999999</v>
+        <v>12.07799999999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1553,28 +1553,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12.6</v>
+        <v>12.78</v>
       </c>
       <c r="C34" t="n">
         <v>12.6</v>
       </c>
       <c r="D34" t="n">
-        <v>12.6</v>
+        <v>12.79</v>
       </c>
       <c r="E34" t="n">
         <v>12.6</v>
       </c>
       <c r="F34" t="n">
-        <v>9000</v>
+        <v>222756.1957</v>
       </c>
       <c r="G34" t="n">
-        <v>12.09416666666666</v>
+        <v>12.08599999999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1594,16 +1594,16 @@
         <v>12.6</v>
       </c>
       <c r="D35" t="n">
-        <v>12.61</v>
+        <v>12.6</v>
       </c>
       <c r="E35" t="n">
         <v>12.6</v>
       </c>
       <c r="F35" t="n">
-        <v>23989.7372</v>
+        <v>9000</v>
       </c>
       <c r="G35" t="n">
-        <v>12.10216666666666</v>
+        <v>12.09416666666666</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.79</v>
+        <v>12.6</v>
       </c>
       <c r="C36" t="n">
-        <v>12.91</v>
+        <v>12.6</v>
       </c>
       <c r="D36" t="n">
-        <v>12.91</v>
+        <v>12.61</v>
       </c>
       <c r="E36" t="n">
-        <v>12.79</v>
+        <v>12.6</v>
       </c>
       <c r="F36" t="n">
-        <v>76754.6587</v>
+        <v>23989.7372</v>
       </c>
       <c r="G36" t="n">
-        <v>12.11416666666666</v>
+        <v>12.10216666666666</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>12.89</v>
+        <v>12.79</v>
       </c>
       <c r="C37" t="n">
-        <v>12.89</v>
+        <v>12.91</v>
       </c>
       <c r="D37" t="n">
-        <v>12.89</v>
+        <v>12.91</v>
       </c>
       <c r="E37" t="n">
-        <v>12.89</v>
+        <v>12.79</v>
       </c>
       <c r="F37" t="n">
-        <v>419850.7889</v>
+        <v>76754.6587</v>
       </c>
       <c r="G37" t="n">
-        <v>12.12883333333333</v>
+        <v>12.11416666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1696,19 +1696,19 @@
         <v>12.89</v>
       </c>
       <c r="C38" t="n">
-        <v>12.75</v>
+        <v>12.89</v>
       </c>
       <c r="D38" t="n">
         <v>12.89</v>
       </c>
       <c r="E38" t="n">
-        <v>12.75</v>
+        <v>12.89</v>
       </c>
       <c r="F38" t="n">
-        <v>122267.7226</v>
+        <v>419850.7889</v>
       </c>
       <c r="G38" t="n">
-        <v>12.13833333333333</v>
+        <v>12.12883333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12.7</v>
+        <v>12.89</v>
       </c>
       <c r="C39" t="n">
-        <v>12.55</v>
+        <v>12.75</v>
       </c>
       <c r="D39" t="n">
-        <v>12.7</v>
+        <v>12.89</v>
       </c>
       <c r="E39" t="n">
-        <v>12.55</v>
+        <v>12.75</v>
       </c>
       <c r="F39" t="n">
-        <v>11214.6509</v>
+        <v>122267.7226</v>
       </c>
       <c r="G39" t="n">
-        <v>12.14449999999999</v>
+        <v>12.13833333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C40" t="n">
         <v>12.55</v>
       </c>
       <c r="D40" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E40" t="n">
         <v>12.55</v>
       </c>
       <c r="F40" t="n">
-        <v>22961.7834</v>
+        <v>11214.6509</v>
       </c>
       <c r="G40" t="n">
-        <v>12.15349999999999</v>
+        <v>12.14449999999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12.55</v>
+        <v>12.6</v>
       </c>
       <c r="C41" t="n">
         <v>12.55</v>
       </c>
       <c r="D41" t="n">
-        <v>12.55</v>
+        <v>12.6</v>
       </c>
       <c r="E41" t="n">
         <v>12.55</v>
       </c>
       <c r="F41" t="n">
-        <v>15697.1139</v>
+        <v>22961.7834</v>
       </c>
       <c r="G41" t="n">
-        <v>12.15966666666666</v>
+        <v>12.15349999999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>12.55</v>
       </c>
       <c r="F42" t="n">
-        <v>41114.4591</v>
+        <v>15697.1139</v>
       </c>
       <c r="G42" t="n">
-        <v>12.16816666666666</v>
+        <v>12.15966666666666</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12.54</v>
+        <v>12.55</v>
       </c>
       <c r="C43" t="n">
-        <v>12.37</v>
+        <v>12.55</v>
       </c>
       <c r="D43" t="n">
-        <v>12.54</v>
+        <v>12.55</v>
       </c>
       <c r="E43" t="n">
-        <v>12.37</v>
+        <v>12.55</v>
       </c>
       <c r="F43" t="n">
-        <v>15532.6135</v>
+        <v>41114.4591</v>
       </c>
       <c r="G43" t="n">
-        <v>12.17133333333333</v>
+        <v>12.16816666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12.37</v>
+        <v>12.54</v>
       </c>
       <c r="C44" t="n">
         <v>12.37</v>
       </c>
       <c r="D44" t="n">
-        <v>12.37</v>
+        <v>12.54</v>
       </c>
       <c r="E44" t="n">
         <v>12.37</v>
       </c>
       <c r="F44" t="n">
-        <v>27697.0424</v>
+        <v>15532.6135</v>
       </c>
       <c r="G44" t="n">
-        <v>12.17683333333333</v>
+        <v>12.17133333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12.36</v>
+        <v>12.37</v>
       </c>
       <c r="C45" t="n">
-        <v>11.71</v>
+        <v>12.37</v>
       </c>
       <c r="D45" t="n">
-        <v>12.36</v>
+        <v>12.37</v>
       </c>
       <c r="E45" t="n">
-        <v>11.6</v>
+        <v>12.37</v>
       </c>
       <c r="F45" t="n">
-        <v>676650.254</v>
+        <v>27697.0424</v>
       </c>
       <c r="G45" t="n">
-        <v>12.172</v>
+        <v>12.17683333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.39</v>
+        <v>12.36</v>
       </c>
       <c r="C46" t="n">
-        <v>12.39</v>
+        <v>11.71</v>
       </c>
       <c r="D46" t="n">
-        <v>12.39</v>
+        <v>12.36</v>
       </c>
       <c r="E46" t="n">
-        <v>12.39</v>
+        <v>11.6</v>
       </c>
       <c r="F46" t="n">
-        <v>541</v>
+        <v>676650.254</v>
       </c>
       <c r="G46" t="n">
-        <v>12.18</v>
+        <v>12.172</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>12.39</v>
       </c>
       <c r="C47" t="n">
-        <v>11.99</v>
+        <v>12.39</v>
       </c>
       <c r="D47" t="n">
         <v>12.39</v>
       </c>
       <c r="E47" t="n">
-        <v>11.99</v>
+        <v>12.39</v>
       </c>
       <c r="F47" t="n">
-        <v>100</v>
+        <v>541</v>
       </c>
       <c r="G47" t="n">
-        <v>12.1815</v>
+        <v>12.18</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>12.11</v>
+        <v>12.39</v>
       </c>
       <c r="C48" t="n">
-        <v>12.11</v>
+        <v>11.99</v>
       </c>
       <c r="D48" t="n">
-        <v>12.11</v>
+        <v>12.39</v>
       </c>
       <c r="E48" t="n">
-        <v>12.11</v>
+        <v>11.99</v>
       </c>
       <c r="F48" t="n">
-        <v>264.4319</v>
+        <v>100</v>
       </c>
       <c r="G48" t="n">
-        <v>12.185</v>
+        <v>12.1815</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>12.11</v>
       </c>
       <c r="C49" t="n">
-        <v>11.99</v>
+        <v>12.11</v>
       </c>
       <c r="D49" t="n">
         <v>12.11</v>
       </c>
       <c r="E49" t="n">
-        <v>11.99</v>
+        <v>12.11</v>
       </c>
       <c r="F49" t="n">
-        <v>90645.60490000001</v>
+        <v>264.4319</v>
       </c>
       <c r="G49" t="n">
-        <v>12.1865</v>
+        <v>12.185</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12.35</v>
+        <v>12.11</v>
       </c>
       <c r="C50" t="n">
-        <v>12.35</v>
+        <v>11.99</v>
       </c>
       <c r="D50" t="n">
-        <v>12.35</v>
+        <v>12.11</v>
       </c>
       <c r="E50" t="n">
-        <v>12.35</v>
+        <v>11.99</v>
       </c>
       <c r="F50" t="n">
-        <v>41</v>
+        <v>90645.60490000001</v>
       </c>
       <c r="G50" t="n">
-        <v>12.19</v>
+        <v>12.1865</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>12.25</v>
+        <v>12.35</v>
       </c>
       <c r="C51" t="n">
-        <v>12.25</v>
+        <v>12.35</v>
       </c>
       <c r="D51" t="n">
-        <v>12.25</v>
+        <v>12.35</v>
       </c>
       <c r="E51" t="n">
-        <v>12.25</v>
+        <v>12.35</v>
       </c>
       <c r="F51" t="n">
-        <v>15302.5608</v>
+        <v>41</v>
       </c>
       <c r="G51" t="n">
-        <v>12.19466666666666</v>
+        <v>12.19</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>12.25</v>
       </c>
       <c r="F52" t="n">
-        <v>52788.3153</v>
+        <v>15302.5608</v>
       </c>
       <c r="G52" t="n">
-        <v>12.19966666666666</v>
+        <v>12.19466666666666</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>12.41</v>
+        <v>12.25</v>
       </c>
       <c r="C53" t="n">
-        <v>12.41</v>
+        <v>12.25</v>
       </c>
       <c r="D53" t="n">
-        <v>12.41</v>
+        <v>12.25</v>
       </c>
       <c r="E53" t="n">
-        <v>12.41</v>
+        <v>12.25</v>
       </c>
       <c r="F53" t="n">
-        <v>61</v>
+        <v>52788.3153</v>
       </c>
       <c r="G53" t="n">
-        <v>12.20433333333333</v>
+        <v>12.19966666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>12.43</v>
+        <v>12.41</v>
       </c>
       <c r="C54" t="n">
-        <v>12.45</v>
+        <v>12.41</v>
       </c>
       <c r="D54" t="n">
-        <v>12.45</v>
+        <v>12.41</v>
       </c>
       <c r="E54" t="n">
-        <v>12.43</v>
+        <v>12.41</v>
       </c>
       <c r="F54" t="n">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="G54" t="n">
-        <v>12.21316666666666</v>
+        <v>12.20433333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>12.47</v>
+        <v>12.43</v>
       </c>
       <c r="C55" t="n">
-        <v>12.55</v>
+        <v>12.45</v>
       </c>
       <c r="D55" t="n">
-        <v>12.55</v>
+        <v>12.45</v>
       </c>
       <c r="E55" t="n">
-        <v>12.47</v>
+        <v>12.43</v>
       </c>
       <c r="F55" t="n">
-        <v>225</v>
+        <v>91</v>
       </c>
       <c r="G55" t="n">
-        <v>12.224</v>
+        <v>12.21316666666666</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12.45</v>
+        <v>12.47</v>
       </c>
       <c r="C56" t="n">
-        <v>12.43</v>
+        <v>12.55</v>
       </c>
       <c r="D56" t="n">
-        <v>12.45</v>
+        <v>12.55</v>
       </c>
       <c r="E56" t="n">
-        <v>12.43</v>
+        <v>12.47</v>
       </c>
       <c r="F56" t="n">
-        <v>2963.0935</v>
+        <v>225</v>
       </c>
       <c r="G56" t="n">
-        <v>12.23416666666666</v>
+        <v>12.224</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="C57" t="n">
         <v>12.43</v>
       </c>
-      <c r="C57" t="n">
-        <v>12.42</v>
-      </c>
       <c r="D57" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="E57" t="n">
         <v>12.43</v>
       </c>
-      <c r="E57" t="n">
-        <v>12.42</v>
-      </c>
       <c r="F57" t="n">
-        <v>2698.9552</v>
+        <v>2963.0935</v>
       </c>
       <c r="G57" t="n">
-        <v>12.24433333333333</v>
+        <v>12.23416666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="C58" t="n">
         <v>12.42</v>
       </c>
-      <c r="C58" t="n">
-        <v>12</v>
-      </c>
       <c r="D58" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="E58" t="n">
         <v>12.42</v>
       </c>
-      <c r="E58" t="n">
-        <v>12</v>
-      </c>
       <c r="F58" t="n">
-        <v>2536</v>
+        <v>2698.9552</v>
       </c>
       <c r="G58" t="n">
-        <v>12.24766666666666</v>
+        <v>12.24433333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>12.01</v>
+        <v>12.42</v>
       </c>
       <c r="C59" t="n">
         <v>12</v>
       </c>
       <c r="D59" t="n">
-        <v>12.01</v>
+        <v>12.42</v>
       </c>
       <c r="E59" t="n">
         <v>12</v>
       </c>
       <c r="F59" t="n">
-        <v>6529.653</v>
+        <v>2536</v>
       </c>
       <c r="G59" t="n">
-        <v>12.251</v>
+        <v>12.24766666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11.93</v>
+        <v>12.01</v>
       </c>
       <c r="C60" t="n">
-        <v>11.93</v>
+        <v>12</v>
       </c>
       <c r="D60" t="n">
-        <v>11.93</v>
+        <v>12.01</v>
       </c>
       <c r="E60" t="n">
-        <v>11.93</v>
+        <v>12</v>
       </c>
       <c r="F60" t="n">
-        <v>43694.8089</v>
+        <v>6529.653</v>
       </c>
       <c r="G60" t="n">
-        <v>12.24983333333333</v>
+        <v>12.251</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>12</v>
+        <v>11.93</v>
       </c>
       <c r="C61" t="n">
-        <v>11.92</v>
+        <v>11.93</v>
       </c>
       <c r="D61" t="n">
-        <v>12</v>
+        <v>11.93</v>
       </c>
       <c r="E61" t="n">
-        <v>11.91</v>
+        <v>11.93</v>
       </c>
       <c r="F61" t="n">
-        <v>102880.7839</v>
+        <v>43694.8089</v>
       </c>
       <c r="G61" t="n">
-        <v>12.2485</v>
+        <v>12.24983333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.92</v>
+        <v>12</v>
       </c>
       <c r="C62" t="n">
         <v>11.92</v>
       </c>
       <c r="D62" t="n">
-        <v>11.92</v>
+        <v>12</v>
       </c>
       <c r="E62" t="n">
-        <v>11.92</v>
+        <v>11.91</v>
       </c>
       <c r="F62" t="n">
-        <v>53881.9894</v>
+        <v>102880.7839</v>
       </c>
       <c r="G62" t="n">
-        <v>12.24716666666666</v>
+        <v>12.2485</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12.01</v>
+        <v>11.92</v>
       </c>
       <c r="C63" t="n">
-        <v>12.4</v>
+        <v>11.92</v>
       </c>
       <c r="D63" t="n">
-        <v>12.4</v>
+        <v>11.92</v>
       </c>
       <c r="E63" t="n">
-        <v>12.01</v>
+        <v>11.92</v>
       </c>
       <c r="F63" t="n">
-        <v>1050</v>
+        <v>53881.9894</v>
       </c>
       <c r="G63" t="n">
-        <v>12.25316666666666</v>
+        <v>12.24716666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12.04</v>
+        <v>12.01</v>
       </c>
       <c r="C64" t="n">
-        <v>11.9</v>
+        <v>12.4</v>
       </c>
       <c r="D64" t="n">
-        <v>12.04</v>
+        <v>12.4</v>
       </c>
       <c r="E64" t="n">
-        <v>11.9</v>
+        <v>12.01</v>
       </c>
       <c r="F64" t="n">
-        <v>117698.3436</v>
+        <v>1050</v>
       </c>
       <c r="G64" t="n">
-        <v>12.25083333333333</v>
+        <v>12.25316666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12.3</v>
+        <v>12.04</v>
       </c>
       <c r="C65" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="D65" t="n">
-        <v>12.3</v>
+        <v>12.04</v>
       </c>
       <c r="E65" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="F65" t="n">
-        <v>41</v>
+        <v>117698.3436</v>
       </c>
       <c r="G65" t="n">
-        <v>12.25516666666666</v>
+        <v>12.25083333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12.39</v>
+        <v>12.3</v>
       </c>
       <c r="C66" t="n">
-        <v>12.39</v>
+        <v>12.3</v>
       </c>
       <c r="D66" t="n">
-        <v>12.39</v>
+        <v>12.3</v>
       </c>
       <c r="E66" t="n">
-        <v>12.39</v>
+        <v>12.3</v>
       </c>
       <c r="F66" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G66" t="n">
-        <v>12.26149999999999</v>
+        <v>12.25516666666666</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,19 +2708,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12.01</v>
+        <v>12.39</v>
       </c>
       <c r="C67" t="n">
-        <v>12.01</v>
+        <v>12.39</v>
       </c>
       <c r="D67" t="n">
-        <v>12.01</v>
+        <v>12.39</v>
       </c>
       <c r="E67" t="n">
-        <v>12.01</v>
+        <v>12.39</v>
       </c>
       <c r="F67" t="n">
-        <v>16285.5727</v>
+        <v>50</v>
       </c>
       <c r="G67" t="n">
         <v>12.26149999999999</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12.2</v>
+        <v>12.01</v>
       </c>
       <c r="C68" t="n">
-        <v>12.2</v>
+        <v>12.01</v>
       </c>
       <c r="D68" t="n">
-        <v>12.2</v>
+        <v>12.01</v>
       </c>
       <c r="E68" t="n">
-        <v>12.2</v>
+        <v>12.01</v>
       </c>
       <c r="F68" t="n">
-        <v>8163.934426229508</v>
+        <v>16285.5727</v>
       </c>
       <c r="G68" t="n">
-        <v>12.2665</v>
+        <v>12.26149999999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2781,19 +2781,19 @@
         <v>12.2</v>
       </c>
       <c r="C69" t="n">
-        <v>12.57</v>
+        <v>12.2</v>
       </c>
       <c r="D69" t="n">
-        <v>12.57</v>
+        <v>12.2</v>
       </c>
       <c r="E69" t="n">
         <v>12.2</v>
       </c>
       <c r="F69" t="n">
-        <v>23701.1477</v>
+        <v>8163.934426229508</v>
       </c>
       <c r="G69" t="n">
-        <v>12.27916666666667</v>
+        <v>12.2665</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12.57</v>
+        <v>12.2</v>
       </c>
       <c r="C70" t="n">
         <v>12.57</v>
@@ -2822,13 +2822,13 @@
         <v>12.57</v>
       </c>
       <c r="E70" t="n">
-        <v>12.57</v>
+        <v>12.2</v>
       </c>
       <c r="F70" t="n">
-        <v>458</v>
+        <v>23701.1477</v>
       </c>
       <c r="G70" t="n">
-        <v>12.29183333333333</v>
+        <v>12.27916666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>12.28</v>
+        <v>12.57</v>
       </c>
       <c r="C71" t="n">
-        <v>12.28</v>
+        <v>12.57</v>
       </c>
       <c r="D71" t="n">
-        <v>12.28</v>
+        <v>12.57</v>
       </c>
       <c r="E71" t="n">
-        <v>12.28</v>
+        <v>12.57</v>
       </c>
       <c r="F71" t="n">
-        <v>17496.5785</v>
+        <v>458</v>
       </c>
       <c r="G71" t="n">
-        <v>12.29583333333333</v>
+        <v>12.29183333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12.58</v>
+        <v>12.28</v>
       </c>
       <c r="C72" t="n">
-        <v>12.58</v>
+        <v>12.28</v>
       </c>
       <c r="D72" t="n">
-        <v>12.58</v>
+        <v>12.28</v>
       </c>
       <c r="E72" t="n">
-        <v>12.58</v>
+        <v>12.28</v>
       </c>
       <c r="F72" t="n">
-        <v>100</v>
+        <v>17496.5785</v>
       </c>
       <c r="G72" t="n">
-        <v>12.30816666666667</v>
+        <v>12.29583333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>12.58</v>
       </c>
       <c r="F73" t="n">
-        <v>3965</v>
+        <v>100</v>
       </c>
       <c r="G73" t="n">
-        <v>12.32033333333333</v>
+        <v>12.30816666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>12.58</v>
       </c>
       <c r="F74" t="n">
-        <v>1000</v>
+        <v>3965</v>
       </c>
       <c r="G74" t="n">
-        <v>12.3325</v>
+        <v>12.32033333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.31</v>
+        <v>12.58</v>
       </c>
       <c r="C75" t="n">
-        <v>12.21</v>
+        <v>12.58</v>
       </c>
       <c r="D75" t="n">
-        <v>12.31</v>
+        <v>12.58</v>
       </c>
       <c r="E75" t="n">
-        <v>12.21</v>
+        <v>12.58</v>
       </c>
       <c r="F75" t="n">
-        <v>31131.3902</v>
+        <v>1000</v>
       </c>
       <c r="G75" t="n">
-        <v>12.3385</v>
+        <v>12.3325</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12.25</v>
+        <v>12.31</v>
       </c>
       <c r="C76" t="n">
-        <v>12.33</v>
+        <v>12.21</v>
       </c>
       <c r="D76" t="n">
-        <v>12.33</v>
+        <v>12.31</v>
       </c>
       <c r="E76" t="n">
-        <v>12.25</v>
+        <v>12.21</v>
       </c>
       <c r="F76" t="n">
-        <v>80</v>
+        <v>31131.3902</v>
       </c>
       <c r="G76" t="n">
-        <v>12.34366666666667</v>
+        <v>12.3385</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,7 +3058,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>12.06</v>
+        <v>12.25</v>
       </c>
       <c r="C77" t="n">
         <v>12.33</v>
@@ -3067,13 +3067,13 @@
         <v>12.33</v>
       </c>
       <c r="E77" t="n">
-        <v>12.05</v>
+        <v>12.25</v>
       </c>
       <c r="F77" t="n">
-        <v>12092</v>
+        <v>80</v>
       </c>
       <c r="G77" t="n">
-        <v>12.34883333333334</v>
+        <v>12.34366666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3096,19 +3096,19 @@
         <v>12.06</v>
       </c>
       <c r="C78" t="n">
-        <v>12.21</v>
+        <v>12.33</v>
       </c>
       <c r="D78" t="n">
-        <v>12.21</v>
+        <v>12.33</v>
       </c>
       <c r="E78" t="n">
         <v>12.05</v>
       </c>
       <c r="F78" t="n">
-        <v>71558.467</v>
+        <v>12092</v>
       </c>
       <c r="G78" t="n">
-        <v>12.35183333333334</v>
+        <v>12.34883333333334</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3137,13 +3137,13 @@
         <v>12.21</v>
       </c>
       <c r="E79" t="n">
-        <v>12</v>
+        <v>12.05</v>
       </c>
       <c r="F79" t="n">
-        <v>202473.5238</v>
+        <v>71558.467</v>
       </c>
       <c r="G79" t="n">
-        <v>12.35466666666667</v>
+        <v>12.35183333333334</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.1</v>
+        <v>12.06</v>
       </c>
       <c r="C80" t="n">
-        <v>12.2</v>
+        <v>12.21</v>
       </c>
       <c r="D80" t="n">
-        <v>12.2</v>
+        <v>12.21</v>
       </c>
       <c r="E80" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F80" t="n">
-        <v>33617.2327</v>
+        <v>202473.5238</v>
       </c>
       <c r="G80" t="n">
-        <v>12.35500000000001</v>
+        <v>12.35466666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C81" t="n">
         <v>12.2</v>
@@ -3207,13 +3207,13 @@
         <v>12.2</v>
       </c>
       <c r="E81" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F81" t="n">
-        <v>9536.874900000001</v>
+        <v>33617.2327</v>
       </c>
       <c r="G81" t="n">
-        <v>12.35516666666667</v>
+        <v>12.35500000000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.11</v>
+        <v>12.2</v>
       </c>
       <c r="C82" t="n">
-        <v>12.11</v>
+        <v>12.2</v>
       </c>
       <c r="D82" t="n">
-        <v>12.11</v>
+        <v>12.2</v>
       </c>
       <c r="E82" t="n">
-        <v>12.11</v>
+        <v>12.2</v>
       </c>
       <c r="F82" t="n">
-        <v>142.5216</v>
+        <v>9536.874900000001</v>
       </c>
       <c r="G82" t="n">
-        <v>12.35383333333334</v>
+        <v>12.35516666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>12.22</v>
+        <v>12.11</v>
       </c>
       <c r="C83" t="n">
-        <v>12.22</v>
+        <v>12.11</v>
       </c>
       <c r="D83" t="n">
-        <v>12.22</v>
+        <v>12.11</v>
       </c>
       <c r="E83" t="n">
-        <v>12.22</v>
+        <v>12.11</v>
       </c>
       <c r="F83" t="n">
-        <v>11594.1725</v>
+        <v>142.5216</v>
       </c>
       <c r="G83" t="n">
-        <v>12.35416666666667</v>
+        <v>12.35383333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.11</v>
+        <v>12.22</v>
       </c>
       <c r="C84" t="n">
-        <v>12</v>
+        <v>12.22</v>
       </c>
       <c r="D84" t="n">
-        <v>12.11</v>
+        <v>12.22</v>
       </c>
       <c r="E84" t="n">
-        <v>12</v>
+        <v>12.22</v>
       </c>
       <c r="F84" t="n">
-        <v>76754.6587</v>
+        <v>11594.1725</v>
       </c>
       <c r="G84" t="n">
-        <v>12.35066666666667</v>
+        <v>12.35416666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12.1</v>
+        <v>12.11</v>
       </c>
       <c r="C85" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="D85" t="n">
-        <v>12.1</v>
+        <v>12.11</v>
       </c>
       <c r="E85" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="F85" t="n">
-        <v>2060712.2589</v>
+        <v>76754.6587</v>
       </c>
       <c r="G85" t="n">
-        <v>12.33750000000001</v>
+        <v>12.35066666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C86" t="n">
-        <v>12.2</v>
+        <v>11.5</v>
       </c>
       <c r="D86" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E86" t="n">
-        <v>12.2</v>
+        <v>11.5</v>
       </c>
       <c r="F86" t="n">
-        <v>50</v>
+        <v>2060712.2589</v>
       </c>
       <c r="G86" t="n">
-        <v>12.33600000000001</v>
+        <v>12.33750000000001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12.19</v>
+        <v>12.2</v>
       </c>
       <c r="C87" t="n">
-        <v>12.19</v>
+        <v>12.2</v>
       </c>
       <c r="D87" t="n">
-        <v>12.19</v>
+        <v>12.2</v>
       </c>
       <c r="E87" t="n">
-        <v>12.19</v>
+        <v>12.2</v>
       </c>
       <c r="F87" t="n">
-        <v>40479.5861</v>
+        <v>50</v>
       </c>
       <c r="G87" t="n">
-        <v>12.32933333333334</v>
+        <v>12.33600000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>12.17</v>
+        <v>12.19</v>
       </c>
       <c r="C88" t="n">
-        <v>12.17</v>
+        <v>12.19</v>
       </c>
       <c r="D88" t="n">
-        <v>12.17</v>
+        <v>12.19</v>
       </c>
       <c r="E88" t="n">
-        <v>12.17</v>
+        <v>12.19</v>
       </c>
       <c r="F88" t="n">
-        <v>149896.1685</v>
+        <v>40479.5861</v>
       </c>
       <c r="G88" t="n">
-        <v>12.32233333333334</v>
+        <v>12.32933333333334</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>12.17</v>
       </c>
       <c r="F89" t="n">
-        <v>50103.8315</v>
+        <v>149896.1685</v>
       </c>
       <c r="G89" t="n">
-        <v>12.31183333333334</v>
+        <v>12.32233333333334</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>12.15</v>
+        <v>12.17</v>
       </c>
       <c r="C90" t="n">
-        <v>12.16</v>
+        <v>12.17</v>
       </c>
       <c r="D90" t="n">
-        <v>12.16</v>
+        <v>12.17</v>
       </c>
       <c r="E90" t="n">
-        <v>12.15</v>
+        <v>12.17</v>
       </c>
       <c r="F90" t="n">
-        <v>107764.175</v>
+        <v>50103.8315</v>
       </c>
       <c r="G90" t="n">
-        <v>12.30633333333334</v>
+        <v>12.31183333333334</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>11.82</v>
+        <v>12.15</v>
       </c>
       <c r="C91" t="n">
-        <v>11.82</v>
+        <v>12.16</v>
       </c>
       <c r="D91" t="n">
-        <v>11.82</v>
+        <v>12.16</v>
       </c>
       <c r="E91" t="n">
-        <v>11.82</v>
+        <v>12.15</v>
       </c>
       <c r="F91" t="n">
-        <v>266.4048</v>
+        <v>107764.175</v>
       </c>
       <c r="G91" t="n">
-        <v>12.29300000000001</v>
+        <v>12.30633333333334</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>12.16</v>
+        <v>11.82</v>
       </c>
       <c r="C92" t="n">
-        <v>12.16</v>
+        <v>11.82</v>
       </c>
       <c r="D92" t="n">
-        <v>12.16</v>
+        <v>11.82</v>
       </c>
       <c r="E92" t="n">
         <v>11.82</v>
       </c>
       <c r="F92" t="n">
-        <v>101212.2817</v>
+        <v>266.4048</v>
       </c>
       <c r="G92" t="n">
-        <v>12.28516666666667</v>
+        <v>12.29300000000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3627,13 +3627,13 @@
         <v>12.16</v>
       </c>
       <c r="E93" t="n">
-        <v>12.16</v>
+        <v>11.82</v>
       </c>
       <c r="F93" t="n">
-        <v>48434.5822</v>
+        <v>101212.2817</v>
       </c>
       <c r="G93" t="n">
-        <v>12.27783333333334</v>
+        <v>12.28516666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>12.15</v>
+        <v>12.16</v>
       </c>
       <c r="C94" t="n">
-        <v>12.15</v>
+        <v>12.16</v>
       </c>
       <c r="D94" t="n">
-        <v>12.15</v>
+        <v>12.16</v>
       </c>
       <c r="E94" t="n">
-        <v>12.15</v>
+        <v>12.16</v>
       </c>
       <c r="F94" t="n">
-        <v>77.5254</v>
+        <v>48434.5822</v>
       </c>
       <c r="G94" t="n">
-        <v>12.27033333333334</v>
+        <v>12.27783333333334</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3700,10 +3700,10 @@
         <v>12.15</v>
       </c>
       <c r="F95" t="n">
-        <v>1500</v>
+        <v>77.5254</v>
       </c>
       <c r="G95" t="n">
-        <v>12.26283333333334</v>
+        <v>12.27033333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.19</v>
+        <v>12.15</v>
       </c>
       <c r="C96" t="n">
-        <v>12.19</v>
+        <v>12.15</v>
       </c>
       <c r="D96" t="n">
-        <v>12.19</v>
+        <v>12.15</v>
       </c>
       <c r="E96" t="n">
-        <v>12.19</v>
+        <v>12.15</v>
       </c>
       <c r="F96" t="n">
-        <v>10099.5055</v>
+        <v>1500</v>
       </c>
       <c r="G96" t="n">
-        <v>12.25083333333334</v>
+        <v>12.26283333333334</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>12.19</v>
       </c>
       <c r="F97" t="n">
-        <v>1534.2582</v>
+        <v>10099.5055</v>
       </c>
       <c r="G97" t="n">
-        <v>12.23916666666667</v>
+        <v>12.25083333333334</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>12.19</v>
       </c>
       <c r="F98" t="n">
-        <v>3662.4383</v>
+        <v>1534.2582</v>
       </c>
       <c r="G98" t="n">
-        <v>12.22983333333334</v>
+        <v>12.23916666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12.06</v>
+        <v>12.19</v>
       </c>
       <c r="C99" t="n">
-        <v>12</v>
+        <v>12.19</v>
       </c>
       <c r="D99" t="n">
-        <v>12.06</v>
+        <v>12.19</v>
       </c>
       <c r="E99" t="n">
-        <v>12</v>
+        <v>12.19</v>
       </c>
       <c r="F99" t="n">
-        <v>5222.3863</v>
+        <v>3662.4383</v>
       </c>
       <c r="G99" t="n">
-        <v>12.22066666666668</v>
+        <v>12.22983333333334</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3866,19 +3866,19 @@
         <v>12.06</v>
       </c>
       <c r="C100" t="n">
-        <v>12.06</v>
+        <v>12</v>
       </c>
       <c r="D100" t="n">
         <v>12.06</v>
       </c>
       <c r="E100" t="n">
-        <v>12.06</v>
+        <v>12</v>
       </c>
       <c r="F100" t="n">
-        <v>31917.2832</v>
+        <v>5222.3863</v>
       </c>
       <c r="G100" t="n">
-        <v>12.21250000000001</v>
+        <v>12.22066666666668</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12.01</v>
+        <v>12.06</v>
       </c>
       <c r="C101" t="n">
-        <v>12.01</v>
+        <v>12.06</v>
       </c>
       <c r="D101" t="n">
         <v>12.06</v>
       </c>
       <c r="E101" t="n">
-        <v>12</v>
+        <v>12.06</v>
       </c>
       <c r="F101" t="n">
-        <v>179449.3844</v>
+        <v>31917.2832</v>
       </c>
       <c r="G101" t="n">
-        <v>12.20350000000001</v>
+        <v>12.21250000000001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>12.02</v>
+        <v>12.01</v>
       </c>
       <c r="C102" t="n">
-        <v>12.19</v>
+        <v>12.01</v>
       </c>
       <c r="D102" t="n">
-        <v>12.19</v>
+        <v>12.06</v>
       </c>
       <c r="E102" t="n">
-        <v>11.99</v>
+        <v>12</v>
       </c>
       <c r="F102" t="n">
-        <v>314953.7027</v>
+        <v>179449.3844</v>
       </c>
       <c r="G102" t="n">
-        <v>12.19750000000001</v>
+        <v>12.20350000000001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>12.03</v>
+        <v>12.02</v>
       </c>
       <c r="C103" t="n">
-        <v>12</v>
+        <v>12.19</v>
       </c>
       <c r="D103" t="n">
-        <v>12.03</v>
+        <v>12.19</v>
       </c>
       <c r="E103" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="F103" t="n">
-        <v>253960.8849</v>
+        <v>314953.7027</v>
       </c>
       <c r="G103" t="n">
-        <v>12.19133333333334</v>
+        <v>12.19750000000001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>12.01</v>
+        <v>12.03</v>
       </c>
       <c r="C104" t="n">
-        <v>11.99</v>
+        <v>12</v>
       </c>
       <c r="D104" t="n">
-        <v>12.01</v>
+        <v>12.03</v>
       </c>
       <c r="E104" t="n">
-        <v>11.99</v>
+        <v>12</v>
       </c>
       <c r="F104" t="n">
-        <v>37127.2866</v>
+        <v>253960.8849</v>
       </c>
       <c r="G104" t="n">
-        <v>12.18500000000001</v>
+        <v>12.19133333333334</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>11.99</v>
+        <v>12.01</v>
       </c>
       <c r="C105" t="n">
         <v>11.99</v>
       </c>
       <c r="D105" t="n">
-        <v>11.99</v>
+        <v>12.01</v>
       </c>
       <c r="E105" t="n">
         <v>11.99</v>
       </c>
       <c r="F105" t="n">
-        <v>15032.6616</v>
+        <v>37127.2866</v>
       </c>
       <c r="G105" t="n">
-        <v>12.18966666666668</v>
+        <v>12.18500000000001</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="C106" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="D106" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="E106" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="F106" t="n">
-        <v>68444.985</v>
+        <v>15032.6616</v>
       </c>
       <c r="G106" t="n">
-        <v>12.18316666666668</v>
+        <v>12.18966666666668</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12.03</v>
+        <v>12</v>
       </c>
       <c r="C107" t="n">
-        <v>12.03</v>
+        <v>12</v>
       </c>
       <c r="D107" t="n">
-        <v>12.03</v>
+        <v>12</v>
       </c>
       <c r="E107" t="n">
-        <v>12.03</v>
+        <v>12</v>
       </c>
       <c r="F107" t="n">
-        <v>170.2601</v>
+        <v>68444.985</v>
       </c>
       <c r="G107" t="n">
-        <v>12.18383333333334</v>
+        <v>12.18316666666668</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>11.91</v>
+        <v>12.03</v>
       </c>
       <c r="C108" t="n">
-        <v>11.91</v>
+        <v>12.03</v>
       </c>
       <c r="D108" t="n">
-        <v>11.91</v>
+        <v>12.03</v>
       </c>
       <c r="E108" t="n">
-        <v>11.91</v>
+        <v>12.03</v>
       </c>
       <c r="F108" t="n">
-        <v>141997.5767</v>
+        <v>170.2601</v>
       </c>
       <c r="G108" t="n">
-        <v>12.18050000000001</v>
+        <v>12.18383333333334</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>12.03</v>
+        <v>11.91</v>
       </c>
       <c r="C109" t="n">
-        <v>12.03</v>
+        <v>11.91</v>
       </c>
       <c r="D109" t="n">
-        <v>12.03</v>
+        <v>11.91</v>
       </c>
       <c r="E109" t="n">
-        <v>12.03</v>
+        <v>11.91</v>
       </c>
       <c r="F109" t="n">
-        <v>476.8967</v>
+        <v>141997.5767</v>
       </c>
       <c r="G109" t="n">
-        <v>12.18116666666667</v>
+        <v>12.18050000000001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>11.91</v>
+        <v>12.03</v>
       </c>
       <c r="C110" t="n">
-        <v>11.91</v>
+        <v>12.03</v>
       </c>
       <c r="D110" t="n">
-        <v>11.91</v>
+        <v>12.03</v>
       </c>
       <c r="E110" t="n">
-        <v>11.91</v>
+        <v>12.03</v>
       </c>
       <c r="F110" t="n">
-        <v>100000</v>
+        <v>476.8967</v>
       </c>
       <c r="G110" t="n">
-        <v>12.17383333333334</v>
+        <v>12.18116666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4263,7 +4263,7 @@
         <v>100000</v>
       </c>
       <c r="G111" t="n">
-        <v>12.16816666666667</v>
+        <v>12.17383333333334</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>12.16</v>
+        <v>11.91</v>
       </c>
       <c r="C112" t="n">
-        <v>12.16</v>
+        <v>11.91</v>
       </c>
       <c r="D112" t="n">
-        <v>12.16</v>
+        <v>11.91</v>
       </c>
       <c r="E112" t="n">
-        <v>12.16</v>
+        <v>11.91</v>
       </c>
       <c r="F112" t="n">
-        <v>94018.75079999999</v>
+        <v>100000</v>
       </c>
       <c r="G112" t="n">
-        <v>12.16666666666667</v>
+        <v>12.16816666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>12.17</v>
+        <v>12.16</v>
       </c>
       <c r="C113" t="n">
-        <v>12.17</v>
+        <v>12.16</v>
       </c>
       <c r="D113" t="n">
-        <v>12.17</v>
+        <v>12.16</v>
       </c>
       <c r="E113" t="n">
-        <v>12.17</v>
+        <v>12.16</v>
       </c>
       <c r="F113" t="n">
-        <v>229.3756</v>
+        <v>94018.75079999999</v>
       </c>
       <c r="G113" t="n">
-        <v>12.16266666666667</v>
+        <v>12.16666666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4365,10 +4365,10 @@
         <v>12.17</v>
       </c>
       <c r="F114" t="n">
-        <v>10600.034</v>
+        <v>229.3756</v>
       </c>
       <c r="G114" t="n">
-        <v>12.158</v>
+        <v>12.16266666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>11.94</v>
+        <v>12.17</v>
       </c>
       <c r="C115" t="n">
-        <v>11.9</v>
+        <v>12.17</v>
       </c>
       <c r="D115" t="n">
-        <v>11.94</v>
+        <v>12.17</v>
       </c>
       <c r="E115" t="n">
-        <v>11.9</v>
+        <v>12.17</v>
       </c>
       <c r="F115" t="n">
-        <v>641145.5818</v>
+        <v>10600.034</v>
       </c>
       <c r="G115" t="n">
-        <v>12.14716666666667</v>
+        <v>12.158</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>12.1</v>
+        <v>11.94</v>
       </c>
       <c r="C116" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D116" t="n">
-        <v>12.1</v>
+        <v>11.94</v>
       </c>
       <c r="E116" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F116" t="n">
-        <v>826.4462809917355</v>
+        <v>641145.5818</v>
       </c>
       <c r="G116" t="n">
-        <v>12.14166666666667</v>
+        <v>12.14716666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4470,10 +4470,10 @@
         <v>12.1</v>
       </c>
       <c r="F117" t="n">
-        <v>99938.3495</v>
+        <v>826.4462809917355</v>
       </c>
       <c r="G117" t="n">
-        <v>12.13633333333334</v>
+        <v>12.14166666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>11.94</v>
+        <v>12.1</v>
       </c>
       <c r="C118" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D118" t="n">
-        <v>11.94</v>
+        <v>12.1</v>
       </c>
       <c r="E118" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F118" t="n">
-        <v>97372.1339</v>
+        <v>99938.3495</v>
       </c>
       <c r="G118" t="n">
-        <v>12.13466666666667</v>
+        <v>12.13633333333334</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>11.9</v>
+        <v>11.94</v>
       </c>
       <c r="C119" t="n">
         <v>11.9</v>
       </c>
       <c r="D119" t="n">
-        <v>11.9</v>
+        <v>11.94</v>
       </c>
       <c r="E119" t="n">
         <v>11.9</v>
       </c>
       <c r="F119" t="n">
-        <v>8715.4596</v>
+        <v>97372.1339</v>
       </c>
       <c r="G119" t="n">
-        <v>12.13300000000001</v>
+        <v>12.13466666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C120" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D120" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E120" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F120" t="n">
-        <v>42</v>
+        <v>8715.4596</v>
       </c>
       <c r="G120" t="n">
-        <v>12.13583333333334</v>
+        <v>12.13300000000001</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>11.92</v>
+        <v>12.1</v>
       </c>
       <c r="C121" t="n">
-        <v>11.83</v>
+        <v>12.1</v>
       </c>
       <c r="D121" t="n">
-        <v>11.92</v>
+        <v>12.1</v>
       </c>
       <c r="E121" t="n">
-        <v>11.83</v>
+        <v>12.1</v>
       </c>
       <c r="F121" t="n">
-        <v>5174.3548</v>
+        <v>42</v>
       </c>
       <c r="G121" t="n">
-        <v>12.13433333333334</v>
+        <v>12.13583333333334</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="C122" t="n">
         <v>11.83</v>
       </c>
-      <c r="C122" t="n">
-        <v>11.82</v>
-      </c>
       <c r="D122" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="E122" t="n">
         <v>11.83</v>
       </c>
-      <c r="E122" t="n">
-        <v>11.82</v>
-      </c>
       <c r="F122" t="n">
-        <v>112171.0901</v>
+        <v>5174.3548</v>
       </c>
       <c r="G122" t="n">
-        <v>12.13266666666668</v>
+        <v>12.13433333333334</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4671,19 +4671,19 @@
         <v>11.83</v>
       </c>
       <c r="C123" t="n">
-        <v>11.83</v>
+        <v>11.82</v>
       </c>
       <c r="D123" t="n">
         <v>11.83</v>
       </c>
       <c r="E123" t="n">
-        <v>11.83</v>
+        <v>11.82</v>
       </c>
       <c r="F123" t="n">
-        <v>101375.2307</v>
+        <v>112171.0901</v>
       </c>
       <c r="G123" t="n">
-        <v>12.12316666666668</v>
+        <v>12.13266666666668</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>11.96</v>
+        <v>11.83</v>
       </c>
       <c r="C124" t="n">
-        <v>11.96</v>
+        <v>11.83</v>
       </c>
       <c r="D124" t="n">
-        <v>11.96</v>
+        <v>11.83</v>
       </c>
       <c r="E124" t="n">
-        <v>11.96</v>
+        <v>11.83</v>
       </c>
       <c r="F124" t="n">
-        <v>2374.1482</v>
+        <v>101375.2307</v>
       </c>
       <c r="G124" t="n">
-        <v>12.12416666666668</v>
+        <v>12.12316666666668</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4741,19 +4741,19 @@
         <v>11.96</v>
       </c>
       <c r="C125" t="n">
-        <v>12.01</v>
+        <v>11.96</v>
       </c>
       <c r="D125" t="n">
-        <v>12.01</v>
+        <v>11.96</v>
       </c>
       <c r="E125" t="n">
         <v>11.96</v>
       </c>
       <c r="F125" t="n">
-        <v>80452.9559</v>
+        <v>2374.1482</v>
       </c>
       <c r="G125" t="n">
-        <v>12.11933333333335</v>
+        <v>12.12416666666668</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,7 +4773,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>12.01</v>
+        <v>11.96</v>
       </c>
       <c r="C126" t="n">
         <v>12.01</v>
@@ -4782,13 +4782,13 @@
         <v>12.01</v>
       </c>
       <c r="E126" t="n">
-        <v>12.01</v>
+        <v>11.96</v>
       </c>
       <c r="F126" t="n">
-        <v>223907.1428</v>
+        <v>80452.9559</v>
       </c>
       <c r="G126" t="n">
-        <v>12.11300000000001</v>
+        <v>12.11933333333335</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4811,19 +4811,19 @@
         <v>12.01</v>
       </c>
       <c r="C127" t="n">
-        <v>11.86</v>
+        <v>12.01</v>
       </c>
       <c r="D127" t="n">
         <v>12.01</v>
       </c>
       <c r="E127" t="n">
-        <v>11.86</v>
+        <v>12.01</v>
       </c>
       <c r="F127" t="n">
-        <v>291126.5191</v>
+        <v>223907.1428</v>
       </c>
       <c r="G127" t="n">
-        <v>12.11050000000001</v>
+        <v>12.11300000000001</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>12.07</v>
+        <v>12.01</v>
       </c>
       <c r="C128" t="n">
-        <v>12.07</v>
+        <v>11.86</v>
       </c>
       <c r="D128" t="n">
-        <v>12.07</v>
+        <v>12.01</v>
       </c>
       <c r="E128" t="n">
-        <v>12.07</v>
+        <v>11.86</v>
       </c>
       <c r="F128" t="n">
-        <v>1178.8341</v>
+        <v>291126.5191</v>
       </c>
       <c r="G128" t="n">
-        <v>12.10833333333335</v>
+        <v>12.11050000000001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4890,10 +4890,10 @@
         <v>12.07</v>
       </c>
       <c r="F129" t="n">
-        <v>746.2305</v>
+        <v>1178.8341</v>
       </c>
       <c r="G129" t="n">
-        <v>12.10000000000001</v>
+        <v>12.10833333333335</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>12.03</v>
+        <v>12.07</v>
       </c>
       <c r="C130" t="n">
-        <v>12.03</v>
+        <v>12.07</v>
       </c>
       <c r="D130" t="n">
-        <v>12.03</v>
+        <v>12.07</v>
       </c>
       <c r="E130" t="n">
-        <v>12.03</v>
+        <v>12.07</v>
       </c>
       <c r="F130" t="n">
-        <v>4677.8034</v>
+        <v>746.2305</v>
       </c>
       <c r="G130" t="n">
-        <v>12.09100000000001</v>
+        <v>12.10000000000001</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>12.03</v>
       </c>
       <c r="F131" t="n">
-        <v>4773.1253</v>
+        <v>4677.8034</v>
       </c>
       <c r="G131" t="n">
-        <v>12.08683333333335</v>
+        <v>12.09100000000001</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4995,10 +4995,10 @@
         <v>12.03</v>
       </c>
       <c r="F132" t="n">
-        <v>223756</v>
+        <v>4773.1253</v>
       </c>
       <c r="G132" t="n">
-        <v>12.07766666666668</v>
+        <v>12.08683333333335</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5030,10 +5030,10 @@
         <v>12.03</v>
       </c>
       <c r="F133" t="n">
-        <v>9450.9287</v>
+        <v>223756</v>
       </c>
       <c r="G133" t="n">
-        <v>12.06850000000001</v>
+        <v>12.07766666666668</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>12.07</v>
+        <v>12.03</v>
       </c>
       <c r="C134" t="n">
-        <v>12.07</v>
+        <v>12.03</v>
       </c>
       <c r="D134" t="n">
-        <v>12.07</v>
+        <v>12.03</v>
       </c>
       <c r="E134" t="n">
-        <v>12.07</v>
+        <v>12.03</v>
       </c>
       <c r="F134" t="n">
-        <v>25721.4438</v>
+        <v>9450.9287</v>
       </c>
       <c r="G134" t="n">
-        <v>12.06000000000001</v>
+        <v>12.06850000000001</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>12.1</v>
+        <v>12.07</v>
       </c>
       <c r="C135" t="n">
-        <v>12.1</v>
+        <v>12.07</v>
       </c>
       <c r="D135" t="n">
-        <v>12.1</v>
+        <v>12.07</v>
       </c>
       <c r="E135" t="n">
-        <v>12.1</v>
+        <v>12.07</v>
       </c>
       <c r="F135" t="n">
-        <v>6356.949</v>
+        <v>25721.4438</v>
       </c>
       <c r="G135" t="n">
-        <v>12.05816666666668</v>
+        <v>12.06000000000001</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>12.16</v>
+        <v>12.1</v>
       </c>
       <c r="C136" t="n">
-        <v>12.18</v>
+        <v>12.1</v>
       </c>
       <c r="D136" t="n">
-        <v>12.18</v>
+        <v>12.1</v>
       </c>
       <c r="E136" t="n">
-        <v>12.16</v>
+        <v>12.1</v>
       </c>
       <c r="F136" t="n">
-        <v>140481.441</v>
+        <v>6356.949</v>
       </c>
       <c r="G136" t="n">
-        <v>12.05566666666667</v>
+        <v>12.05816666666668</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>12.19</v>
+        <v>12.16</v>
       </c>
       <c r="C137" t="n">
-        <v>12.19</v>
+        <v>12.18</v>
       </c>
       <c r="D137" t="n">
-        <v>12.19</v>
+        <v>12.18</v>
       </c>
       <c r="E137" t="n">
-        <v>12.19</v>
+        <v>12.16</v>
       </c>
       <c r="F137" t="n">
-        <v>47443.5011</v>
+        <v>140481.441</v>
       </c>
       <c r="G137" t="n">
-        <v>12.05333333333334</v>
+        <v>12.05566666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5205,10 +5205,10 @@
         <v>12.19</v>
       </c>
       <c r="F138" t="n">
-        <v>30000</v>
+        <v>47443.5011</v>
       </c>
       <c r="G138" t="n">
-        <v>12.05300000000001</v>
+        <v>12.05333333333334</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>12.06</v>
+        <v>12.19</v>
       </c>
       <c r="C139" t="n">
-        <v>12</v>
+        <v>12.19</v>
       </c>
       <c r="D139" t="n">
-        <v>12.06</v>
+        <v>12.19</v>
       </c>
       <c r="E139" t="n">
-        <v>12</v>
+        <v>12.19</v>
       </c>
       <c r="F139" t="n">
-        <v>18424.6277</v>
+        <v>30000</v>
       </c>
       <c r="G139" t="n">
-        <v>12.04950000000001</v>
+        <v>12.05300000000001</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>12.09</v>
+        <v>12.06</v>
       </c>
       <c r="C140" t="n">
-        <v>12.13</v>
+        <v>12</v>
       </c>
       <c r="D140" t="n">
-        <v>12.14</v>
+        <v>12.06</v>
       </c>
       <c r="E140" t="n">
-        <v>12.09</v>
+        <v>12</v>
       </c>
       <c r="F140" t="n">
-        <v>13650</v>
+        <v>18424.6277</v>
       </c>
       <c r="G140" t="n">
-        <v>12.04833333333334</v>
+        <v>12.04950000000001</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>12.12</v>
+        <v>12.09</v>
       </c>
       <c r="C141" t="n">
-        <v>12.06</v>
+        <v>12.13</v>
       </c>
       <c r="D141" t="n">
-        <v>12.12</v>
+        <v>12.14</v>
       </c>
       <c r="E141" t="n">
-        <v>12.06</v>
+        <v>12.09</v>
       </c>
       <c r="F141" t="n">
-        <v>350</v>
+        <v>13650</v>
       </c>
       <c r="G141" t="n">
-        <v>12.046</v>
+        <v>12.04833333333334</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>11.99</v>
+        <v>12.12</v>
       </c>
       <c r="C142" t="n">
-        <v>11.99</v>
+        <v>12.06</v>
       </c>
       <c r="D142" t="n">
-        <v>11.99</v>
+        <v>12.12</v>
       </c>
       <c r="E142" t="n">
-        <v>11.99</v>
+        <v>12.06</v>
       </c>
       <c r="F142" t="n">
-        <v>50079.9745</v>
+        <v>350</v>
       </c>
       <c r="G142" t="n">
-        <v>12.04400000000001</v>
+        <v>12.046</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>12.12</v>
+        <v>11.99</v>
       </c>
       <c r="C143" t="n">
-        <v>12.12</v>
+        <v>11.99</v>
       </c>
       <c r="D143" t="n">
-        <v>12.12</v>
+        <v>11.99</v>
       </c>
       <c r="E143" t="n">
-        <v>12.12</v>
+        <v>11.99</v>
       </c>
       <c r="F143" t="n">
-        <v>180</v>
+        <v>50079.9745</v>
       </c>
       <c r="G143" t="n">
-        <v>12.04233333333334</v>
+        <v>12.04400000000001</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>12.11</v>
+        <v>12.12</v>
       </c>
       <c r="C144" t="n">
-        <v>11.99</v>
+        <v>12.12</v>
       </c>
       <c r="D144" t="n">
-        <v>12.11</v>
+        <v>12.12</v>
       </c>
       <c r="E144" t="n">
-        <v>11.99</v>
+        <v>12.12</v>
       </c>
       <c r="F144" t="n">
-        <v>1320.0255</v>
+        <v>180</v>
       </c>
       <c r="G144" t="n">
-        <v>12.04216666666667</v>
+        <v>12.04233333333334</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>11.99</v>
+        <v>12.11</v>
       </c>
       <c r="C145" t="n">
         <v>11.99</v>
       </c>
       <c r="D145" t="n">
-        <v>11.99</v>
+        <v>12.11</v>
       </c>
       <c r="E145" t="n">
         <v>11.99</v>
       </c>
       <c r="F145" t="n">
-        <v>75459.9745</v>
+        <v>1320.0255</v>
       </c>
       <c r="G145" t="n">
-        <v>12.05033333333334</v>
+        <v>12.04216666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>12.12</v>
+        <v>11.99</v>
       </c>
       <c r="C146" t="n">
-        <v>12.12</v>
+        <v>11.99</v>
       </c>
       <c r="D146" t="n">
-        <v>12.12</v>
+        <v>11.99</v>
       </c>
       <c r="E146" t="n">
-        <v>12.12</v>
+        <v>11.99</v>
       </c>
       <c r="F146" t="n">
-        <v>150</v>
+        <v>75459.9745</v>
       </c>
       <c r="G146" t="n">
-        <v>12.049</v>
+        <v>12.05033333333334</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>11.99</v>
+        <v>12.12</v>
       </c>
       <c r="C147" t="n">
-        <v>11.99</v>
+        <v>12.12</v>
       </c>
       <c r="D147" t="n">
-        <v>11.99</v>
+        <v>12.12</v>
       </c>
       <c r="E147" t="n">
-        <v>11.99</v>
+        <v>12.12</v>
       </c>
       <c r="F147" t="n">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="G147" t="n">
-        <v>12.04566666666667</v>
+        <v>12.049</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5543,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>12.08</v>
+        <v>11.99</v>
       </c>
       <c r="C148" t="n">
         <v>11.99</v>
       </c>
       <c r="D148" t="n">
-        <v>12.08</v>
+        <v>11.99</v>
       </c>
       <c r="E148" t="n">
         <v>11.99</v>
       </c>
       <c r="F148" t="n">
-        <v>6191.823</v>
+        <v>700</v>
       </c>
       <c r="G148" t="n">
-        <v>12.04266666666667</v>
+        <v>12.04566666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>11.98</v>
+        <v>12.08</v>
       </c>
       <c r="C149" t="n">
-        <v>11.98</v>
+        <v>11.99</v>
       </c>
       <c r="D149" t="n">
-        <v>11.98</v>
+        <v>12.08</v>
       </c>
       <c r="E149" t="n">
-        <v>11.98</v>
+        <v>11.99</v>
       </c>
       <c r="F149" t="n">
-        <v>1218.2611</v>
+        <v>6191.823</v>
       </c>
       <c r="G149" t="n">
-        <v>12.03950000000001</v>
+        <v>12.04266666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5625,10 +5625,10 @@
         <v>11.98</v>
       </c>
       <c r="F150" t="n">
-        <v>3559.3877</v>
+        <v>1218.2611</v>
       </c>
       <c r="G150" t="n">
-        <v>12.03650000000001</v>
+        <v>12.03950000000001</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>12.09</v>
+        <v>11.98</v>
       </c>
       <c r="C151" t="n">
-        <v>12.09</v>
+        <v>11.98</v>
       </c>
       <c r="D151" t="n">
-        <v>12.09</v>
+        <v>11.98</v>
       </c>
       <c r="E151" t="n">
-        <v>12.09</v>
+        <v>11.98</v>
       </c>
       <c r="F151" t="n">
-        <v>42</v>
+        <v>3559.3877</v>
       </c>
       <c r="G151" t="n">
-        <v>12.04100000000001</v>
+        <v>12.03650000000001</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5686,19 +5686,19 @@
         <v>12.09</v>
       </c>
       <c r="C152" t="n">
-        <v>12.07</v>
+        <v>12.09</v>
       </c>
       <c r="D152" t="n">
         <v>12.09</v>
       </c>
       <c r="E152" t="n">
-        <v>12.07</v>
+        <v>12.09</v>
       </c>
       <c r="F152" t="n">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="G152" t="n">
-        <v>12.03950000000001</v>
+        <v>12.04100000000001</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>11.99</v>
+        <v>12.09</v>
       </c>
       <c r="C153" t="n">
-        <v>11.99</v>
+        <v>12.07</v>
       </c>
       <c r="D153" t="n">
-        <v>11.99</v>
+        <v>12.09</v>
       </c>
       <c r="E153" t="n">
-        <v>11.99</v>
+        <v>12.07</v>
       </c>
       <c r="F153" t="n">
-        <v>10000</v>
+        <v>126</v>
       </c>
       <c r="G153" t="n">
-        <v>12.03666666666667</v>
+        <v>12.03950000000001</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>11.98</v>
+        <v>11.99</v>
       </c>
       <c r="C154" t="n">
-        <v>11.9</v>
+        <v>11.99</v>
       </c>
       <c r="D154" t="n">
         <v>11.99</v>
       </c>
       <c r="E154" t="n">
-        <v>11.9</v>
+        <v>11.99</v>
       </c>
       <c r="F154" t="n">
-        <v>100447.589</v>
+        <v>10000</v>
       </c>
       <c r="G154" t="n">
-        <v>12.03250000000001</v>
+        <v>12.03666666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>12.1</v>
+        <v>11.98</v>
       </c>
       <c r="C155" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D155" t="n">
-        <v>12.1</v>
+        <v>11.99</v>
       </c>
       <c r="E155" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F155" t="n">
-        <v>75</v>
+        <v>100447.589</v>
       </c>
       <c r="G155" t="n">
-        <v>12.03166666666668</v>
+        <v>12.03250000000001</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>12.09</v>
+        <v>12.1</v>
       </c>
       <c r="C156" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D156" t="n">
-        <v>12.09</v>
+        <v>12.1</v>
       </c>
       <c r="E156" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F156" t="n">
-        <v>750</v>
+        <v>75</v>
       </c>
       <c r="G156" t="n">
-        <v>12.02850000000001</v>
+        <v>12.03166666666668</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +5858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>11.92</v>
+        <v>12.09</v>
       </c>
       <c r="C157" t="n">
-        <v>11.91</v>
+        <v>12</v>
       </c>
       <c r="D157" t="n">
-        <v>11.92</v>
+        <v>12.09</v>
       </c>
       <c r="E157" t="n">
-        <v>11.91</v>
+        <v>12</v>
       </c>
       <c r="F157" t="n">
-        <v>1497.9989</v>
+        <v>750</v>
       </c>
       <c r="G157" t="n">
-        <v>12.02383333333334</v>
+        <v>12.02850000000001</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +5893,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>11.99</v>
+        <v>11.92</v>
       </c>
       <c r="C158" t="n">
-        <v>11.98</v>
+        <v>11.91</v>
       </c>
       <c r="D158" t="n">
-        <v>11.99</v>
+        <v>11.92</v>
       </c>
       <c r="E158" t="n">
-        <v>11.98</v>
+        <v>11.91</v>
       </c>
       <c r="F158" t="n">
-        <v>12975.3272</v>
+        <v>1497.9989</v>
       </c>
       <c r="G158" t="n">
-        <v>12.02033333333334</v>
+        <v>12.02383333333334</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +5928,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>11.98</v>
+        <v>11.99</v>
       </c>
       <c r="C159" t="n">
         <v>11.98</v>
       </c>
       <c r="D159" t="n">
-        <v>11.98</v>
+        <v>11.99</v>
       </c>
       <c r="E159" t="n">
         <v>11.98</v>
       </c>
       <c r="F159" t="n">
-        <v>83.47245409015025</v>
+        <v>12975.3272</v>
       </c>
       <c r="G159" t="n">
-        <v>12.02000000000001</v>
+        <v>12.02033333333334</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>11.97</v>
+        <v>11.98</v>
       </c>
       <c r="C160" t="n">
-        <v>11.91</v>
+        <v>11.98</v>
       </c>
       <c r="D160" t="n">
-        <v>11.97</v>
+        <v>11.98</v>
       </c>
       <c r="E160" t="n">
-        <v>11.91</v>
+        <v>11.98</v>
       </c>
       <c r="F160" t="n">
-        <v>35000</v>
+        <v>83.47245409015025</v>
       </c>
       <c r="G160" t="n">
-        <v>12.01750000000001</v>
+        <v>12.02000000000001</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="C161" t="n">
         <v>11.91</v>
       </c>
-      <c r="C161" t="n">
-        <v>11.88</v>
-      </c>
       <c r="D161" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="E161" t="n">
         <v>11.91</v>
       </c>
-      <c r="E161" t="n">
-        <v>11.88</v>
-      </c>
       <c r="F161" t="n">
-        <v>31385.4791</v>
+        <v>35000</v>
       </c>
       <c r="G161" t="n">
-        <v>12.01533333333334</v>
+        <v>12.01750000000001</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>11.86</v>
+        <v>11.91</v>
       </c>
       <c r="C162" t="n">
-        <v>11.86</v>
+        <v>11.88</v>
       </c>
       <c r="D162" t="n">
-        <v>11.86</v>
+        <v>11.91</v>
       </c>
       <c r="E162" t="n">
-        <v>11.86</v>
+        <v>11.88</v>
       </c>
       <c r="F162" t="n">
-        <v>44</v>
+        <v>31385.4791</v>
       </c>
       <c r="G162" t="n">
-        <v>12.00983333333334</v>
+        <v>12.01533333333334</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6071,19 +6071,19 @@
         <v>11.86</v>
       </c>
       <c r="C163" t="n">
-        <v>12.08</v>
+        <v>11.86</v>
       </c>
       <c r="D163" t="n">
-        <v>12.09</v>
+        <v>11.86</v>
       </c>
       <c r="E163" t="n">
         <v>11.86</v>
       </c>
       <c r="F163" t="n">
-        <v>15354</v>
+        <v>44</v>
       </c>
       <c r="G163" t="n">
-        <v>12.01116666666667</v>
+        <v>12.00983333333334</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,22 +6103,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>12.08</v>
+        <v>11.86</v>
       </c>
       <c r="C164" t="n">
         <v>12.08</v>
       </c>
       <c r="D164" t="n">
-        <v>12.08</v>
+        <v>12.09</v>
       </c>
       <c r="E164" t="n">
-        <v>12.08</v>
+        <v>11.86</v>
       </c>
       <c r="F164" t="n">
-        <v>177.2455</v>
+        <v>15354</v>
       </c>
       <c r="G164" t="n">
-        <v>12.01266666666667</v>
+        <v>12.01116666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>12.1</v>
+        <v>12.08</v>
       </c>
       <c r="C165" t="n">
-        <v>12.09</v>
+        <v>12.08</v>
       </c>
       <c r="D165" t="n">
-        <v>12.1</v>
+        <v>12.08</v>
       </c>
       <c r="E165" t="n">
-        <v>12.09</v>
+        <v>12.08</v>
       </c>
       <c r="F165" t="n">
-        <v>40135.8527</v>
+        <v>177.2455</v>
       </c>
       <c r="G165" t="n">
-        <v>12.01433333333334</v>
+        <v>12.01266666666667</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6173,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>12.08</v>
+        <v>12.1</v>
       </c>
       <c r="C166" t="n">
-        <v>12.08</v>
+        <v>12.09</v>
       </c>
       <c r="D166" t="n">
-        <v>12.08</v>
+        <v>12.1</v>
       </c>
       <c r="E166" t="n">
-        <v>12.08</v>
+        <v>12.09</v>
       </c>
       <c r="F166" t="n">
-        <v>822.7545</v>
+        <v>40135.8527</v>
       </c>
       <c r="G166" t="n">
-        <v>12.01566666666668</v>
+        <v>12.01433333333334</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,22 +6208,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>12.07</v>
+        <v>12.08</v>
       </c>
       <c r="C167" t="n">
-        <v>11.85</v>
+        <v>12.08</v>
       </c>
       <c r="D167" t="n">
-        <v>12.07</v>
+        <v>12.08</v>
       </c>
       <c r="E167" t="n">
-        <v>11.85</v>
+        <v>12.08</v>
       </c>
       <c r="F167" t="n">
-        <v>26954.038</v>
+        <v>822.7545</v>
       </c>
       <c r="G167" t="n">
-        <v>12.01266666666668</v>
+        <v>12.01566666666668</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,22 +6243,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>11.9</v>
+        <v>12.07</v>
       </c>
       <c r="C168" t="n">
-        <v>11.84</v>
+        <v>11.85</v>
       </c>
       <c r="D168" t="n">
-        <v>11.9</v>
+        <v>12.07</v>
       </c>
       <c r="E168" t="n">
-        <v>11.84</v>
+        <v>11.85</v>
       </c>
       <c r="F168" t="n">
-        <v>34354.559</v>
+        <v>26954.038</v>
       </c>
       <c r="G168" t="n">
-        <v>12.01150000000001</v>
+        <v>12.01266666666668</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,22 +6278,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C169" t="n">
-        <v>12</v>
+        <v>11.84</v>
       </c>
       <c r="D169" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E169" t="n">
-        <v>12</v>
+        <v>11.84</v>
       </c>
       <c r="F169" t="n">
-        <v>83.33333333333333</v>
+        <v>34354.559</v>
       </c>
       <c r="G169" t="n">
-        <v>12.01100000000001</v>
+        <v>12.01150000000001</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,22 +6313,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>11.99</v>
+        <v>12</v>
       </c>
       <c r="C170" t="n">
-        <v>11.99</v>
+        <v>12</v>
       </c>
       <c r="D170" t="n">
-        <v>11.99</v>
+        <v>12</v>
       </c>
       <c r="E170" t="n">
-        <v>11.99</v>
+        <v>12</v>
       </c>
       <c r="F170" t="n">
-        <v>264</v>
+        <v>83.33333333333333</v>
       </c>
       <c r="G170" t="n">
-        <v>12.01233333333334</v>
+        <v>12.01100000000001</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6360,10 +6360,10 @@
         <v>11.99</v>
       </c>
       <c r="F171" t="n">
-        <v>7114.4388</v>
+        <v>264</v>
       </c>
       <c r="G171" t="n">
-        <v>12.01366666666668</v>
+        <v>12.01233333333334</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6383,22 +6383,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>11.86</v>
+        <v>11.99</v>
       </c>
       <c r="C172" t="n">
-        <v>11.86</v>
+        <v>11.99</v>
       </c>
       <c r="D172" t="n">
-        <v>11.86</v>
+        <v>11.99</v>
       </c>
       <c r="E172" t="n">
-        <v>11.86</v>
+        <v>11.99</v>
       </c>
       <c r="F172" t="n">
-        <v>2049.8333</v>
+        <v>7114.4388</v>
       </c>
       <c r="G172" t="n">
-        <v>12.00866666666668</v>
+        <v>12.01366666666668</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6430,10 +6430,10 @@
         <v>11.86</v>
       </c>
       <c r="F173" t="n">
-        <v>7480.6134</v>
+        <v>2049.8333</v>
       </c>
       <c r="G173" t="n">
-        <v>12.00350000000001</v>
+        <v>12.00866666666668</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6453,22 +6453,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>12</v>
+        <v>11.86</v>
       </c>
       <c r="C174" t="n">
-        <v>12</v>
+        <v>11.86</v>
       </c>
       <c r="D174" t="n">
-        <v>12</v>
+        <v>11.86</v>
       </c>
       <c r="E174" t="n">
-        <v>12</v>
+        <v>11.86</v>
       </c>
       <c r="F174" t="n">
-        <v>50</v>
+        <v>7480.6134</v>
       </c>
       <c r="G174" t="n">
-        <v>12.00066666666668</v>
+        <v>12.00350000000001</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,22 +6488,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>11.86</v>
+        <v>12</v>
       </c>
       <c r="C175" t="n">
-        <v>11.86</v>
+        <v>12</v>
       </c>
       <c r="D175" t="n">
-        <v>11.86</v>
+        <v>12</v>
       </c>
       <c r="E175" t="n">
-        <v>11.86</v>
+        <v>12</v>
       </c>
       <c r="F175" t="n">
-        <v>263.7007</v>
+        <v>50</v>
       </c>
       <c r="G175" t="n">
-        <v>12.00000000000002</v>
+        <v>12.00066666666668</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6535,10 +6535,10 @@
         <v>11.86</v>
       </c>
       <c r="F176" t="n">
-        <v>7951.7456</v>
+        <v>263.7007</v>
       </c>
       <c r="G176" t="n">
-        <v>11.99600000000001</v>
+        <v>12.00000000000002</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6558,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>12</v>
+        <v>11.86</v>
       </c>
       <c r="C177" t="n">
-        <v>12.13</v>
+        <v>11.86</v>
       </c>
       <c r="D177" t="n">
-        <v>12.13</v>
+        <v>11.86</v>
       </c>
       <c r="E177" t="n">
-        <v>12</v>
+        <v>11.86</v>
       </c>
       <c r="F177" t="n">
-        <v>240833.8827</v>
+        <v>7951.7456</v>
       </c>
       <c r="G177" t="n">
-        <v>11.99650000000002</v>
+        <v>11.99600000000001</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,22 +6593,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>12.12</v>
+        <v>12</v>
       </c>
       <c r="C178" t="n">
-        <v>12.12</v>
+        <v>12.13</v>
       </c>
       <c r="D178" t="n">
-        <v>12.12</v>
+        <v>12.13</v>
       </c>
       <c r="E178" t="n">
-        <v>12.12</v>
+        <v>12</v>
       </c>
       <c r="F178" t="n">
-        <v>14039.0525</v>
+        <v>240833.8827</v>
       </c>
       <c r="G178" t="n">
-        <v>12.00016666666668</v>
+        <v>11.99650000000002</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>11.94</v>
+        <v>12.12</v>
       </c>
       <c r="C179" t="n">
-        <v>11.87</v>
+        <v>12.12</v>
       </c>
       <c r="D179" t="n">
-        <v>11.94</v>
+        <v>12.12</v>
       </c>
       <c r="E179" t="n">
-        <v>11.87</v>
+        <v>12.12</v>
       </c>
       <c r="F179" t="n">
-        <v>12174</v>
+        <v>14039.0525</v>
       </c>
       <c r="G179" t="n">
-        <v>11.99966666666668</v>
+        <v>12.00016666666668</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>12.12</v>
+        <v>11.94</v>
       </c>
       <c r="C180" t="n">
-        <v>12.12</v>
+        <v>11.87</v>
       </c>
       <c r="D180" t="n">
-        <v>12.12</v>
+        <v>11.94</v>
       </c>
       <c r="E180" t="n">
-        <v>12.12</v>
+        <v>11.87</v>
       </c>
       <c r="F180" t="n">
-        <v>50</v>
+        <v>12174</v>
       </c>
       <c r="G180" t="n">
-        <v>12.00000000000002</v>
+        <v>11.99966666666668</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6698,22 +6698,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>11.87</v>
+        <v>12.12</v>
       </c>
       <c r="C181" t="n">
-        <v>12.1</v>
+        <v>12.12</v>
       </c>
       <c r="D181" t="n">
-        <v>12.1</v>
+        <v>12.12</v>
       </c>
       <c r="E181" t="n">
-        <v>11.86</v>
+        <v>12.12</v>
       </c>
       <c r="F181" t="n">
-        <v>91898.647</v>
+        <v>50</v>
       </c>
       <c r="G181" t="n">
-        <v>12.00450000000001</v>
+        <v>12.00000000000002</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,22 +6733,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>12.09</v>
+        <v>11.87</v>
       </c>
       <c r="C182" t="n">
-        <v>11.86</v>
+        <v>12.1</v>
       </c>
       <c r="D182" t="n">
-        <v>12.09</v>
+        <v>12.1</v>
       </c>
       <c r="E182" t="n">
         <v>11.86</v>
       </c>
       <c r="F182" t="n">
-        <v>44230.9463</v>
+        <v>91898.647</v>
       </c>
       <c r="G182" t="n">
-        <v>12.00516666666668</v>
+        <v>12.00450000000001</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6768,22 +6768,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>11.85</v>
+        <v>12.09</v>
       </c>
       <c r="C183" t="n">
-        <v>11.85</v>
+        <v>11.86</v>
       </c>
       <c r="D183" t="n">
-        <v>11.85</v>
+        <v>12.09</v>
       </c>
       <c r="E183" t="n">
-        <v>11.85</v>
+        <v>11.86</v>
       </c>
       <c r="F183" t="n">
-        <v>8788.5602</v>
+        <v>44230.9463</v>
       </c>
       <c r="G183" t="n">
-        <v>12.00550000000001</v>
+        <v>12.00516666666668</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>11.9</v>
+        <v>11.85</v>
       </c>
       <c r="C184" t="n">
-        <v>11.86</v>
+        <v>11.85</v>
       </c>
       <c r="D184" t="n">
-        <v>11.9</v>
+        <v>11.85</v>
       </c>
       <c r="E184" t="n">
         <v>11.85</v>
       </c>
       <c r="F184" t="n">
-        <v>455461.5558</v>
+        <v>8788.5602</v>
       </c>
       <c r="G184" t="n">
-        <v>12.00383333333335</v>
+        <v>12.00550000000001</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,22 +6838,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C185" t="n">
-        <v>12.1</v>
+        <v>11.86</v>
       </c>
       <c r="D185" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E185" t="n">
-        <v>12.1</v>
+        <v>11.85</v>
       </c>
       <c r="F185" t="n">
-        <v>100</v>
+        <v>455461.5558</v>
       </c>
       <c r="G185" t="n">
-        <v>12.00533333333335</v>
+        <v>12.00383333333335</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6876,19 +6876,19 @@
         <v>12.1</v>
       </c>
       <c r="C186" t="n">
-        <v>11.88</v>
+        <v>12.1</v>
       </c>
       <c r="D186" t="n">
         <v>12.1</v>
       </c>
       <c r="E186" t="n">
-        <v>11.88</v>
+        <v>12.1</v>
       </c>
       <c r="F186" t="n">
-        <v>423.0457</v>
+        <v>100</v>
       </c>
       <c r="G186" t="n">
-        <v>12.00316666666668</v>
+        <v>12.00533333333335</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6911,19 +6911,19 @@
         <v>12.1</v>
       </c>
       <c r="C187" t="n">
-        <v>12.1</v>
+        <v>11.88</v>
       </c>
       <c r="D187" t="n">
         <v>12.1</v>
       </c>
       <c r="E187" t="n">
-        <v>12.1</v>
+        <v>11.88</v>
       </c>
       <c r="F187" t="n">
-        <v>45</v>
+        <v>423.0457</v>
       </c>
       <c r="G187" t="n">
-        <v>12.00716666666668</v>
+        <v>12.00316666666668</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6943,22 +6943,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="C188" t="n">
-        <v>11.85</v>
+        <v>12.1</v>
       </c>
       <c r="D188" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E188" t="n">
-        <v>11.85</v>
+        <v>12.1</v>
       </c>
       <c r="F188" t="n">
-        <v>98604.54059999999</v>
+        <v>45</v>
       </c>
       <c r="G188" t="n">
-        <v>12.00350000000001</v>
+        <v>12.00716666666668</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6978,22 +6978,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C189" t="n">
-        <v>12</v>
+        <v>11.85</v>
       </c>
       <c r="D189" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E189" t="n">
-        <v>12</v>
+        <v>11.85</v>
       </c>
       <c r="F189" t="n">
-        <v>50</v>
+        <v>98604.54059999999</v>
       </c>
       <c r="G189" t="n">
-        <v>12.00233333333335</v>
+        <v>12.00350000000001</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7013,22 +7013,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>11.86</v>
+        <v>12</v>
       </c>
       <c r="C190" t="n">
-        <v>11.85</v>
+        <v>12</v>
       </c>
       <c r="D190" t="n">
-        <v>11.86</v>
+        <v>12</v>
       </c>
       <c r="E190" t="n">
-        <v>11.85</v>
+        <v>12</v>
       </c>
       <c r="F190" t="n">
-        <v>12239</v>
+        <v>50</v>
       </c>
       <c r="G190" t="n">
-        <v>11.99933333333335</v>
+        <v>12.00233333333335</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,22 +7048,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>11.99</v>
+        <v>11.86</v>
       </c>
       <c r="C191" t="n">
-        <v>11.99</v>
+        <v>11.85</v>
       </c>
       <c r="D191" t="n">
-        <v>11.99</v>
+        <v>11.86</v>
       </c>
       <c r="E191" t="n">
-        <v>11.99</v>
+        <v>11.85</v>
       </c>
       <c r="F191" t="n">
-        <v>12926.4486</v>
+        <v>12239</v>
       </c>
       <c r="G191" t="n">
-        <v>11.99866666666668</v>
+        <v>11.99933333333335</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7083,22 +7083,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="C192" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="D192" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="E192" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="F192" t="n">
-        <v>228.8512</v>
+        <v>12926.4486</v>
       </c>
       <c r="G192" t="n">
-        <v>11.99816666666668</v>
+        <v>11.99866666666668</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7118,22 +7118,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>11.99</v>
+        <v>12</v>
       </c>
       <c r="C193" t="n">
-        <v>11.99</v>
+        <v>12</v>
       </c>
       <c r="D193" t="n">
-        <v>11.99</v>
+        <v>12</v>
       </c>
       <c r="E193" t="n">
-        <v>11.99</v>
+        <v>12</v>
       </c>
       <c r="F193" t="n">
-        <v>13562.4932</v>
+        <v>228.8512</v>
       </c>
       <c r="G193" t="n">
-        <v>11.99750000000001</v>
+        <v>11.99816666666668</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7153,22 +7153,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>11.9</v>
+        <v>11.99</v>
       </c>
       <c r="C194" t="n">
-        <v>11.9</v>
+        <v>11.99</v>
       </c>
       <c r="D194" t="n">
-        <v>11.9</v>
+        <v>11.99</v>
       </c>
       <c r="E194" t="n">
-        <v>11.9</v>
+        <v>11.99</v>
       </c>
       <c r="F194" t="n">
-        <v>138551.1859</v>
+        <v>13562.4932</v>
       </c>
       <c r="G194" t="n">
-        <v>11.99466666666668</v>
+        <v>11.99750000000001</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>11.88</v>
+        <v>11.9</v>
       </c>
       <c r="C195" t="n">
-        <v>11.88</v>
+        <v>11.9</v>
       </c>
       <c r="D195" t="n">
-        <v>11.88</v>
+        <v>11.9</v>
       </c>
       <c r="E195" t="n">
-        <v>11.88</v>
+        <v>11.9</v>
       </c>
       <c r="F195" t="n">
-        <v>69937.19070000001</v>
+        <v>138551.1859</v>
       </c>
       <c r="G195" t="n">
-        <v>11.99100000000001</v>
+        <v>11.99466666666668</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7235,10 +7235,10 @@
         <v>11.88</v>
       </c>
       <c r="F196" t="n">
-        <v>25815.1074</v>
+        <v>69937.19070000001</v>
       </c>
       <c r="G196" t="n">
-        <v>11.98600000000001</v>
+        <v>11.99100000000001</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7258,22 +7258,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>11.87</v>
+        <v>11.88</v>
       </c>
       <c r="C197" t="n">
-        <v>11.85</v>
+        <v>11.88</v>
       </c>
       <c r="D197" t="n">
-        <v>11.87</v>
+        <v>11.88</v>
       </c>
       <c r="E197" t="n">
-        <v>11.85</v>
+        <v>11.88</v>
       </c>
       <c r="F197" t="n">
-        <v>128577.2526</v>
+        <v>25815.1074</v>
       </c>
       <c r="G197" t="n">
-        <v>11.98033333333335</v>
+        <v>11.98600000000001</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7293,22 +7293,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>11.85</v>
+        <v>11.87</v>
       </c>
       <c r="C198" t="n">
         <v>11.85</v>
       </c>
       <c r="D198" t="n">
-        <v>11.85</v>
+        <v>11.87</v>
       </c>
       <c r="E198" t="n">
         <v>11.85</v>
       </c>
       <c r="F198" t="n">
-        <v>5015.3159</v>
+        <v>128577.2526</v>
       </c>
       <c r="G198" t="n">
-        <v>11.97466666666668</v>
+        <v>11.98033333333335</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7328,22 +7328,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>11.9</v>
+        <v>11.85</v>
       </c>
       <c r="C199" t="n">
-        <v>11.9</v>
+        <v>11.85</v>
       </c>
       <c r="D199" t="n">
-        <v>11.9</v>
+        <v>11.85</v>
       </c>
       <c r="E199" t="n">
-        <v>11.9</v>
+        <v>11.85</v>
       </c>
       <c r="F199" t="n">
-        <v>1910</v>
+        <v>5015.3159</v>
       </c>
       <c r="G199" t="n">
-        <v>11.97300000000001</v>
+        <v>11.97466666666668</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7366,19 +7366,19 @@
         <v>11.9</v>
       </c>
       <c r="C200" t="n">
-        <v>11.85</v>
+        <v>11.9</v>
       </c>
       <c r="D200" t="n">
         <v>11.9</v>
       </c>
       <c r="E200" t="n">
-        <v>11.85</v>
+        <v>11.9</v>
       </c>
       <c r="F200" t="n">
-        <v>240931.1505</v>
+        <v>1910</v>
       </c>
       <c r="G200" t="n">
-        <v>11.96833333333335</v>
+        <v>11.97300000000001</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7398,22 +7398,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>11.85</v>
+        <v>11.9</v>
       </c>
       <c r="C201" t="n">
         <v>11.85</v>
       </c>
       <c r="D201" t="n">
-        <v>11.85</v>
+        <v>11.9</v>
       </c>
       <c r="E201" t="n">
         <v>11.85</v>
       </c>
       <c r="F201" t="n">
-        <v>163522.1201</v>
+        <v>240931.1505</v>
       </c>
       <c r="G201" t="n">
-        <v>11.96483333333335</v>
+        <v>11.96833333333335</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7433,19 +7433,19 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>11.99</v>
+        <v>11.85</v>
       </c>
       <c r="C202" t="n">
-        <v>11.99</v>
+        <v>11.85</v>
       </c>
       <c r="D202" t="n">
-        <v>11.99</v>
+        <v>11.85</v>
       </c>
       <c r="E202" t="n">
-        <v>11.99</v>
+        <v>11.85</v>
       </c>
       <c r="F202" t="n">
-        <v>18587.2938</v>
+        <v>163522.1201</v>
       </c>
       <c r="G202" t="n">
         <v>11.96483333333335</v>
@@ -7480,10 +7480,10 @@
         <v>11.99</v>
       </c>
       <c r="F203" t="n">
-        <v>41922.1174</v>
+        <v>18587.2938</v>
       </c>
       <c r="G203" t="n">
-        <v>11.96266666666668</v>
+        <v>11.96483333333335</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7515,7 +7515,7 @@
         <v>11.99</v>
       </c>
       <c r="F204" t="n">
-        <v>2000</v>
+        <v>41922.1174</v>
       </c>
       <c r="G204" t="n">
         <v>11.96266666666668</v>
@@ -7550,7 +7550,7 @@
         <v>11.99</v>
       </c>
       <c r="F205" t="n">
-        <v>19978.0947</v>
+        <v>2000</v>
       </c>
       <c r="G205" t="n">
         <v>11.96266666666668</v>
@@ -7585,10 +7585,10 @@
         <v>11.99</v>
       </c>
       <c r="F206" t="n">
-        <v>21910.1879</v>
+        <v>19978.0947</v>
       </c>
       <c r="G206" t="n">
-        <v>11.96050000000002</v>
+        <v>11.96266666666668</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7611,19 +7611,19 @@
         <v>11.99</v>
       </c>
       <c r="C207" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="D207" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="E207" t="n">
         <v>11.99</v>
       </c>
       <c r="F207" t="n">
-        <v>78922.66590000001</v>
+        <v>21910.1879</v>
       </c>
       <c r="G207" t="n">
-        <v>11.96066666666668</v>
+        <v>11.96050000000002</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7643,7 +7643,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="C208" t="n">
         <v>12</v>
@@ -7652,13 +7652,13 @@
         <v>12</v>
       </c>
       <c r="E208" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="F208" t="n">
-        <v>15796.2393</v>
+        <v>78922.66590000001</v>
       </c>
       <c r="G208" t="n">
-        <v>11.96083333333335</v>
+        <v>11.96066666666668</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7678,22 +7678,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C209" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D209" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E209" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F209" t="n">
-        <v>826.4462809917355</v>
+        <v>15796.2393</v>
       </c>
       <c r="G209" t="n">
-        <v>11.96283333333335</v>
+        <v>11.96083333333335</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7713,22 +7713,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="C210" t="n">
-        <v>11.83</v>
+        <v>12.1</v>
       </c>
       <c r="D210" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E210" t="n">
-        <v>11.83</v>
+        <v>12.1</v>
       </c>
       <c r="F210" t="n">
-        <v>79699.1121</v>
+        <v>826.4462809917355</v>
       </c>
       <c r="G210" t="n">
-        <v>11.96033333333335</v>
+        <v>11.96283333333335</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7748,22 +7748,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>11.99</v>
+        <v>11.9</v>
       </c>
       <c r="C211" t="n">
-        <v>11.99</v>
+        <v>11.83</v>
       </c>
       <c r="D211" t="n">
-        <v>11.99</v>
+        <v>11.9</v>
       </c>
       <c r="E211" t="n">
-        <v>11.99</v>
+        <v>11.83</v>
       </c>
       <c r="F211" t="n">
-        <v>50</v>
+        <v>79699.1121</v>
       </c>
       <c r="G211" t="n">
-        <v>11.95866666666668</v>
+        <v>11.96033333333335</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7786,19 +7786,19 @@
         <v>11.99</v>
       </c>
       <c r="C212" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="D212" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="E212" t="n">
         <v>11.99</v>
       </c>
       <c r="F212" t="n">
-        <v>14705.4775</v>
+        <v>50</v>
       </c>
       <c r="G212" t="n">
-        <v>11.95750000000001</v>
+        <v>11.95866666666668</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7818,22 +7818,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>12.05</v>
+        <v>11.99</v>
       </c>
       <c r="C213" t="n">
-        <v>12.05</v>
+        <v>12</v>
       </c>
       <c r="D213" t="n">
-        <v>12.05</v>
+        <v>12</v>
       </c>
       <c r="E213" t="n">
-        <v>12.05</v>
+        <v>11.99</v>
       </c>
       <c r="F213" t="n">
-        <v>56000</v>
+        <v>14705.4775</v>
       </c>
       <c r="G213" t="n">
-        <v>11.95850000000001</v>
+        <v>11.95750000000001</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7853,19 +7853,19 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>11.9</v>
+        <v>12.05</v>
       </c>
       <c r="C214" t="n">
-        <v>11.9</v>
+        <v>12.05</v>
       </c>
       <c r="D214" t="n">
-        <v>11.9</v>
+        <v>12.05</v>
       </c>
       <c r="E214" t="n">
-        <v>11.9</v>
+        <v>12.05</v>
       </c>
       <c r="F214" t="n">
-        <v>3175.3598</v>
+        <v>56000</v>
       </c>
       <c r="G214" t="n">
         <v>11.95850000000001</v>
@@ -7888,22 +7888,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>11.84</v>
+        <v>11.9</v>
       </c>
       <c r="C215" t="n">
-        <v>11.84</v>
+        <v>11.9</v>
       </c>
       <c r="D215" t="n">
-        <v>11.84</v>
+        <v>11.9</v>
       </c>
       <c r="E215" t="n">
-        <v>11.84</v>
+        <v>11.9</v>
       </c>
       <c r="F215" t="n">
-        <v>14039.0525</v>
+        <v>3175.3598</v>
       </c>
       <c r="G215" t="n">
-        <v>11.95416666666668</v>
+        <v>11.95850000000001</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7923,19 +7923,19 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>11.9</v>
+        <v>11.84</v>
       </c>
       <c r="C216" t="n">
-        <v>12</v>
+        <v>11.84</v>
       </c>
       <c r="D216" t="n">
-        <v>12</v>
+        <v>11.84</v>
       </c>
       <c r="E216" t="n">
-        <v>11.9</v>
+        <v>11.84</v>
       </c>
       <c r="F216" t="n">
-        <v>4538.7663</v>
+        <v>14039.0525</v>
       </c>
       <c r="G216" t="n">
         <v>11.95416666666668</v>
@@ -7958,22 +7958,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>12.06</v>
+        <v>11.9</v>
       </c>
       <c r="C217" t="n">
-        <v>12.06</v>
+        <v>12</v>
       </c>
       <c r="D217" t="n">
-        <v>12.06</v>
+        <v>12</v>
       </c>
       <c r="E217" t="n">
-        <v>12.06</v>
+        <v>11.9</v>
       </c>
       <c r="F217" t="n">
-        <v>50</v>
+        <v>4538.7663</v>
       </c>
       <c r="G217" t="n">
-        <v>11.95666666666668</v>
+        <v>11.95416666666668</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -7993,22 +7993,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>12.05</v>
+        <v>12.06</v>
       </c>
       <c r="C218" t="n">
-        <v>12.05</v>
+        <v>12.06</v>
       </c>
       <c r="D218" t="n">
-        <v>12.05</v>
+        <v>12.06</v>
       </c>
       <c r="E218" t="n">
-        <v>12.05</v>
+        <v>12.06</v>
       </c>
       <c r="F218" t="n">
-        <v>61.2337</v>
+        <v>50</v>
       </c>
       <c r="G218" t="n">
-        <v>11.95783333333335</v>
+        <v>11.95666666666668</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8028,22 +8028,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>12.04</v>
+        <v>12.05</v>
       </c>
       <c r="C219" t="n">
-        <v>12.02</v>
+        <v>12.05</v>
       </c>
       <c r="D219" t="n">
-        <v>12.04</v>
+        <v>12.05</v>
       </c>
       <c r="E219" t="n">
-        <v>12.02</v>
+        <v>12.05</v>
       </c>
       <c r="F219" t="n">
-        <v>150</v>
+        <v>61.2337</v>
       </c>
       <c r="G219" t="n">
-        <v>11.95850000000001</v>
+        <v>11.95783333333335</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8063,22 +8063,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>11.9</v>
+        <v>12.04</v>
       </c>
       <c r="C220" t="n">
-        <v>11.9</v>
+        <v>12.02</v>
       </c>
       <c r="D220" t="n">
-        <v>11.9</v>
+        <v>12.04</v>
       </c>
       <c r="E220" t="n">
-        <v>11.9</v>
+        <v>12.02</v>
       </c>
       <c r="F220" t="n">
-        <v>28017.2826</v>
+        <v>150</v>
       </c>
       <c r="G220" t="n">
-        <v>11.95833333333334</v>
+        <v>11.95850000000001</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8110,10 +8110,10 @@
         <v>11.9</v>
       </c>
       <c r="F221" t="n">
-        <v>4728.4776</v>
+        <v>28017.2826</v>
       </c>
       <c r="G221" t="n">
-        <v>11.95866666666668</v>
+        <v>11.95833333333334</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8133,22 +8133,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C222" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D222" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E222" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F222" t="n">
-        <v>50</v>
+        <v>4728.4776</v>
       </c>
       <c r="G222" t="n">
-        <v>11.96100000000001</v>
+        <v>11.95866666666668</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8171,19 +8171,19 @@
         <v>12</v>
       </c>
       <c r="C223" t="n">
-        <v>12.05</v>
+        <v>12</v>
       </c>
       <c r="D223" t="n">
-        <v>12.05</v>
+        <v>12</v>
       </c>
       <c r="E223" t="n">
         <v>12</v>
       </c>
       <c r="F223" t="n">
-        <v>3120.2838</v>
+        <v>50</v>
       </c>
       <c r="G223" t="n">
-        <v>11.96050000000001</v>
+        <v>11.96100000000001</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8203,22 +8203,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>11.91</v>
+        <v>12</v>
       </c>
       <c r="C224" t="n">
-        <v>12.01</v>
+        <v>12.05</v>
       </c>
       <c r="D224" t="n">
-        <v>12.01</v>
+        <v>12.05</v>
       </c>
       <c r="E224" t="n">
-        <v>11.91</v>
+        <v>12</v>
       </c>
       <c r="F224" t="n">
-        <v>265726.5336</v>
+        <v>3120.2838</v>
       </c>
       <c r="G224" t="n">
-        <v>11.95933333333334</v>
+        <v>11.96050000000001</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8238,22 +8238,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>11.9</v>
+        <v>11.91</v>
       </c>
       <c r="C225" t="n">
-        <v>12</v>
+        <v>12.01</v>
       </c>
       <c r="D225" t="n">
-        <v>12</v>
+        <v>12.01</v>
       </c>
       <c r="E225" t="n">
-        <v>11.9</v>
+        <v>11.91</v>
       </c>
       <c r="F225" t="n">
-        <v>3238.6351</v>
+        <v>265726.5336</v>
       </c>
       <c r="G225" t="n">
-        <v>11.95783333333334</v>
+        <v>11.95933333333334</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C226" t="n">
         <v>12</v>
@@ -8282,13 +8282,13 @@
         <v>12</v>
       </c>
       <c r="E226" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F226" t="n">
-        <v>83.33333333333333</v>
+        <v>3238.6351</v>
       </c>
       <c r="G226" t="n">
-        <v>11.95650000000001</v>
+        <v>11.95783333333334</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8308,22 +8308,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>11.86</v>
+        <v>12</v>
       </c>
       <c r="C227" t="n">
-        <v>11.86</v>
+        <v>12</v>
       </c>
       <c r="D227" t="n">
-        <v>11.86</v>
+        <v>12</v>
       </c>
       <c r="E227" t="n">
-        <v>11.86</v>
+        <v>12</v>
       </c>
       <c r="F227" t="n">
-        <v>8039.3329</v>
+        <v>83.33333333333333</v>
       </c>
       <c r="G227" t="n">
-        <v>11.95666666666667</v>
+        <v>11.95650000000001</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>12</v>
+        <v>11.86</v>
       </c>
       <c r="C228" t="n">
-        <v>12</v>
+        <v>11.86</v>
       </c>
       <c r="D228" t="n">
-        <v>12</v>
+        <v>11.86</v>
       </c>
       <c r="E228" t="n">
-        <v>12</v>
+        <v>11.86</v>
       </c>
       <c r="F228" t="n">
-        <v>42</v>
+        <v>8039.3329</v>
       </c>
       <c r="G228" t="n">
-        <v>11.95933333333334</v>
+        <v>11.95666666666667</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8390,7 +8390,7 @@
         <v>12</v>
       </c>
       <c r="F229" t="n">
-        <v>38331.04226666666</v>
+        <v>42</v>
       </c>
       <c r="G229" t="n">
         <v>11.95933333333334</v>
@@ -8416,19 +8416,19 @@
         <v>12</v>
       </c>
       <c r="C230" t="n">
-        <v>11.84</v>
+        <v>12</v>
       </c>
       <c r="D230" t="n">
         <v>12</v>
       </c>
       <c r="E230" t="n">
-        <v>11.84</v>
+        <v>12</v>
       </c>
       <c r="F230" t="n">
-        <v>125239.7903333333</v>
+        <v>38331.04226666666</v>
       </c>
       <c r="G230" t="n">
-        <v>11.95683333333334</v>
+        <v>11.95933333333334</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8448,22 +8448,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
+        <v>12</v>
+      </c>
+      <c r="C231" t="n">
         <v>11.84</v>
       </c>
-      <c r="C231" t="n">
-        <v>11.85</v>
-      </c>
       <c r="D231" t="n">
-        <v>11.85</v>
+        <v>12</v>
       </c>
       <c r="E231" t="n">
         <v>11.84</v>
       </c>
       <c r="F231" t="n">
-        <v>29776.2884</v>
+        <v>125239.7903333333</v>
       </c>
       <c r="G231" t="n">
-        <v>11.95450000000001</v>
+        <v>11.95683333333334</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8483,22 +8483,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="C232" t="n">
         <v>11.85</v>
-      </c>
-      <c r="C232" t="n">
-        <v>11.71</v>
       </c>
       <c r="D232" t="n">
         <v>11.85</v>
       </c>
       <c r="E232" t="n">
-        <v>11.71</v>
+        <v>11.84</v>
       </c>
       <c r="F232" t="n">
-        <v>326396.1894</v>
+        <v>29776.2884</v>
       </c>
       <c r="G232" t="n">
-        <v>11.95200000000001</v>
+        <v>11.95450000000001</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8518,22 +8518,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>11.71</v>
+        <v>11.85</v>
       </c>
       <c r="C233" t="n">
         <v>11.71</v>
       </c>
       <c r="D233" t="n">
-        <v>11.71</v>
+        <v>11.85</v>
       </c>
       <c r="E233" t="n">
         <v>11.71</v>
       </c>
       <c r="F233" t="n">
-        <v>69338.5049</v>
+        <v>326396.1894</v>
       </c>
       <c r="G233" t="n">
-        <v>11.94950000000001</v>
+        <v>11.95200000000001</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8553,22 +8553,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>11.7</v>
+        <v>11.71</v>
       </c>
       <c r="C234" t="n">
-        <v>11.67</v>
+        <v>11.71</v>
       </c>
       <c r="D234" t="n">
-        <v>11.7</v>
+        <v>11.71</v>
       </c>
       <c r="E234" t="n">
-        <v>11.67</v>
+        <v>11.71</v>
       </c>
       <c r="F234" t="n">
-        <v>68308.25750000001</v>
+        <v>69338.5049</v>
       </c>
       <c r="G234" t="n">
-        <v>11.94400000000001</v>
+        <v>11.94950000000001</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8588,22 +8588,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>11.67</v>
+        <v>11.7</v>
       </c>
       <c r="C235" t="n">
         <v>11.67</v>
       </c>
       <c r="D235" t="n">
-        <v>11.67</v>
+        <v>11.7</v>
       </c>
       <c r="E235" t="n">
         <v>11.67</v>
       </c>
       <c r="F235" t="n">
-        <v>454.1433</v>
+        <v>68308.25750000001</v>
       </c>
       <c r="G235" t="n">
-        <v>11.94083333333334</v>
+        <v>11.94400000000001</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8623,7 +8623,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>11.66</v>
+        <v>11.67</v>
       </c>
       <c r="C236" t="n">
         <v>11.67</v>
@@ -8632,13 +8632,13 @@
         <v>11.67</v>
       </c>
       <c r="E236" t="n">
-        <v>11.63</v>
+        <v>11.67</v>
       </c>
       <c r="F236" t="n">
-        <v>254515.7319</v>
+        <v>454.1433</v>
       </c>
       <c r="G236" t="n">
-        <v>11.93766666666667</v>
+        <v>11.94083333333334</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8658,22 +8658,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="C237" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D237" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="E237" t="n">
         <v>11.63</v>
       </c>
-      <c r="C237" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="D237" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="E237" t="n">
-        <v>11.57</v>
-      </c>
       <c r="F237" t="n">
-        <v>152385.1268</v>
+        <v>254515.7319</v>
       </c>
       <c r="G237" t="n">
-        <v>11.92833333333334</v>
+        <v>11.93766666666667</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>11.61</v>
+        <v>11.63</v>
       </c>
       <c r="C238" t="n">
-        <v>11.52</v>
+        <v>11.57</v>
       </c>
       <c r="D238" t="n">
-        <v>11.61</v>
+        <v>11.63</v>
       </c>
       <c r="E238" t="n">
-        <v>11.52</v>
+        <v>11.57</v>
       </c>
       <c r="F238" t="n">
-        <v>345623.288</v>
+        <v>152385.1268</v>
       </c>
       <c r="G238" t="n">
-        <v>11.91833333333334</v>
+        <v>11.92833333333334</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8728,32 +8728,38 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>11.7</v>
+        <v>11.61</v>
       </c>
       <c r="C239" t="n">
-        <v>11.7</v>
+        <v>11.52</v>
       </c>
       <c r="D239" t="n">
-        <v>11.7</v>
+        <v>11.61</v>
       </c>
       <c r="E239" t="n">
-        <v>11.7</v>
+        <v>11.52</v>
       </c>
       <c r="F239" t="n">
-        <v>43</v>
+        <v>345623.288</v>
       </c>
       <c r="G239" t="n">
-        <v>11.91550000000001</v>
+        <v>11.91833333333334</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>11.57</v>
+      </c>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -8763,32 +8769,38 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>11.69</v>
+        <v>11.7</v>
       </c>
       <c r="C240" t="n">
-        <v>11.69</v>
+        <v>11.7</v>
       </c>
       <c r="D240" t="n">
-        <v>11.69</v>
+        <v>11.7</v>
       </c>
       <c r="E240" t="n">
-        <v>11.69</v>
+        <v>11.7</v>
       </c>
       <c r="F240" t="n">
-        <v>19328.4939</v>
+        <v>43</v>
       </c>
       <c r="G240" t="n">
-        <v>11.90833333333334</v>
+        <v>11.91550000000001</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>11.52</v>
+      </c>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -8798,36 +8810,36 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>11.7</v>
+        <v>11.69</v>
       </c>
       <c r="C241" t="n">
-        <v>11.8</v>
+        <v>11.69</v>
       </c>
       <c r="D241" t="n">
-        <v>11.8</v>
+        <v>11.69</v>
       </c>
       <c r="E241" t="n">
-        <v>11.7</v>
+        <v>11.69</v>
       </c>
       <c r="F241" t="n">
-        <v>2186.7161</v>
+        <v>19328.4939</v>
       </c>
       <c r="G241" t="n">
-        <v>11.90333333333334</v>
+        <v>11.90833333333334</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K241" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="L241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -8837,38 +8849,34 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>11.99</v>
+        <v>11.7</v>
       </c>
       <c r="C242" t="n">
-        <v>11.99</v>
+        <v>11.8</v>
       </c>
       <c r="D242" t="n">
-        <v>11.99</v>
+        <v>11.8</v>
       </c>
       <c r="E242" t="n">
-        <v>11.99</v>
+        <v>11.7</v>
       </c>
       <c r="F242" t="n">
-        <v>43</v>
+        <v>2186.7161</v>
       </c>
       <c r="G242" t="n">
-        <v>11.90550000000001</v>
+        <v>11.90333333333334</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K242" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M242" t="n">
@@ -8880,38 +8888,34 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>11.7</v>
+        <v>11.99</v>
       </c>
       <c r="C243" t="n">
-        <v>11.6</v>
+        <v>11.99</v>
       </c>
       <c r="D243" t="n">
-        <v>11.7</v>
+        <v>11.99</v>
       </c>
       <c r="E243" t="n">
-        <v>11.6</v>
+        <v>11.99</v>
       </c>
       <c r="F243" t="n">
-        <v>37741.6976</v>
+        <v>43</v>
       </c>
       <c r="G243" t="n">
-        <v>11.90133333333334</v>
+        <v>11.90550000000001</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="K243" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M243" t="n">
@@ -8923,22 +8927,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C244" t="n">
         <v>11.6</v>
       </c>
-      <c r="C244" t="n">
-        <v>11.99</v>
-      </c>
       <c r="D244" t="n">
-        <v>11.99</v>
+        <v>11.7</v>
       </c>
       <c r="E244" t="n">
         <v>11.6</v>
       </c>
       <c r="F244" t="n">
-        <v>143.7153</v>
+        <v>37741.6976</v>
       </c>
       <c r="G244" t="n">
-        <v>11.90350000000001</v>
+        <v>11.90133333333334</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8947,9 +8951,7 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8967,19 +8969,19 @@
         <v>11.6</v>
       </c>
       <c r="C245" t="n">
-        <v>11.6</v>
+        <v>11.99</v>
       </c>
       <c r="D245" t="n">
-        <v>11.6</v>
+        <v>11.99</v>
       </c>
       <c r="E245" t="n">
         <v>11.6</v>
       </c>
       <c r="F245" t="n">
-        <v>61559.5886</v>
+        <v>143.7153</v>
       </c>
       <c r="G245" t="n">
-        <v>11.89516666666667</v>
+        <v>11.90350000000001</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -8988,9 +8990,7 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9008,19 +9008,19 @@
         <v>11.6</v>
       </c>
       <c r="C246" t="n">
-        <v>11.89</v>
+        <v>11.6</v>
       </c>
       <c r="D246" t="n">
-        <v>11.89</v>
+        <v>11.6</v>
       </c>
       <c r="E246" t="n">
         <v>11.6</v>
       </c>
       <c r="F246" t="n">
-        <v>19974.0329</v>
+        <v>61559.5886</v>
       </c>
       <c r="G246" t="n">
-        <v>11.89533333333334</v>
+        <v>11.89516666666667</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9029,9 +9029,7 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9049,19 +9047,19 @@
         <v>11.6</v>
       </c>
       <c r="C247" t="n">
-        <v>11.6</v>
+        <v>11.89</v>
       </c>
       <c r="D247" t="n">
-        <v>11.6</v>
+        <v>11.89</v>
       </c>
       <c r="E247" t="n">
         <v>11.6</v>
       </c>
       <c r="F247" t="n">
-        <v>10082.9806</v>
+        <v>19974.0329</v>
       </c>
       <c r="G247" t="n">
-        <v>11.88700000000001</v>
+        <v>11.89533333333334</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9070,9 +9068,7 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9099,10 +9095,10 @@
         <v>11.6</v>
       </c>
       <c r="F248" t="n">
-        <v>18738.2036</v>
+        <v>10082.9806</v>
       </c>
       <c r="G248" t="n">
-        <v>11.88283333333334</v>
+        <v>11.88700000000001</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9111,9 +9107,7 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9131,19 +9125,19 @@
         <v>11.6</v>
       </c>
       <c r="C249" t="n">
-        <v>11.89</v>
+        <v>11.6</v>
       </c>
       <c r="D249" t="n">
-        <v>11.89</v>
+        <v>11.6</v>
       </c>
       <c r="E249" t="n">
         <v>11.6</v>
       </c>
       <c r="F249" t="n">
-        <v>42037.0072</v>
+        <v>18738.2036</v>
       </c>
       <c r="G249" t="n">
-        <v>11.88100000000001</v>
+        <v>11.88283333333334</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9152,9 +9146,7 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9169,22 +9161,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>11.55</v>
+        <v>11.6</v>
       </c>
       <c r="C250" t="n">
-        <v>11.55</v>
+        <v>11.89</v>
       </c>
       <c r="D250" t="n">
-        <v>11.55</v>
+        <v>11.89</v>
       </c>
       <c r="E250" t="n">
-        <v>11.55</v>
+        <v>11.6</v>
       </c>
       <c r="F250" t="n">
-        <v>251.5997</v>
+        <v>42037.0072</v>
       </c>
       <c r="G250" t="n">
-        <v>11.876</v>
+        <v>11.88100000000001</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9193,9 +9185,7 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9222,21 +9212,21 @@
         <v>11.55</v>
       </c>
       <c r="F251" t="n">
-        <v>111201.7973</v>
+        <v>251.5997</v>
       </c>
       <c r="G251" t="n">
-        <v>11.86866666666667</v>
+        <v>11.876</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J251" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9251,22 +9241,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>11.56</v>
+        <v>11.55</v>
       </c>
       <c r="C252" t="n">
         <v>11.55</v>
       </c>
       <c r="D252" t="n">
-        <v>11.56</v>
+        <v>11.55</v>
       </c>
       <c r="E252" t="n">
         <v>11.55</v>
       </c>
       <c r="F252" t="n">
-        <v>17885.0806</v>
+        <v>111201.7973</v>
       </c>
       <c r="G252" t="n">
-        <v>11.86116666666667</v>
+        <v>11.86866666666667</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9275,9 +9265,7 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9292,22 +9280,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>11.55</v>
+        <v>11.56</v>
       </c>
       <c r="C253" t="n">
         <v>11.55</v>
       </c>
       <c r="D253" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="E253" t="n">
         <v>11.55</v>
       </c>
-      <c r="E253" t="n">
-        <v>11.52</v>
-      </c>
       <c r="F253" t="n">
-        <v>304282.746</v>
+        <v>17885.0806</v>
       </c>
       <c r="G253" t="n">
-        <v>11.85383333333334</v>
+        <v>11.86116666666667</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9316,9 +9304,7 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9333,22 +9319,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>11.89</v>
+        <v>11.55</v>
       </c>
       <c r="C254" t="n">
-        <v>11.89</v>
+        <v>11.55</v>
       </c>
       <c r="D254" t="n">
-        <v>11.89</v>
+        <v>11.55</v>
       </c>
       <c r="E254" t="n">
-        <v>11.89</v>
+        <v>11.52</v>
       </c>
       <c r="F254" t="n">
-        <v>43</v>
+        <v>304282.746</v>
       </c>
       <c r="G254" t="n">
-        <v>11.85366666666667</v>
+        <v>11.85383333333334</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9357,9 +9343,7 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9374,33 +9358,33 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>11.69</v>
+        <v>11.89</v>
       </c>
       <c r="C255" t="n">
-        <v>11.69</v>
+        <v>11.89</v>
       </c>
       <c r="D255" t="n">
-        <v>11.69</v>
+        <v>11.89</v>
       </c>
       <c r="E255" t="n">
-        <v>11.69</v>
+        <v>11.89</v>
       </c>
       <c r="F255" t="n">
-        <v>73830.0076</v>
+        <v>43</v>
       </c>
       <c r="G255" t="n">
-        <v>11.8505</v>
+        <v>11.85366666666667</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="J255" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9415,22 +9399,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>11.8</v>
+        <v>11.69</v>
       </c>
       <c r="C256" t="n">
-        <v>11.8</v>
+        <v>11.69</v>
       </c>
       <c r="D256" t="n">
-        <v>11.8</v>
+        <v>11.69</v>
       </c>
       <c r="E256" t="n">
-        <v>11.8</v>
+        <v>11.69</v>
       </c>
       <c r="F256" t="n">
-        <v>2588.983050847457</v>
+        <v>73830.0076</v>
       </c>
       <c r="G256" t="n">
-        <v>11.84916666666667</v>
+        <v>11.8505</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9439,9 +9423,7 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9468,10 +9450,10 @@
         <v>11.8</v>
       </c>
       <c r="F257" t="n">
-        <v>672.4485</v>
+        <v>2588.983050847457</v>
       </c>
       <c r="G257" t="n">
-        <v>11.84833333333333</v>
+        <v>11.84916666666667</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9480,9 +9462,7 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9497,22 +9477,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>11.55</v>
+        <v>11.8</v>
       </c>
       <c r="C258" t="n">
-        <v>11.55</v>
+        <v>11.8</v>
       </c>
       <c r="D258" t="n">
-        <v>11.55</v>
+        <v>11.8</v>
       </c>
       <c r="E258" t="n">
-        <v>11.55</v>
+        <v>11.8</v>
       </c>
       <c r="F258" t="n">
-        <v>26240.1314</v>
+        <v>672.4485</v>
       </c>
       <c r="G258" t="n">
-        <v>11.84333333333333</v>
+        <v>11.84833333333333</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9521,9 +9501,7 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9538,22 +9516,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>11.8</v>
+        <v>11.55</v>
       </c>
       <c r="C259" t="n">
-        <v>11.8</v>
+        <v>11.55</v>
       </c>
       <c r="D259" t="n">
-        <v>11.8</v>
+        <v>11.55</v>
       </c>
       <c r="E259" t="n">
-        <v>11.8</v>
+        <v>11.55</v>
       </c>
       <c r="F259" t="n">
-        <v>52.0123</v>
+        <v>26240.1314</v>
       </c>
       <c r="G259" t="n">
-        <v>11.84166666666667</v>
+        <v>11.84333333333333</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9562,9 +9540,7 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9591,10 +9567,10 @@
         <v>11.8</v>
       </c>
       <c r="F260" t="n">
-        <v>39609.5168</v>
+        <v>52.0123</v>
       </c>
       <c r="G260" t="n">
-        <v>11.84083333333333</v>
+        <v>11.84166666666667</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9603,9 +9579,7 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9620,22 +9594,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>11.55</v>
+        <v>11.8</v>
       </c>
       <c r="C261" t="n">
-        <v>11.54</v>
+        <v>11.8</v>
       </c>
       <c r="D261" t="n">
-        <v>11.55</v>
+        <v>11.8</v>
       </c>
       <c r="E261" t="n">
-        <v>11.54</v>
+        <v>11.8</v>
       </c>
       <c r="F261" t="n">
-        <v>29106.526</v>
+        <v>39609.5168</v>
       </c>
       <c r="G261" t="n">
-        <v>11.83566666666666</v>
+        <v>11.84083333333333</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9644,9 +9618,7 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9661,22 +9633,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>11.8</v>
+        <v>11.55</v>
       </c>
       <c r="C262" t="n">
-        <v>11.8</v>
+        <v>11.54</v>
       </c>
       <c r="D262" t="n">
-        <v>11.8</v>
+        <v>11.55</v>
       </c>
       <c r="E262" t="n">
-        <v>11.8</v>
+        <v>11.54</v>
       </c>
       <c r="F262" t="n">
-        <v>281.0059</v>
+        <v>29106.526</v>
       </c>
       <c r="G262" t="n">
-        <v>11.8325</v>
+        <v>11.83566666666666</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9685,9 +9657,7 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9702,22 +9672,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="C263" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="D263" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="E263" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="F263" t="n">
-        <v>672.4485</v>
+        <v>281.0059</v>
       </c>
       <c r="G263" t="n">
-        <v>11.826</v>
+        <v>11.8325</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9726,9 +9696,7 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9743,22 +9711,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>11.55</v>
+        <v>11.6</v>
       </c>
       <c r="C264" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D264" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="E264" t="n">
-        <v>11.55</v>
+        <v>11.6</v>
       </c>
       <c r="F264" t="n">
-        <v>7386.4345</v>
+        <v>672.4485</v>
       </c>
       <c r="G264" t="n">
-        <v>11.82116666666666</v>
+        <v>11.826</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9767,9 +9735,7 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>11.69</v>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9779,6 +9745,45 @@
         <v>1</v>
       </c>
     </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="C265" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D265" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E265" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="F265" t="n">
+        <v>7386.4345</v>
+      </c>
+      <c r="G265" t="n">
+        <v>11.82116666666666</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M265" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-20 BackTest TRV.xlsx
+++ b/BackTest/2020-01-20 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M265"/>
+  <dimension ref="A1:N275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>58419.0163</v>
       </c>
       <c r="G2" t="n">
+        <v>11.92933333333332</v>
+      </c>
+      <c r="H2" t="n">
         <v>11.97316666666666</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>55838.3201</v>
       </c>
       <c r="G3" t="n">
+        <v>11.93599999999999</v>
+      </c>
+      <c r="H3" t="n">
         <v>11.97066666666666</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>42</v>
       </c>
       <c r="G4" t="n">
+        <v>11.94533333333332</v>
+      </c>
+      <c r="H4" t="n">
         <v>11.97133333333332</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>3022</v>
       </c>
       <c r="G5" t="n">
+        <v>11.95466666666665</v>
+      </c>
+      <c r="H5" t="n">
         <v>11.97033333333332</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>0.7613</v>
       </c>
       <c r="G6" t="n">
+        <v>11.94799999999999</v>
+      </c>
+      <c r="H6" t="n">
         <v>11.96849999999999</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>35324</v>
       </c>
       <c r="G7" t="n">
+        <v>11.95066666666665</v>
+      </c>
+      <c r="H7" t="n">
         <v>11.96616666666666</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>0.2356</v>
       </c>
       <c r="G8" t="n">
+        <v>11.95466666666665</v>
+      </c>
+      <c r="H8" t="n">
         <v>11.96383333333332</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>2505.6212</v>
       </c>
       <c r="G9" t="n">
+        <v>11.93933333333332</v>
+      </c>
+      <c r="H9" t="n">
         <v>11.96366666666666</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>121146.8103</v>
       </c>
       <c r="G10" t="n">
+        <v>11.93199999999999</v>
+      </c>
+      <c r="H10" t="n">
         <v>11.95666666666666</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>161882.565</v>
       </c>
       <c r="G11" t="n">
+        <v>11.92599999999999</v>
+      </c>
+      <c r="H11" t="n">
         <v>11.95116666666666</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>71410.92419999999</v>
       </c>
       <c r="G12" t="n">
+        <v>11.94066666666665</v>
+      </c>
+      <c r="H12" t="n">
         <v>11.95266666666666</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>17429.0686</v>
       </c>
       <c r="G13" t="n">
+        <v>11.94266666666666</v>
+      </c>
+      <c r="H13" t="n">
         <v>11.95099999999999</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>144694.2911</v>
       </c>
       <c r="G14" t="n">
+        <v>11.94599999999999</v>
+      </c>
+      <c r="H14" t="n">
         <v>11.94666666666665</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>110268.413</v>
       </c>
       <c r="G15" t="n">
+        <v>11.94933333333332</v>
+      </c>
+      <c r="H15" t="n">
         <v>11.94233333333332</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>64957.5133</v>
       </c>
       <c r="G16" t="n">
+        <v>11.93933333333332</v>
+      </c>
+      <c r="H16" t="n">
         <v>11.94183333333332</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>280.9399</v>
       </c>
       <c r="G17" t="n">
+        <v>11.94066666666665</v>
+      </c>
+      <c r="H17" t="n">
         <v>11.94783333333332</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>28000</v>
       </c>
       <c r="G18" t="n">
+        <v>11.94199999999999</v>
+      </c>
+      <c r="H18" t="n">
         <v>11.95399999999999</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>15000</v>
       </c>
       <c r="G19" t="n">
+        <v>11.94133333333332</v>
+      </c>
+      <c r="H19" t="n">
         <v>11.95283333333332</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>2200</v>
       </c>
       <c r="G20" t="n">
+        <v>11.94133333333332</v>
+      </c>
+      <c r="H20" t="n">
         <v>11.95916666666665</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>2904.7984</v>
       </c>
       <c r="G21" t="n">
+        <v>11.95066666666665</v>
+      </c>
+      <c r="H21" t="n">
         <v>11.96549999999999</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>77047.54526845583</v>
       </c>
       <c r="G22" t="n">
+        <v>11.96266666666665</v>
+      </c>
+      <c r="H22" t="n">
         <v>11.97199999999999</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>42</v>
       </c>
       <c r="G23" t="n">
+        <v>11.97466666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>11.97849999999999</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>41</v>
       </c>
       <c r="G24" t="n">
+        <v>11.99466666666665</v>
+      </c>
+      <c r="H24" t="n">
         <v>11.98516666666666</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>124649.8416</v>
       </c>
       <c r="G25" t="n">
+        <v>12.02133333333332</v>
+      </c>
+      <c r="H25" t="n">
         <v>11.99199999999999</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>139932.4685</v>
       </c>
       <c r="G26" t="n">
+        <v>12.05333333333332</v>
+      </c>
+      <c r="H26" t="n">
         <v>12.00016666666666</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>35532.6135</v>
       </c>
       <c r="G27" t="n">
+        <v>12.06999999999999</v>
+      </c>
+      <c r="H27" t="n">
         <v>12.00516666666666</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>126297.1813</v>
       </c>
       <c r="G28" t="n">
+        <v>12.11999999999999</v>
+      </c>
+      <c r="H28" t="n">
         <v>12.01999999999999</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>198129.833</v>
       </c>
       <c r="G29" t="n">
+        <v>12.16933333333332</v>
+      </c>
+      <c r="H29" t="n">
         <v>12.03166666666666</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>30000</v>
       </c>
       <c r="G30" t="n">
+        <v>12.23266666666666</v>
+      </c>
+      <c r="H30" t="n">
         <v>12.04683333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>308844.5694</v>
       </c>
       <c r="G31" t="n">
+        <v>12.27533333333332</v>
+      </c>
+      <c r="H31" t="n">
         <v>12.05666666666666</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>97050</v>
       </c>
       <c r="G32" t="n">
+        <v>12.31533333333332</v>
+      </c>
+      <c r="H32" t="n">
         <v>12.06749999999999</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>26073.0127</v>
       </c>
       <c r="G33" t="n">
+        <v>12.35599999999999</v>
+      </c>
+      <c r="H33" t="n">
         <v>12.07799999999999</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>222756.1957</v>
       </c>
       <c r="G34" t="n">
+        <v>12.39399999999999</v>
+      </c>
+      <c r="H34" t="n">
         <v>12.08599999999999</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>9000</v>
       </c>
       <c r="G35" t="n">
+        <v>12.43133333333332</v>
+      </c>
+      <c r="H35" t="n">
         <v>12.09416666666666</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>23989.7372</v>
       </c>
       <c r="G36" t="n">
+        <v>12.45933333333332</v>
+      </c>
+      <c r="H36" t="n">
         <v>12.10216666666666</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>76754.6587</v>
       </c>
       <c r="G37" t="n">
+        <v>12.50733333333332</v>
+      </c>
+      <c r="H37" t="n">
         <v>12.11416666666666</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>419850.7889</v>
       </c>
       <c r="G38" t="n">
+        <v>12.55399999999999</v>
+      </c>
+      <c r="H38" t="n">
         <v>12.12883333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>122267.7226</v>
       </c>
       <c r="G39" t="n">
+        <v>12.59066666666666</v>
+      </c>
+      <c r="H39" t="n">
         <v>12.13833333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>11214.6509</v>
       </c>
       <c r="G40" t="n">
+        <v>12.61333333333332</v>
+      </c>
+      <c r="H40" t="n">
         <v>12.14449999999999</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>22961.7834</v>
       </c>
       <c r="G41" t="n">
+        <v>12.63066666666666</v>
+      </c>
+      <c r="H41" t="n">
         <v>12.15349999999999</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>15697.1139</v>
       </c>
       <c r="G42" t="n">
+        <v>12.64799999999999</v>
+      </c>
+      <c r="H42" t="n">
         <v>12.15966666666666</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>41114.4591</v>
       </c>
       <c r="G43" t="n">
+        <v>12.64533333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>12.16816666666666</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>15532.6135</v>
       </c>
       <c r="G44" t="n">
+        <v>12.63066666666666</v>
+      </c>
+      <c r="H44" t="n">
         <v>12.17133333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>27697.0424</v>
       </c>
       <c r="G45" t="n">
+        <v>12.60199999999999</v>
+      </c>
+      <c r="H45" t="n">
         <v>12.17683333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>676650.254</v>
       </c>
       <c r="G46" t="n">
+        <v>12.54999999999999</v>
+      </c>
+      <c r="H46" t="n">
         <v>12.172</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>541</v>
       </c>
       <c r="G47" t="n">
+        <v>12.53466666666666</v>
+      </c>
+      <c r="H47" t="n">
         <v>12.18</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>100</v>
       </c>
       <c r="G48" t="n">
+        <v>12.49199999999999</v>
+      </c>
+      <c r="H48" t="n">
         <v>12.1815</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>264.4319</v>
       </c>
       <c r="G49" t="n">
+        <v>12.45933333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>12.185</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>90645.60490000001</v>
       </c>
       <c r="G50" t="n">
+        <v>12.41866666666666</v>
+      </c>
+      <c r="H50" t="n">
         <v>12.1865</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>41</v>
       </c>
       <c r="G51" t="n">
+        <v>12.40199999999999</v>
+      </c>
+      <c r="H51" t="n">
         <v>12.19</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>15302.5608</v>
       </c>
       <c r="G52" t="n">
+        <v>12.358</v>
+      </c>
+      <c r="H52" t="n">
         <v>12.19466666666666</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>52788.3153</v>
       </c>
       <c r="G53" t="n">
+        <v>12.31533333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>12.19966666666666</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>61</v>
       </c>
       <c r="G54" t="n">
+        <v>12.29266666666666</v>
+      </c>
+      <c r="H54" t="n">
         <v>12.20433333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>91</v>
       </c>
       <c r="G55" t="n">
+        <v>12.28599999999999</v>
+      </c>
+      <c r="H55" t="n">
         <v>12.21316666666666</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>225</v>
       </c>
       <c r="G56" t="n">
+        <v>12.28599999999999</v>
+      </c>
+      <c r="H56" t="n">
         <v>12.224</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>2963.0935</v>
       </c>
       <c r="G57" t="n">
+        <v>12.27799999999999</v>
+      </c>
+      <c r="H57" t="n">
         <v>12.23416666666666</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>2698.9552</v>
       </c>
       <c r="G58" t="n">
+        <v>12.26933333333332</v>
+      </c>
+      <c r="H58" t="n">
         <v>12.24433333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>2536</v>
       </c>
       <c r="G59" t="n">
+        <v>12.24466666666666</v>
+      </c>
+      <c r="H59" t="n">
         <v>12.24766666666666</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>6529.653</v>
       </c>
       <c r="G60" t="n">
+        <v>12.21999999999999</v>
+      </c>
+      <c r="H60" t="n">
         <v>12.251</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>43694.8089</v>
       </c>
       <c r="G61" t="n">
+        <v>12.23466666666666</v>
+      </c>
+      <c r="H61" t="n">
         <v>12.24983333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>102880.7839</v>
       </c>
       <c r="G62" t="n">
+        <v>12.20333333333332</v>
+      </c>
+      <c r="H62" t="n">
         <v>12.2485</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>53881.9894</v>
       </c>
       <c r="G63" t="n">
+        <v>12.19866666666666</v>
+      </c>
+      <c r="H63" t="n">
         <v>12.24716666666666</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>1050</v>
       </c>
       <c r="G64" t="n">
+        <v>12.21799999999999</v>
+      </c>
+      <c r="H64" t="n">
         <v>12.25316666666666</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>117698.3436</v>
       </c>
       <c r="G65" t="n">
+        <v>12.21199999999999</v>
+      </c>
+      <c r="H65" t="n">
         <v>12.25083333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>41</v>
       </c>
       <c r="G66" t="n">
+        <v>12.20866666666666</v>
+      </c>
+      <c r="H66" t="n">
         <v>12.25516666666666</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>50</v>
       </c>
       <c r="G67" t="n">
+        <v>12.21799999999999</v>
+      </c>
+      <c r="H67" t="n">
         <v>12.26149999999999</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>16285.5727</v>
       </c>
       <c r="G68" t="n">
+        <v>12.20199999999999</v>
+      </c>
+      <c r="H68" t="n">
         <v>12.26149999999999</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>8163.934426229508</v>
       </c>
       <c r="G69" t="n">
+        <v>12.18799999999999</v>
+      </c>
+      <c r="H69" t="n">
         <v>12.2665</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>23701.1477</v>
       </c>
       <c r="G70" t="n">
+        <v>12.19599999999999</v>
+      </c>
+      <c r="H70" t="n">
         <v>12.27916666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>458</v>
       </c>
       <c r="G71" t="n">
+        <v>12.19733333333332</v>
+      </c>
+      <c r="H71" t="n">
         <v>12.29183333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>17496.5785</v>
       </c>
       <c r="G72" t="n">
+        <v>12.18733333333332</v>
+      </c>
+      <c r="H72" t="n">
         <v>12.29583333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>100</v>
       </c>
       <c r="G73" t="n">
+        <v>12.19799999999999</v>
+      </c>
+      <c r="H73" t="n">
         <v>12.30816666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>3965</v>
       </c>
       <c r="G74" t="n">
+        <v>12.23666666666665</v>
+      </c>
+      <c r="H74" t="n">
         <v>12.32033333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>1000</v>
       </c>
       <c r="G75" t="n">
+        <v>12.27533333333332</v>
+      </c>
+      <c r="H75" t="n">
         <v>12.3325</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>31131.3902</v>
       </c>
       <c r="G76" t="n">
+        <v>12.29399999999999</v>
+      </c>
+      <c r="H76" t="n">
         <v>12.3385</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>80</v>
       </c>
       <c r="G77" t="n">
+        <v>12.32133333333332</v>
+      </c>
+      <c r="H77" t="n">
         <v>12.34366666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>12092</v>
       </c>
       <c r="G78" t="n">
+        <v>12.34866666666666</v>
+      </c>
+      <c r="H78" t="n">
         <v>12.34883333333334</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>71558.467</v>
       </c>
       <c r="G79" t="n">
+        <v>12.33599999999999</v>
+      </c>
+      <c r="H79" t="n">
         <v>12.35183333333334</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>202473.5238</v>
       </c>
       <c r="G80" t="n">
+        <v>12.35666666666666</v>
+      </c>
+      <c r="H80" t="n">
         <v>12.35466666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>33617.2327</v>
       </c>
       <c r="G81" t="n">
+        <v>12.34999999999999</v>
+      </c>
+      <c r="H81" t="n">
         <v>12.35500000000001</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>9536.874900000001</v>
       </c>
       <c r="G82" t="n">
+        <v>12.33733333333332</v>
+      </c>
+      <c r="H82" t="n">
         <v>12.35516666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>142.5216</v>
       </c>
       <c r="G83" t="n">
+        <v>12.34399999999999</v>
+      </c>
+      <c r="H83" t="n">
         <v>12.35383333333334</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>11594.1725</v>
       </c>
       <c r="G84" t="n">
+        <v>12.34533333333332</v>
+      </c>
+      <c r="H84" t="n">
         <v>12.35416666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>76754.6587</v>
       </c>
       <c r="G85" t="n">
+        <v>12.30733333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>12.35066666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>2060712.2589</v>
       </c>
       <c r="G86" t="n">
+        <v>12.23599999999999</v>
+      </c>
+      <c r="H86" t="n">
         <v>12.33750000000001</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>50</v>
       </c>
       <c r="G87" t="n">
+        <v>12.23066666666666</v>
+      </c>
+      <c r="H87" t="n">
         <v>12.33600000000001</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>40479.5861</v>
       </c>
       <c r="G88" t="n">
+        <v>12.20466666666666</v>
+      </c>
+      <c r="H88" t="n">
         <v>12.32933333333334</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>149896.1685</v>
       </c>
       <c r="G89" t="n">
+        <v>12.17733333333332</v>
+      </c>
+      <c r="H89" t="n">
         <v>12.32233333333334</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>50103.8315</v>
       </c>
       <c r="G90" t="n">
+        <v>12.14999999999999</v>
+      </c>
+      <c r="H90" t="n">
         <v>12.31183333333334</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>107764.175</v>
       </c>
       <c r="G91" t="n">
+        <v>12.14666666666665</v>
+      </c>
+      <c r="H91" t="n">
         <v>12.30633333333334</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>266.4048</v>
       </c>
       <c r="G92" t="n">
+        <v>12.11266666666665</v>
+      </c>
+      <c r="H92" t="n">
         <v>12.29300000000001</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>101212.2817</v>
       </c>
       <c r="G93" t="n">
+        <v>12.10133333333332</v>
+      </c>
+      <c r="H93" t="n">
         <v>12.28516666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>48434.5822</v>
       </c>
       <c r="G94" t="n">
+        <v>12.09799999999998</v>
+      </c>
+      <c r="H94" t="n">
         <v>12.27783333333334</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>77.5254</v>
       </c>
       <c r="G95" t="n">
+        <v>12.09399999999998</v>
+      </c>
+      <c r="H95" t="n">
         <v>12.27033333333334</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>1500</v>
       </c>
       <c r="G96" t="n">
+        <v>12.09066666666665</v>
+      </c>
+      <c r="H96" t="n">
         <v>12.26283333333334</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>10099.5055</v>
       </c>
       <c r="G97" t="n">
+        <v>12.08999999999998</v>
+      </c>
+      <c r="H97" t="n">
         <v>12.25083333333334</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>1534.2582</v>
       </c>
       <c r="G98" t="n">
+        <v>12.09533333333332</v>
+      </c>
+      <c r="H98" t="n">
         <v>12.23916666666667</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>3662.4383</v>
       </c>
       <c r="G99" t="n">
+        <v>12.09333333333332</v>
+      </c>
+      <c r="H99" t="n">
         <v>12.22983333333334</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>5222.3863</v>
       </c>
       <c r="G100" t="n">
+        <v>12.09333333333332</v>
+      </c>
+      <c r="H100" t="n">
         <v>12.22066666666668</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>31917.2832</v>
       </c>
       <c r="G101" t="n">
+        <v>12.13066666666665</v>
+      </c>
+      <c r="H101" t="n">
         <v>12.21250000000001</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>179449.3844</v>
       </c>
       <c r="G102" t="n">
+        <v>12.11799999999999</v>
+      </c>
+      <c r="H102" t="n">
         <v>12.20350000000001</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>314953.7027</v>
       </c>
       <c r="G103" t="n">
+        <v>12.11799999999999</v>
+      </c>
+      <c r="H103" t="n">
         <v>12.19750000000001</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>253960.8849</v>
       </c>
       <c r="G104" t="n">
+        <v>12.10666666666665</v>
+      </c>
+      <c r="H104" t="n">
         <v>12.19133333333334</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>37127.2866</v>
       </c>
       <c r="G105" t="n">
+        <v>12.09466666666665</v>
+      </c>
+      <c r="H105" t="n">
         <v>12.18500000000001</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>15032.6616</v>
       </c>
       <c r="G106" t="n">
+        <v>12.08333333333332</v>
+      </c>
+      <c r="H106" t="n">
         <v>12.18966666666668</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>68444.985</v>
       </c>
       <c r="G107" t="n">
+        <v>12.09533333333332</v>
+      </c>
+      <c r="H107" t="n">
         <v>12.18316666666668</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>170.2601</v>
       </c>
       <c r="G108" t="n">
+        <v>12.08666666666666</v>
+      </c>
+      <c r="H108" t="n">
         <v>12.18383333333334</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>141997.5767</v>
       </c>
       <c r="G109" t="n">
+        <v>12.06999999999999</v>
+      </c>
+      <c r="H109" t="n">
         <v>12.18050000000001</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>476.8967</v>
       </c>
       <c r="G110" t="n">
+        <v>12.06199999999999</v>
+      </c>
+      <c r="H110" t="n">
         <v>12.18116666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>100000</v>
       </c>
       <c r="G111" t="n">
+        <v>12.04599999999999</v>
+      </c>
+      <c r="H111" t="n">
         <v>12.17383333333334</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>100000</v>
       </c>
       <c r="G112" t="n">
+        <v>12.02733333333332</v>
+      </c>
+      <c r="H112" t="n">
         <v>12.16816666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>94018.75079999999</v>
       </c>
       <c r="G113" t="n">
+        <v>12.02533333333332</v>
+      </c>
+      <c r="H113" t="n">
         <v>12.16666666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>229.3756</v>
       </c>
       <c r="G114" t="n">
+        <v>12.02399999999999</v>
+      </c>
+      <c r="H114" t="n">
         <v>12.16266666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>10600.034</v>
       </c>
       <c r="G115" t="n">
+        <v>12.03533333333332</v>
+      </c>
+      <c r="H115" t="n">
         <v>12.158</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>641145.5818</v>
       </c>
       <c r="G116" t="n">
+        <v>12.02466666666665</v>
+      </c>
+      <c r="H116" t="n">
         <v>12.14716666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>826.4462809917355</v>
       </c>
       <c r="G117" t="n">
+        <v>12.03066666666665</v>
+      </c>
+      <c r="H117" t="n">
         <v>12.14166666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>99938.3495</v>
       </c>
       <c r="G118" t="n">
+        <v>12.02466666666665</v>
+      </c>
+      <c r="H118" t="n">
         <v>12.13633333333334</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>97372.1339</v>
       </c>
       <c r="G119" t="n">
+        <v>12.01799999999999</v>
+      </c>
+      <c r="H119" t="n">
         <v>12.13466666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>8715.4596</v>
       </c>
       <c r="G120" t="n">
+        <v>12.01199999999999</v>
+      </c>
+      <c r="H120" t="n">
         <v>12.13300000000001</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>42</v>
       </c>
       <c r="G121" t="n">
+        <v>12.01933333333332</v>
+      </c>
+      <c r="H121" t="n">
         <v>12.13583333333334</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>5174.3548</v>
       </c>
       <c r="G122" t="n">
+        <v>12.00799999999999</v>
+      </c>
+      <c r="H122" t="n">
         <v>12.13433333333334</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>112171.0901</v>
       </c>
       <c r="G123" t="n">
+        <v>11.99399999999999</v>
+      </c>
+      <c r="H123" t="n">
         <v>12.13266666666668</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>101375.2307</v>
       </c>
       <c r="G124" t="n">
+        <v>11.98866666666665</v>
+      </c>
+      <c r="H124" t="n">
         <v>12.12316666666668</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>2374.1482</v>
       </c>
       <c r="G125" t="n">
+        <v>11.98399999999999</v>
+      </c>
+      <c r="H125" t="n">
         <v>12.12416666666668</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>80452.9559</v>
       </c>
       <c r="G126" t="n">
+        <v>11.99066666666665</v>
+      </c>
+      <c r="H126" t="n">
         <v>12.11933333333335</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>223907.1428</v>
       </c>
       <c r="G127" t="n">
+        <v>11.99733333333332</v>
+      </c>
+      <c r="H127" t="n">
         <v>12.11300000000001</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>291126.5191</v>
       </c>
       <c r="G128" t="n">
+        <v>11.97733333333332</v>
+      </c>
+      <c r="H128" t="n">
         <v>12.11050000000001</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>1178.8341</v>
       </c>
       <c r="G129" t="n">
+        <v>11.97066666666666</v>
+      </c>
+      <c r="H129" t="n">
         <v>12.10833333333335</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>746.2305</v>
       </c>
       <c r="G130" t="n">
+        <v>11.96399999999999</v>
+      </c>
+      <c r="H130" t="n">
         <v>12.10000000000001</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,21 @@
         <v>4677.8034</v>
       </c>
       <c r="G131" t="n">
+        <v>11.97266666666666</v>
+      </c>
+      <c r="H131" t="n">
         <v>12.09100000000001</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5393,21 @@
         <v>4773.1253</v>
       </c>
       <c r="G132" t="n">
+        <v>11.96799999999999</v>
+      </c>
+      <c r="H132" t="n">
         <v>12.08683333333335</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5431,21 @@
         <v>223756</v>
       </c>
       <c r="G133" t="n">
+        <v>11.96333333333332</v>
+      </c>
+      <c r="H133" t="n">
         <v>12.07766666666668</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5469,21 @@
         <v>9450.9287</v>
       </c>
       <c r="G134" t="n">
+        <v>11.97199999999999</v>
+      </c>
+      <c r="H134" t="n">
         <v>12.06850000000001</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5507,21 @@
         <v>25721.4438</v>
       </c>
       <c r="G135" t="n">
+        <v>11.98333333333332</v>
+      </c>
+      <c r="H135" t="n">
         <v>12.06000000000001</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5545,21 @@
         <v>6356.949</v>
       </c>
       <c r="G136" t="n">
+        <v>11.98333333333332</v>
+      </c>
+      <c r="H136" t="n">
         <v>12.05816666666668</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5583,21 @@
         <v>140481.441</v>
       </c>
       <c r="G137" t="n">
+        <v>12.00666666666666</v>
+      </c>
+      <c r="H137" t="n">
         <v>12.05566666666667</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5621,21 @@
         <v>47443.5011</v>
       </c>
       <c r="G138" t="n">
+        <v>12.03133333333332</v>
+      </c>
+      <c r="H138" t="n">
         <v>12.05333333333334</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5659,21 @@
         <v>30000</v>
       </c>
       <c r="G139" t="n">
+        <v>12.05533333333332</v>
+      </c>
+      <c r="H139" t="n">
         <v>12.05300000000001</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5697,21 @@
         <v>18424.6277</v>
       </c>
       <c r="G140" t="n">
+        <v>12.05799999999999</v>
+      </c>
+      <c r="H140" t="n">
         <v>12.04950000000001</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5735,21 @@
         <v>13650</v>
       </c>
       <c r="G141" t="n">
+        <v>12.06599999999999</v>
+      </c>
+      <c r="H141" t="n">
         <v>12.04833333333334</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5773,21 @@
         <v>350</v>
       </c>
       <c r="G142" t="n">
+        <v>12.06933333333332</v>
+      </c>
+      <c r="H142" t="n">
         <v>12.046</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +5811,21 @@
         <v>50079.9745</v>
       </c>
       <c r="G143" t="n">
+        <v>12.07799999999999</v>
+      </c>
+      <c r="H143" t="n">
         <v>12.04400000000001</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +5849,21 @@
         <v>180</v>
       </c>
       <c r="G144" t="n">
+        <v>12.08133333333332</v>
+      </c>
+      <c r="H144" t="n">
         <v>12.04233333333334</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +5887,21 @@
         <v>1320.0255</v>
       </c>
       <c r="G145" t="n">
+        <v>12.07599999999999</v>
+      </c>
+      <c r="H145" t="n">
         <v>12.04216666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +5925,21 @@
         <v>75459.9745</v>
       </c>
       <c r="G146" t="n">
+        <v>12.07333333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>12.05033333333334</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +5963,21 @@
         <v>150</v>
       </c>
       <c r="G147" t="n">
+        <v>12.07933333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>12.049</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6001,21 @@
         <v>700</v>
       </c>
       <c r="G148" t="n">
+        <v>12.07666666666666</v>
+      </c>
+      <c r="H148" t="n">
         <v>12.04566666666667</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6039,21 @@
         <v>6191.823</v>
       </c>
       <c r="G149" t="n">
+        <v>12.07399999999999</v>
+      </c>
+      <c r="H149" t="n">
         <v>12.04266666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6077,21 @@
         <v>1218.2611</v>
       </c>
       <c r="G150" t="n">
+        <v>12.06799999999999</v>
+      </c>
+      <c r="H150" t="n">
         <v>12.03950000000001</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6115,21 @@
         <v>3559.3877</v>
       </c>
       <c r="G151" t="n">
+        <v>12.05999999999999</v>
+      </c>
+      <c r="H151" t="n">
         <v>12.03650000000001</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6153,21 @@
         <v>42</v>
       </c>
       <c r="G152" t="n">
+        <v>12.05399999999999</v>
+      </c>
+      <c r="H152" t="n">
         <v>12.04100000000001</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6191,21 @@
         <v>126</v>
       </c>
       <c r="G153" t="n">
+        <v>12.04599999999999</v>
+      </c>
+      <c r="H153" t="n">
         <v>12.03950000000001</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6229,21 @@
         <v>10000</v>
       </c>
       <c r="G154" t="n">
+        <v>12.03266666666666</v>
+      </c>
+      <c r="H154" t="n">
         <v>12.03666666666667</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6267,21 @@
         <v>100447.589</v>
       </c>
       <c r="G155" t="n">
+        <v>12.02599999999999</v>
+      </c>
+      <c r="H155" t="n">
         <v>12.03250000000001</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6305,21 @@
         <v>75</v>
       </c>
       <c r="G156" t="n">
+        <v>12.02399999999999</v>
+      </c>
+      <c r="H156" t="n">
         <v>12.03166666666668</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6343,21 @@
         <v>750</v>
       </c>
       <c r="G157" t="n">
+        <v>12.01999999999999</v>
+      </c>
+      <c r="H157" t="n">
         <v>12.02850000000001</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6381,21 @@
         <v>1497.9989</v>
       </c>
       <c r="G158" t="n">
+        <v>12.01466666666666</v>
+      </c>
+      <c r="H158" t="n">
         <v>12.02383333333334</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6419,21 @@
         <v>12975.3272</v>
       </c>
       <c r="G159" t="n">
+        <v>12.00533333333332</v>
+      </c>
+      <c r="H159" t="n">
         <v>12.02033333333334</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6457,21 @@
         <v>83.47245409015025</v>
       </c>
       <c r="G160" t="n">
+        <v>12.00466666666666</v>
+      </c>
+      <c r="H160" t="n">
         <v>12.02000000000001</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6495,21 @@
         <v>35000</v>
       </c>
       <c r="G161" t="n">
+        <v>11.99933333333332</v>
+      </c>
+      <c r="H161" t="n">
         <v>12.01750000000001</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6533,21 @@
         <v>31385.4791</v>
       </c>
       <c r="G162" t="n">
+        <v>11.98333333333332</v>
+      </c>
+      <c r="H162" t="n">
         <v>12.01533333333334</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6571,21 @@
         <v>44</v>
       </c>
       <c r="G163" t="n">
+        <v>11.97466666666666</v>
+      </c>
+      <c r="H163" t="n">
         <v>12.00983333333334</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6609,21 @@
         <v>15354</v>
       </c>
       <c r="G164" t="n">
+        <v>11.98066666666666</v>
+      </c>
+      <c r="H164" t="n">
         <v>12.01116666666667</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +6647,21 @@
         <v>177.2455</v>
       </c>
       <c r="G165" t="n">
+        <v>11.98733333333332</v>
+      </c>
+      <c r="H165" t="n">
         <v>12.01266666666667</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +6685,21 @@
         <v>40135.8527</v>
       </c>
       <c r="G166" t="n">
+        <v>11.99466666666666</v>
+      </c>
+      <c r="H166" t="n">
         <v>12.01433333333334</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +6723,21 @@
         <v>822.7545</v>
       </c>
       <c r="G167" t="n">
+        <v>11.99399999999999</v>
+      </c>
+      <c r="H167" t="n">
         <v>12.01566666666668</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +6761,21 @@
         <v>26954.038</v>
       </c>
       <c r="G168" t="n">
+        <v>11.97933333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>12.01266666666668</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +6799,21 @@
         <v>34354.559</v>
       </c>
       <c r="G169" t="n">
+        <v>11.96933333333333</v>
+      </c>
+      <c r="H169" t="n">
         <v>12.01150000000001</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +6837,21 @@
         <v>83.33333333333333</v>
       </c>
       <c r="G170" t="n">
+        <v>11.97599999999999</v>
+      </c>
+      <c r="H170" t="n">
         <v>12.01100000000001</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +6875,21 @@
         <v>264</v>
       </c>
       <c r="G171" t="n">
+        <v>11.96866666666666</v>
+      </c>
+      <c r="H171" t="n">
         <v>12.01233333333334</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +6913,21 @@
         <v>7114.4388</v>
       </c>
       <c r="G172" t="n">
+        <v>11.96799999999999</v>
+      </c>
+      <c r="H172" t="n">
         <v>12.01366666666668</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +6951,21 @@
         <v>2049.8333</v>
       </c>
       <c r="G173" t="n">
+        <v>11.96466666666666</v>
+      </c>
+      <c r="H173" t="n">
         <v>12.00866666666668</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +6989,21 @@
         <v>7480.6134</v>
       </c>
       <c r="G174" t="n">
+        <v>11.95666666666666</v>
+      </c>
+      <c r="H174" t="n">
         <v>12.00350000000001</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7027,21 @@
         <v>50</v>
       </c>
       <c r="G175" t="n">
+        <v>11.95799999999999</v>
+      </c>
+      <c r="H175" t="n">
         <v>12.00066666666668</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7065,21 @@
         <v>263.7007</v>
       </c>
       <c r="G176" t="n">
+        <v>11.95466666666666</v>
+      </c>
+      <c r="H176" t="n">
         <v>12.00000000000002</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7103,21 @@
         <v>7951.7456</v>
       </c>
       <c r="G177" t="n">
+        <v>11.95333333333333</v>
+      </c>
+      <c r="H177" t="n">
         <v>11.99600000000001</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7141,21 @@
         <v>240833.8827</v>
       </c>
       <c r="G178" t="n">
+        <v>11.97133333333332</v>
+      </c>
+      <c r="H178" t="n">
         <v>11.99650000000002</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7179,21 @@
         <v>14039.0525</v>
       </c>
       <c r="G179" t="n">
+        <v>11.97399999999999</v>
+      </c>
+      <c r="H179" t="n">
         <v>12.00016666666668</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7217,21 @@
         <v>12174</v>
       </c>
       <c r="G180" t="n">
+        <v>11.95999999999999</v>
+      </c>
+      <c r="H180" t="n">
         <v>11.99966666666668</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7255,21 @@
         <v>50</v>
       </c>
       <c r="G181" t="n">
+        <v>11.96199999999999</v>
+      </c>
+      <c r="H181" t="n">
         <v>12.00000000000002</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7293,21 @@
         <v>91898.647</v>
       </c>
       <c r="G182" t="n">
+        <v>11.96333333333332</v>
+      </c>
+      <c r="H182" t="n">
         <v>12.00450000000001</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7331,21 @@
         <v>44230.9463</v>
       </c>
       <c r="G183" t="n">
+        <v>11.96399999999999</v>
+      </c>
+      <c r="H183" t="n">
         <v>12.00516666666668</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,18 +7369,21 @@
         <v>8788.5602</v>
       </c>
       <c r="G184" t="n">
+        <v>11.96466666666666</v>
+      </c>
+      <c r="H184" t="n">
         <v>12.00550000000001</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,18 +7407,21 @@
         <v>455461.5558</v>
       </c>
       <c r="G185" t="n">
+        <v>11.95533333333332</v>
+      </c>
+      <c r="H185" t="n">
         <v>12.00383333333335</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,18 +7445,21 @@
         <v>100</v>
       </c>
       <c r="G186" t="n">
+        <v>11.96266666666665</v>
+      </c>
+      <c r="H186" t="n">
         <v>12.00533333333335</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,18 +7483,21 @@
         <v>423.0457</v>
       </c>
       <c r="G187" t="n">
+        <v>11.95533333333332</v>
+      </c>
+      <c r="H187" t="n">
         <v>12.00316666666668</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,18 +7521,21 @@
         <v>45</v>
       </c>
       <c r="G188" t="n">
+        <v>11.97133333333332</v>
+      </c>
+      <c r="H188" t="n">
         <v>12.00716666666668</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6993,18 +7559,21 @@
         <v>98604.54059999999</v>
       </c>
       <c r="G189" t="n">
+        <v>11.97066666666665</v>
+      </c>
+      <c r="H189" t="n">
         <v>12.00350000000001</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7028,18 +7597,21 @@
         <v>50</v>
       </c>
       <c r="G190" t="n">
+        <v>11.97066666666665</v>
+      </c>
+      <c r="H190" t="n">
         <v>12.00233333333335</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7063,18 +7635,21 @@
         <v>12239</v>
       </c>
       <c r="G191" t="n">
+        <v>11.96999999999999</v>
+      </c>
+      <c r="H191" t="n">
         <v>11.99933333333335</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7098,18 +7673,21 @@
         <v>12926.4486</v>
       </c>
       <c r="G192" t="n">
+        <v>11.97866666666665</v>
+      </c>
+      <c r="H192" t="n">
         <v>11.99866666666668</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7133,18 +7711,21 @@
         <v>228.8512</v>
       </c>
       <c r="G193" t="n">
+        <v>11.96999999999999</v>
+      </c>
+      <c r="H193" t="n">
         <v>11.99816666666668</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7168,18 +7749,21 @@
         <v>13562.4932</v>
       </c>
       <c r="G194" t="n">
+        <v>11.96133333333332</v>
+      </c>
+      <c r="H194" t="n">
         <v>11.99750000000001</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7203,18 +7787,21 @@
         <v>138551.1859</v>
       </c>
       <c r="G195" t="n">
+        <v>11.96333333333332</v>
+      </c>
+      <c r="H195" t="n">
         <v>11.99466666666668</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7238,18 +7825,21 @@
         <v>69937.19070000001</v>
       </c>
       <c r="G196" t="n">
+        <v>11.94733333333332</v>
+      </c>
+      <c r="H196" t="n">
         <v>11.99100000000001</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7273,18 +7863,21 @@
         <v>25815.1074</v>
       </c>
       <c r="G197" t="n">
+        <v>11.93266666666665</v>
+      </c>
+      <c r="H197" t="n">
         <v>11.98600000000001</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7308,18 +7901,21 @@
         <v>128577.2526</v>
       </c>
       <c r="G198" t="n">
+        <v>11.93199999999999</v>
+      </c>
+      <c r="H198" t="n">
         <v>11.98033333333335</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7343,18 +7939,21 @@
         <v>5015.3159</v>
       </c>
       <c r="G199" t="n">
+        <v>11.93199999999999</v>
+      </c>
+      <c r="H199" t="n">
         <v>11.97466666666668</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7378,18 +7977,21 @@
         <v>1910</v>
       </c>
       <c r="G200" t="n">
+        <v>11.93466666666665</v>
+      </c>
+      <c r="H200" t="n">
         <v>11.97300000000001</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7413,18 +8015,21 @@
         <v>240931.1505</v>
       </c>
       <c r="G201" t="n">
+        <v>11.91799999999999</v>
+      </c>
+      <c r="H201" t="n">
         <v>11.96833333333335</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7448,18 +8053,21 @@
         <v>163522.1201</v>
       </c>
       <c r="G202" t="n">
+        <v>11.91599999999999</v>
+      </c>
+      <c r="H202" t="n">
         <v>11.96483333333335</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7483,18 +8091,21 @@
         <v>18587.2938</v>
       </c>
       <c r="G203" t="n">
+        <v>11.90866666666665</v>
+      </c>
+      <c r="H203" t="n">
         <v>11.96483333333335</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7518,18 +8129,21 @@
         <v>41922.1174</v>
       </c>
       <c r="G204" t="n">
+        <v>11.91799999999999</v>
+      </c>
+      <c r="H204" t="n">
         <v>11.96266666666668</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7553,18 +8167,21 @@
         <v>2000</v>
       </c>
       <c r="G205" t="n">
+        <v>11.91733333333332</v>
+      </c>
+      <c r="H205" t="n">
         <v>11.96266666666668</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,18 +8205,21 @@
         <v>19978.0947</v>
       </c>
       <c r="G206" t="n">
+        <v>11.92666666666666</v>
+      </c>
+      <c r="H206" t="n">
         <v>11.96266666666668</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7623,18 +8243,21 @@
         <v>21910.1879</v>
       </c>
       <c r="G207" t="n">
+        <v>11.92666666666666</v>
+      </c>
+      <c r="H207" t="n">
         <v>11.96050000000002</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7658,18 +8281,21 @@
         <v>78922.66590000001</v>
       </c>
       <c r="G208" t="n">
+        <v>11.92666666666666</v>
+      </c>
+      <c r="H208" t="n">
         <v>11.96066666666668</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7693,18 +8319,21 @@
         <v>15796.2393</v>
       </c>
       <c r="G209" t="n">
+        <v>11.92733333333332</v>
+      </c>
+      <c r="H209" t="n">
         <v>11.96083333333335</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7728,18 +8357,21 @@
         <v>826.4462809917355</v>
       </c>
       <c r="G210" t="n">
+        <v>11.94066666666666</v>
+      </c>
+      <c r="H210" t="n">
         <v>11.96283333333335</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7763,18 +8395,21 @@
         <v>79699.1121</v>
       </c>
       <c r="G211" t="n">
+        <v>11.93733333333332</v>
+      </c>
+      <c r="H211" t="n">
         <v>11.96033333333335</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7798,18 +8433,21 @@
         <v>50</v>
       </c>
       <c r="G212" t="n">
+        <v>11.94466666666666</v>
+      </c>
+      <c r="H212" t="n">
         <v>11.95866666666668</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7833,18 +8471,21 @@
         <v>14705.4775</v>
       </c>
       <c r="G213" t="n">
+        <v>11.95466666666666</v>
+      </c>
+      <c r="H213" t="n">
         <v>11.95750000000001</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7868,18 +8509,21 @@
         <v>56000</v>
       </c>
       <c r="G214" t="n">
+        <v>11.96799999999999</v>
+      </c>
+      <c r="H214" t="n">
         <v>11.95850000000001</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7903,18 +8547,21 @@
         <v>3175.3598</v>
       </c>
       <c r="G215" t="n">
+        <v>11.96799999999999</v>
+      </c>
+      <c r="H215" t="n">
         <v>11.95850000000001</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7938,18 +8585,21 @@
         <v>14039.0525</v>
       </c>
       <c r="G216" t="n">
+        <v>11.96733333333333</v>
+      </c>
+      <c r="H216" t="n">
         <v>11.95416666666668</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7973,18 +8623,21 @@
         <v>4538.7663</v>
       </c>
       <c r="G217" t="n">
+        <v>11.97733333333333</v>
+      </c>
+      <c r="H217" t="n">
         <v>11.95416666666668</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8008,18 +8661,21 @@
         <v>50</v>
       </c>
       <c r="G218" t="n">
+        <v>11.98199999999999</v>
+      </c>
+      <c r="H218" t="n">
         <v>11.95666666666668</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8043,18 +8699,21 @@
         <v>61.2337</v>
       </c>
       <c r="G219" t="n">
+        <v>11.98599999999999</v>
+      </c>
+      <c r="H219" t="n">
         <v>11.95783333333335</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8078,18 +8737,21 @@
         <v>150</v>
       </c>
       <c r="G220" t="n">
+        <v>11.98799999999999</v>
+      </c>
+      <c r="H220" t="n">
         <v>11.95850000000001</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8113,18 +8775,21 @@
         <v>28017.2826</v>
       </c>
       <c r="G221" t="n">
+        <v>11.98199999999999</v>
+      </c>
+      <c r="H221" t="n">
         <v>11.95833333333334</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8148,18 +8813,21 @@
         <v>4728.4776</v>
       </c>
       <c r="G222" t="n">
+        <v>11.97599999999999</v>
+      </c>
+      <c r="H222" t="n">
         <v>11.95866666666668</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8183,18 +8851,21 @@
         <v>50</v>
       </c>
       <c r="G223" t="n">
+        <v>11.97599999999999</v>
+      </c>
+      <c r="H223" t="n">
         <v>11.96100000000001</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8218,18 +8889,21 @@
         <v>3120.2838</v>
       </c>
       <c r="G224" t="n">
+        <v>11.97933333333333</v>
+      </c>
+      <c r="H224" t="n">
         <v>11.96050000000001</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8253,18 +8927,21 @@
         <v>265726.5336</v>
       </c>
       <c r="G225" t="n">
+        <v>11.97333333333333</v>
+      </c>
+      <c r="H225" t="n">
         <v>11.95933333333334</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8288,18 +8965,21 @@
         <v>3238.6351</v>
       </c>
       <c r="G226" t="n">
+        <v>11.98466666666666</v>
+      </c>
+      <c r="H226" t="n">
         <v>11.95783333333334</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8323,18 +9003,21 @@
         <v>83.33333333333333</v>
       </c>
       <c r="G227" t="n">
+        <v>11.98533333333333</v>
+      </c>
+      <c r="H227" t="n">
         <v>11.95650000000001</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8358,18 +9041,21 @@
         <v>8039.3329</v>
       </c>
       <c r="G228" t="n">
+        <v>11.97599999999999</v>
+      </c>
+      <c r="H228" t="n">
         <v>11.95666666666667</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8393,18 +9079,21 @@
         <v>42</v>
       </c>
       <c r="G229" t="n">
+        <v>11.97266666666666</v>
+      </c>
+      <c r="H229" t="n">
         <v>11.95933333333334</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8428,18 +9117,21 @@
         <v>38331.04226666666</v>
       </c>
       <c r="G230" t="n">
+        <v>11.97933333333332</v>
+      </c>
+      <c r="H230" t="n">
         <v>11.95933333333334</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8463,18 +9155,21 @@
         <v>125239.7903333333</v>
       </c>
       <c r="G231" t="n">
+        <v>11.97933333333332</v>
+      </c>
+      <c r="H231" t="n">
         <v>11.95683333333334</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8498,18 +9193,21 @@
         <v>29776.2884</v>
       </c>
       <c r="G232" t="n">
+        <v>11.96933333333332</v>
+      </c>
+      <c r="H232" t="n">
         <v>11.95450000000001</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8533,18 +9231,21 @@
         <v>326396.1894</v>
       </c>
       <c r="G233" t="n">
+        <v>11.94599999999999</v>
+      </c>
+      <c r="H233" t="n">
         <v>11.95200000000001</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8568,18 +9269,21 @@
         <v>69338.5049</v>
       </c>
       <c r="G234" t="n">
+        <v>11.92333333333332</v>
+      </c>
+      <c r="H234" t="n">
         <v>11.94950000000001</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8603,18 +9307,21 @@
         <v>68308.25750000001</v>
       </c>
       <c r="G235" t="n">
+        <v>11.89999999999999</v>
+      </c>
+      <c r="H235" t="n">
         <v>11.94400000000001</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8638,18 +9345,21 @@
         <v>454.1433</v>
       </c>
       <c r="G236" t="n">
+        <v>11.88466666666665</v>
+      </c>
+      <c r="H236" t="n">
         <v>11.94083333333334</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8673,18 +9383,21 @@
         <v>254515.7319</v>
       </c>
       <c r="G237" t="n">
+        <v>11.86933333333332</v>
+      </c>
+      <c r="H237" t="n">
         <v>11.93766666666667</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8708,18 +9421,21 @@
         <v>152385.1268</v>
       </c>
       <c r="G238" t="n">
+        <v>11.84066666666665</v>
+      </c>
+      <c r="H238" t="n">
         <v>11.92833333333334</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8743,1044 +9459,1445 @@
         <v>345623.288</v>
       </c>
       <c r="G239" t="n">
+        <v>11.80533333333332</v>
+      </c>
+      <c r="H239" t="n">
         <v>11.91833333333334</v>
       </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
       <c r="J239" t="n">
-        <v>11.57</v>
+        <v>0</v>
       </c>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C240" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D240" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E240" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F240" t="n">
+        <v>43</v>
+      </c>
+      <c r="G240" t="n">
+        <v>11.78466666666665</v>
+      </c>
+      <c r="H240" t="n">
+        <v>11.91550000000001</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C241" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D241" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E241" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F241" t="n">
+        <v>19328.4939</v>
+      </c>
+      <c r="G241" t="n">
+        <v>11.76399999999999</v>
+      </c>
+      <c r="H241" t="n">
+        <v>11.90833333333334</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C242" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D242" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E242" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F242" t="n">
+        <v>2186.7161</v>
+      </c>
+      <c r="G242" t="n">
+        <v>11.75066666666665</v>
+      </c>
+      <c r="H242" t="n">
+        <v>11.90333333333334</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="C243" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="D243" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="E243" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="F243" t="n">
+        <v>43</v>
+      </c>
+      <c r="G243" t="n">
+        <v>11.75933333333332</v>
+      </c>
+      <c r="H243" t="n">
+        <v>11.90550000000001</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C244" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D244" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E244" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F244" t="n">
+        <v>37741.6976</v>
+      </c>
+      <c r="G244" t="n">
+        <v>11.73266666666665</v>
+      </c>
+      <c r="H244" t="n">
+        <v>11.90133333333334</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C245" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="D245" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="E245" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F245" t="n">
+        <v>143.7153</v>
+      </c>
+      <c r="G245" t="n">
+        <v>11.73199999999999</v>
+      </c>
+      <c r="H245" t="n">
+        <v>11.90350000000001</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C246" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D246" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E246" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F246" t="n">
+        <v>61559.5886</v>
+      </c>
+      <c r="G246" t="n">
+        <v>11.71599999999999</v>
+      </c>
+      <c r="H246" t="n">
+        <v>11.89516666666667</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C247" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="D247" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="E247" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F247" t="n">
+        <v>19974.0329</v>
+      </c>
+      <c r="G247" t="n">
+        <v>11.71866666666666</v>
+      </c>
+      <c r="H247" t="n">
+        <v>11.89533333333334</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C248" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D248" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E248" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F248" t="n">
+        <v>10082.9806</v>
+      </c>
+      <c r="G248" t="n">
+        <v>11.71133333333332</v>
+      </c>
+      <c r="H248" t="n">
+        <v>11.88700000000001</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C249" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D249" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E249" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F249" t="n">
+        <v>18738.2036</v>
+      </c>
+      <c r="G249" t="n">
+        <v>11.70399999999999</v>
+      </c>
+      <c r="H249" t="n">
+        <v>11.88283333333334</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C250" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="D250" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="E250" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F250" t="n">
+        <v>42037.0072</v>
+      </c>
+      <c r="G250" t="n">
+        <v>11.71866666666666</v>
+      </c>
+      <c r="H250" t="n">
+        <v>11.88100000000001</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="C251" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D251" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E251" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="F251" t="n">
+        <v>251.5997</v>
+      </c>
+      <c r="G251" t="n">
+        <v>11.71066666666666</v>
+      </c>
+      <c r="H251" t="n">
+        <v>11.876</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="C252" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D252" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E252" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="F252" t="n">
+        <v>111201.7973</v>
+      </c>
+      <c r="G252" t="n">
+        <v>11.70266666666666</v>
+      </c>
+      <c r="H252" t="n">
+        <v>11.86866666666667</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="C253" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D253" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="E253" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="F253" t="n">
+        <v>17885.0806</v>
+      </c>
+      <c r="G253" t="n">
+        <v>11.70133333333333</v>
+      </c>
+      <c r="H253" t="n">
+        <v>11.86116666666667</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="C254" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D254" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E254" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="F254" t="n">
+        <v>304282.746</v>
+      </c>
+      <c r="G254" t="n">
+        <v>11.70333333333333</v>
+      </c>
+      <c r="H254" t="n">
+        <v>11.85383333333334</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="C255" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="D255" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="E255" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="F255" t="n">
+        <v>43</v>
+      </c>
+      <c r="G255" t="n">
+        <v>11.71599999999999</v>
+      </c>
+      <c r="H255" t="n">
+        <v>11.85366666666667</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C256" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D256" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E256" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F256" t="n">
+        <v>73830.0076</v>
+      </c>
+      <c r="G256" t="n">
+        <v>11.71599999999999</v>
+      </c>
+      <c r="H256" t="n">
+        <v>11.8505</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C257" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D257" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E257" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F257" t="n">
+        <v>2588.983050847457</v>
+      </c>
+      <c r="G257" t="n">
+        <v>11.71599999999999</v>
+      </c>
+      <c r="H257" t="n">
+        <v>11.84916666666667</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C258" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D258" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E258" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F258" t="n">
+        <v>672.4485</v>
+      </c>
+      <c r="G258" t="n">
+        <v>11.70333333333333</v>
+      </c>
+      <c r="H258" t="n">
+        <v>11.84833333333333</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="C259" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D259" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E259" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="F259" t="n">
+        <v>26240.1314</v>
+      </c>
+      <c r="G259" t="n">
+        <v>11.69999999999999</v>
+      </c>
+      <c r="H259" t="n">
+        <v>11.84333333333333</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C260" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D260" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E260" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F260" t="n">
+        <v>52.0123</v>
+      </c>
+      <c r="G260" t="n">
+        <v>11.68733333333333</v>
+      </c>
+      <c r="H260" t="n">
+        <v>11.84166666666667</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C261" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D261" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E261" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F261" t="n">
+        <v>39609.5168</v>
+      </c>
+      <c r="G261" t="n">
+        <v>11.70066666666666</v>
+      </c>
+      <c r="H261" t="n">
+        <v>11.84083333333333</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="C262" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="D262" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E262" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="F262" t="n">
+        <v>29106.526</v>
+      </c>
+      <c r="G262" t="n">
+        <v>11.67733333333333</v>
+      </c>
+      <c r="H262" t="n">
+        <v>11.83566666666666</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C263" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D263" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E263" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F263" t="n">
+        <v>281.0059</v>
+      </c>
+      <c r="G263" t="n">
+        <v>11.69066666666666</v>
+      </c>
+      <c r="H263" t="n">
+        <v>11.8325</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C264" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D264" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E264" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F264" t="n">
+        <v>672.4485</v>
+      </c>
+      <c r="G264" t="n">
+        <v>11.69066666666666</v>
+      </c>
+      <c r="H264" t="n">
+        <v>11.826</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="C265" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D265" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E265" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="F265" t="n">
+        <v>7386.4345</v>
+      </c>
+      <c r="G265" t="n">
+        <v>11.67799999999999</v>
+      </c>
+      <c r="H265" t="n">
+        <v>11.82116666666666</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="C266" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="D266" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="E266" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="F266" t="n">
+        <v>50744.433</v>
+      </c>
+      <c r="G266" t="n">
+        <v>11.67866666666666</v>
+      </c>
+      <c r="H266" t="n">
+        <v>11.814</v>
+      </c>
+      <c r="I266" t="n">
+        <v>1</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C240" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D240" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E240" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F240" t="n">
-        <v>43</v>
-      </c>
-      <c r="G240" t="n">
-        <v>11.91550000000001</v>
-      </c>
-      <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
+      <c r="N266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="C267" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="D267" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="E267" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="F267" t="n">
+        <v>35436.4972</v>
+      </c>
+      <c r="G267" t="n">
+        <v>11.67933333333333</v>
+      </c>
+      <c r="H267" t="n">
+        <v>11.80683333333333</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C241" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="D241" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="E241" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F241" t="n">
-        <v>19328.4939</v>
-      </c>
-      <c r="G241" t="n">
-        <v>11.90833333333334</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
+      <c r="N267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="C268" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D268" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="E268" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="F268" t="n">
+        <v>11713.5869</v>
+      </c>
+      <c r="G268" t="n">
+        <v>11.67933333333333</v>
+      </c>
+      <c r="H268" t="n">
+        <v>11.79933333333333</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C242" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D242" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E242" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F242" t="n">
-        <v>2186.7161</v>
-      </c>
-      <c r="G242" t="n">
-        <v>11.90333333333334</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
+      <c r="N268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="C269" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D269" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E269" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="F269" t="n">
+        <v>47427.3295</v>
+      </c>
+      <c r="G269" t="n">
+        <v>11.67933333333333</v>
+      </c>
+      <c r="H269" t="n">
+        <v>11.79183333333333</v>
+      </c>
+      <c r="I269" t="n">
+        <v>1</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="C243" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="D243" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="E243" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="F243" t="n">
-        <v>43</v>
-      </c>
-      <c r="G243" t="n">
-        <v>11.90550000000001</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
+      <c r="N269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="C270" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="D270" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="E270" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="F270" t="n">
+        <v>8435.793100000001</v>
+      </c>
+      <c r="G270" t="n">
+        <v>11.65599999999999</v>
+      </c>
+      <c r="H270" t="n">
+        <v>11.78249999999999</v>
+      </c>
+      <c r="I270" t="n">
+        <v>1</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
+      <c r="M270" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C244" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D244" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E244" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F244" t="n">
-        <v>37741.6976</v>
-      </c>
-      <c r="G244" t="n">
-        <v>11.90133333333334</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
+      <c r="N270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="C271" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="D271" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="E271" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="F271" t="n">
+        <v>20959.2855</v>
+      </c>
+      <c r="G271" t="n">
+        <v>11.64599999999999</v>
+      </c>
+      <c r="H271" t="n">
+        <v>11.77766666666666</v>
+      </c>
+      <c r="I271" t="n">
+        <v>1</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
+      <c r="M271" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
+      <c r="N271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
         <v>11.6</v>
       </c>
-      <c r="C245" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="D245" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="E245" t="n">
+      <c r="C272" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="D272" t="n">
         <v>11.6</v>
       </c>
-      <c r="F245" t="n">
-        <v>143.7153</v>
-      </c>
-      <c r="G245" t="n">
-        <v>11.90350000000001</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
+      <c r="E272" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="F272" t="n">
+        <v>120075.1805</v>
+      </c>
+      <c r="G272" t="n">
+        <v>11.62799999999999</v>
+      </c>
+      <c r="H272" t="n">
+        <v>11.76999999999999</v>
+      </c>
+      <c r="I272" t="n">
+        <v>1</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C246" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D246" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E246" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F246" t="n">
-        <v>61559.5886</v>
-      </c>
-      <c r="G246" t="n">
-        <v>11.89516666666667</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
+      <c r="N272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="C273" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="D273" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="E273" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="F273" t="n">
+        <v>2335.6377</v>
+      </c>
+      <c r="G273" t="n">
+        <v>11.61066666666665</v>
+      </c>
+      <c r="H273" t="n">
+        <v>11.76233333333332</v>
+      </c>
+      <c r="I273" t="n">
+        <v>1</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
+      <c r="M273" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C247" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="D247" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="E247" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F247" t="n">
-        <v>19974.0329</v>
-      </c>
-      <c r="G247" t="n">
-        <v>11.89533333333334</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
+      <c r="N273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C274" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D274" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E274" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F274" t="n">
+        <v>43</v>
+      </c>
+      <c r="G274" t="n">
+        <v>11.62066666666665</v>
+      </c>
+      <c r="H274" t="n">
+        <v>11.75649999999999</v>
+      </c>
+      <c r="I274" t="n">
+        <v>1</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
+      <c r="M274" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C248" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D248" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E248" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F248" t="n">
-        <v>10082.9806</v>
-      </c>
-      <c r="G248" t="n">
-        <v>11.88700000000001</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
+      <c r="N274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="C275" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="D275" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="E275" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="F275" t="n">
+        <v>232644.8146</v>
+      </c>
+      <c r="G275" t="n">
+        <v>11.60133333333332</v>
+      </c>
+      <c r="H275" t="n">
+        <v>11.74999999999999</v>
+      </c>
+      <c r="I275" t="n">
+        <v>1</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
+      <c r="M275" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C249" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D249" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E249" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F249" t="n">
-        <v>18738.2036</v>
-      </c>
-      <c r="G249" t="n">
-        <v>11.88283333333334</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C250" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="D250" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="E250" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F250" t="n">
-        <v>42037.0072</v>
-      </c>
-      <c r="G250" t="n">
-        <v>11.88100000000001</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="C251" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="D251" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="E251" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="F251" t="n">
-        <v>251.5997</v>
-      </c>
-      <c r="G251" t="n">
-        <v>11.876</v>
-      </c>
-      <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="C252" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="D252" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="E252" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="F252" t="n">
-        <v>111201.7973</v>
-      </c>
-      <c r="G252" t="n">
-        <v>11.86866666666667</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="C253" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="D253" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="E253" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="F253" t="n">
-        <v>17885.0806</v>
-      </c>
-      <c r="G253" t="n">
-        <v>11.86116666666667</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="C254" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="D254" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="E254" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="F254" t="n">
-        <v>304282.746</v>
-      </c>
-      <c r="G254" t="n">
-        <v>11.85383333333334</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="C255" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="D255" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="E255" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="F255" t="n">
-        <v>43</v>
-      </c>
-      <c r="G255" t="n">
-        <v>11.85366666666667</v>
-      </c>
-      <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C256" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="D256" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="E256" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F256" t="n">
-        <v>73830.0076</v>
-      </c>
-      <c r="G256" t="n">
-        <v>11.8505</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C257" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D257" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E257" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F257" t="n">
-        <v>2588.983050847457</v>
-      </c>
-      <c r="G257" t="n">
-        <v>11.84916666666667</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C258" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D258" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E258" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F258" t="n">
-        <v>672.4485</v>
-      </c>
-      <c r="G258" t="n">
-        <v>11.84833333333333</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="C259" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="D259" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="E259" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="F259" t="n">
-        <v>26240.1314</v>
-      </c>
-      <c r="G259" t="n">
-        <v>11.84333333333333</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C260" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D260" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E260" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F260" t="n">
-        <v>52.0123</v>
-      </c>
-      <c r="G260" t="n">
-        <v>11.84166666666667</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C261" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D261" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E261" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F261" t="n">
-        <v>39609.5168</v>
-      </c>
-      <c r="G261" t="n">
-        <v>11.84083333333333</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="C262" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="D262" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="E262" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="F262" t="n">
-        <v>29106.526</v>
-      </c>
-      <c r="G262" t="n">
-        <v>11.83566666666666</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C263" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D263" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E263" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F263" t="n">
-        <v>281.0059</v>
-      </c>
-      <c r="G263" t="n">
-        <v>11.8325</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C264" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D264" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E264" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F264" t="n">
-        <v>672.4485</v>
-      </c>
-      <c r="G264" t="n">
-        <v>11.826</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="C265" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D265" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E265" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="F265" t="n">
-        <v>7386.4345</v>
-      </c>
-      <c r="G265" t="n">
-        <v>11.82116666666666</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M265" t="n">
+      <c r="N275" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-20 BackTest TRV.xlsx
+++ b/BackTest/2020-01-20 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N333"/>
+  <dimension ref="A1:M333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3256,15 @@
         <v>-5343809.22938055</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3552,18 +3289,15 @@
         <v>-5313809.22938055</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3588,18 +3322,15 @@
         <v>-5622653.79878055</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3355,15 @@
         <v>-5525603.79878055</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3696,18 +3421,15 @@
         <v>-5722286.98178055</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +3454,15 @@
         <v>-5722286.98178055</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3487,15 @@
         <v>-5722286.98178055</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,18 +3553,15 @@
         <v>-6065383.111980551</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3876,18 +3586,15 @@
         <v>-6187650.834580551</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3912,18 +3619,15 @@
         <v>-6198865.485480551</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3948,18 +3652,15 @@
         <v>-6198865.485480551</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3984,18 +3685,15 @@
         <v>-6198865.485480551</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4020,18 +3718,15 @@
         <v>-6198865.485480551</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4056,18 +3751,15 @@
         <v>-6214398.098980551</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4092,18 +3784,15 @@
         <v>-6214398.098980551</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4128,18 +3817,15 @@
         <v>-6891048.35298055</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6822,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6855,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6888,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +6921,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +6954,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +6987,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7020,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7053,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7086,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7119,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7152,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7185,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7218,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7251,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +7284,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7946,16 +7317,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7350,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8018,16 +7383,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8054,16 +7416,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8090,16 +7449,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8126,16 +7482,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8162,16 +7515,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8198,16 +7548,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8234,16 +7581,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8270,16 +7614,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8306,16 +7647,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8342,16 +7680,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8378,16 +7713,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8414,16 +7746,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8450,16 +7779,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8486,16 +7812,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8522,16 +7845,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8558,16 +7878,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8594,16 +7911,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8630,16 +7944,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8666,16 +7977,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8702,16 +8010,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8738,16 +8043,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8774,16 +8076,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8810,16 +8109,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8846,16 +8142,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8882,16 +8175,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8918,16 +8208,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8954,16 +8241,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8990,16 +8274,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9026,16 +8307,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9062,16 +8340,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9098,16 +8373,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9134,16 +8406,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9170,16 +8439,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9206,16 +8472,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9242,16 +8505,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9278,16 +8538,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9314,16 +8571,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9350,16 +8604,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9386,16 +8637,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9422,16 +8670,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9458,16 +8703,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9494,16 +8736,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9530,16 +8769,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9566,16 +8802,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9602,16 +8835,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9638,16 +8868,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9674,16 +8901,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9710,16 +8934,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9746,16 +8967,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9782,16 +9000,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9818,16 +9033,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9854,16 +9066,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9890,16 +9099,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9926,16 +9132,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9962,16 +9165,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9998,16 +9198,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10034,16 +9231,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10070,16 +9264,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10106,16 +9297,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10142,16 +9330,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10178,16 +9363,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10214,16 +9396,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10250,16 +9429,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10286,16 +9462,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10322,16 +9495,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10358,16 +9528,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10394,16 +9561,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10430,16 +9594,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10466,16 +9627,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10502,16 +9660,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10538,16 +9693,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10574,16 +9726,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10608,18 +9757,21 @@
         <v>-11284311.29875901</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="n">
-        <v>0</v>
+        <v>12.01</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10646,16 +9798,17 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10680,18 +9833,21 @@
         <v>-11292350.63165901</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10718,16 +9874,17 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10754,16 +9911,17 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10790,16 +9948,17 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10826,16 +9985,17 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10862,16 +10022,17 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10898,16 +10059,17 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10934,16 +10096,17 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10970,16 +10133,17 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11006,16 +10170,17 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11042,16 +10207,17 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11078,16 +10244,17 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11112,18 +10279,21 @@
         <v>-12280441.99529234</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="n">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11150,16 +10320,17 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11186,16 +10357,17 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11222,16 +10394,17 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11258,16 +10431,17 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11294,16 +10468,17 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11330,16 +10505,17 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11366,16 +10542,17 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11402,16 +10579,17 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11438,16 +10616,17 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11474,16 +10653,17 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11508,18 +10688,21 @@
         <v>-12345021.88419234</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="n">
-        <v>0</v>
+        <v>11.89</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11544,18 +10727,21 @@
         <v>-12345021.88419234</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="n">
-        <v>0</v>
+        <v>11.55</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11580,18 +10766,21 @@
         <v>-12345021.88419234</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="n">
-        <v>0</v>
+        <v>11.55</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11616,18 +10805,21 @@
         <v>-12345021.88419234</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="n">
-        <v>0</v>
+        <v>11.55</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11652,18 +10844,21 @@
         <v>-12344978.88419234</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="n">
-        <v>0</v>
+        <v>11.55</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11690,16 +10885,17 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11726,16 +10922,17 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11762,16 +10959,17 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11798,16 +10996,17 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11834,16 +11033,17 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11870,16 +11070,17 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -11906,16 +11107,17 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -11942,16 +11144,17 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11978,16 +11181,17 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12014,16 +11218,17 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12048,18 +11253,21 @@
         <v>-12515263.9949415</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="n">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12086,16 +11294,17 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12120,18 +11329,21 @@
         <v>-12526977.5818415</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="n">
-        <v>0</v>
+        <v>11.56</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12156,18 +11368,21 @@
         <v>-12526977.5818415</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="n">
-        <v>0</v>
+        <v>11.55</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12192,22 +11407,21 @@
         <v>-12535413.3749415</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I328" t="n">
-        <v>0</v>
-      </c>
-      <c r="J328" t="n">
         <v>11.55</v>
       </c>
-      <c r="K328" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="L328" t="inlineStr"/>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12232,26 +11446,21 @@
         <v>-12535413.3749415</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I329" t="n">
-        <v>0</v>
-      </c>
-      <c r="J329" t="n">
         <v>11.54</v>
       </c>
-      <c r="K329" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="L329" t="inlineStr">
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12276,26 +11485,21 @@
         <v>-12655488.5554415</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I330" t="n">
-        <v>0</v>
-      </c>
-      <c r="J330" t="n">
         <v>11.54</v>
       </c>
-      <c r="K330" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="L330" t="inlineStr">
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12320,26 +11524,21 @@
         <v>-12653152.9177415</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I331" t="n">
-        <v>0</v>
-      </c>
-      <c r="J331" t="n">
         <v>11.53</v>
       </c>
-      <c r="K331" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="L331" t="inlineStr">
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12364,26 +11563,21 @@
         <v>-12653109.9177415</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I332" t="n">
-        <v>0</v>
-      </c>
-      <c r="J332" t="n">
         <v>11.54</v>
       </c>
-      <c r="K332" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="L332" t="inlineStr">
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12408,28 +11602,23 @@
         <v>-12885754.7323415</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I333" t="n">
-        <v>0</v>
-      </c>
-      <c r="J333" t="n">
         <v>11.7</v>
       </c>
-      <c r="K333" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="L333" t="inlineStr">
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest TRV.xlsx
+++ b/BackTest/2020-01-20 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-4925595.819999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-4925545.819999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-4922545.819999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-4922545.819999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-4922545.819999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-4927944.113399999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-4874389.197899999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-4880876.282399999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-4920331.751299999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-5109251.824499999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-5108511.824499999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-5118511.824499999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-5343809.22938055</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-5313809.22938055</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-5622653.79878055</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-5525603.79878055</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-5722286.98178055</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-5722286.98178055</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-5722286.98178055</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-6065383.111980551</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-6187650.834580551</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-6198865.485480551</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-6198865.485480551</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-6198865.485480551</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-6198865.485480551</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-6214398.098980551</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-6214398.098980551</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-6891048.35298055</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-6890507.35298055</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-6890607.35298055</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-6890342.92108055</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-6980988.52598055</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-6980947.52598055</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-6996250.08678055</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-6996098.08678055</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-6995873.08678055</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-6998836.18028055</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-7001535.13548055</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-7004071.13548055</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-7267204.07188055</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-7283489.64458055</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-7251624.562454321</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-7269121.140954321</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-7269021.140954321</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-7269021.140954321</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-7300152.531154322</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-7300072.531154322</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-7300072.531154322</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -9757,500 +9757,446 @@
         <v>-11284311.29875901</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
-      </c>
-      <c r="I284" t="n">
-        <v>12.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>12</v>
+      </c>
+      <c r="C285" t="n">
+        <v>12</v>
+      </c>
+      <c r="D285" t="n">
+        <v>12</v>
+      </c>
+      <c r="E285" t="n">
+        <v>12</v>
+      </c>
+      <c r="F285" t="n">
+        <v>83.33333333333333</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-11284311.29875901</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="C286" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="D286" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="E286" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="F286" t="n">
+        <v>8039.3329</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-11292350.63165901</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>12</v>
+      </c>
+      <c r="C287" t="n">
+        <v>12</v>
+      </c>
+      <c r="D287" t="n">
+        <v>12</v>
+      </c>
+      <c r="E287" t="n">
+        <v>12</v>
+      </c>
+      <c r="F287" t="n">
+        <v>42</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-11292308.63165901</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>12</v>
+      </c>
+      <c r="C288" t="n">
+        <v>12</v>
+      </c>
+      <c r="D288" t="n">
+        <v>12</v>
+      </c>
+      <c r="E288" t="n">
+        <v>12</v>
+      </c>
+      <c r="F288" t="n">
+        <v>38331.04226666666</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-11292308.63165901</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>12</v>
+      </c>
+      <c r="C289" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="D289" t="n">
+        <v>12</v>
+      </c>
+      <c r="E289" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="F289" t="n">
+        <v>125239.7903333333</v>
+      </c>
+      <c r="G289" t="n">
+        <v>-11417548.42199234</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="C290" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D290" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="E290" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="F290" t="n">
+        <v>29776.2884</v>
+      </c>
+      <c r="G290" t="n">
+        <v>-11387772.13359234</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="C291" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="D291" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="E291" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="F291" t="n">
+        <v>326396.1894</v>
+      </c>
+      <c r="G291" t="n">
+        <v>-11714168.32299234</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="C292" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="D292" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="E292" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="F292" t="n">
+        <v>69338.5049</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-11714168.32299234</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C293" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D293" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E293" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F293" t="n">
+        <v>68308.25750000001</v>
+      </c>
+      <c r="G293" t="n">
+        <v>-11782476.58049234</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="C294" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D294" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="E294" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F294" t="n">
+        <v>454.1433</v>
+      </c>
+      <c r="G294" t="n">
+        <v>-11782476.58049234</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="C295" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D295" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="E295" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="F295" t="n">
+        <v>254515.7319</v>
+      </c>
+      <c r="G295" t="n">
+        <v>-11782476.58049234</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="C296" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="D296" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="E296" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="F296" t="n">
+        <v>152385.1268</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-11934861.70729234</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="C297" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="D297" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="E297" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="F297" t="n">
+        <v>345623.288</v>
+      </c>
+      <c r="G297" t="n">
+        <v>-12280484.99529234</v>
+      </c>
+      <c r="H297" t="n">
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>12</v>
-      </c>
-      <c r="C285" t="n">
-        <v>12</v>
-      </c>
-      <c r="D285" t="n">
-        <v>12</v>
-      </c>
-      <c r="E285" t="n">
-        <v>12</v>
-      </c>
-      <c r="F285" t="n">
-        <v>83.33333333333333</v>
-      </c>
-      <c r="G285" t="n">
-        <v>-11284311.29875901</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="C286" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="D286" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="E286" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="F286" t="n">
-        <v>8039.3329</v>
-      </c>
-      <c r="G286" t="n">
-        <v>-11292350.63165901</v>
-      </c>
-      <c r="H286" t="n">
-        <v>2</v>
-      </c>
-      <c r="I286" t="n">
-        <v>12</v>
-      </c>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>12</v>
-      </c>
-      <c r="C287" t="n">
-        <v>12</v>
-      </c>
-      <c r="D287" t="n">
-        <v>12</v>
-      </c>
-      <c r="E287" t="n">
-        <v>12</v>
-      </c>
-      <c r="F287" t="n">
-        <v>42</v>
-      </c>
-      <c r="G287" t="n">
-        <v>-11292308.63165901</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>12</v>
-      </c>
-      <c r="C288" t="n">
-        <v>12</v>
-      </c>
-      <c r="D288" t="n">
-        <v>12</v>
-      </c>
-      <c r="E288" t="n">
-        <v>12</v>
-      </c>
-      <c r="F288" t="n">
-        <v>38331.04226666666</v>
-      </c>
-      <c r="G288" t="n">
-        <v>-11292308.63165901</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>12</v>
-      </c>
-      <c r="C289" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="D289" t="n">
-        <v>12</v>
-      </c>
-      <c r="E289" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="F289" t="n">
-        <v>125239.7903333333</v>
-      </c>
-      <c r="G289" t="n">
-        <v>-11417548.42199234</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="C290" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="D290" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="E290" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="F290" t="n">
-        <v>29776.2884</v>
-      </c>
-      <c r="G290" t="n">
-        <v>-11387772.13359234</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="C291" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="D291" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="E291" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="F291" t="n">
-        <v>326396.1894</v>
-      </c>
-      <c r="G291" t="n">
-        <v>-11714168.32299234</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="C292" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="D292" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="E292" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="F292" t="n">
-        <v>69338.5049</v>
-      </c>
-      <c r="G292" t="n">
-        <v>-11714168.32299234</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C293" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="D293" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E293" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="F293" t="n">
-        <v>68308.25750000001</v>
-      </c>
-      <c r="G293" t="n">
-        <v>-11782476.58049234</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="C294" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="D294" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="E294" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="F294" t="n">
-        <v>454.1433</v>
-      </c>
-      <c r="G294" t="n">
-        <v>-11782476.58049234</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="C295" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="D295" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="E295" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="F295" t="n">
-        <v>254515.7319</v>
-      </c>
-      <c r="G295" t="n">
-        <v>-11782476.58049234</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="C296" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="D296" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="E296" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="F296" t="n">
-        <v>152385.1268</v>
-      </c>
-      <c r="G296" t="n">
-        <v>-11934861.70729234</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="C297" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="D297" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="E297" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="F297" t="n">
-        <v>345623.288</v>
-      </c>
-      <c r="G297" t="n">
-        <v>-12280484.99529234</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10279,11 +10225,9 @@
         <v>-12280441.99529234</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
-      </c>
-      <c r="I298" t="n">
-        <v>11.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
@@ -10392,9 +10336,11 @@
         <v>-12297540.77309234</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>11.8</v>
+      </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
@@ -10614,9 +10560,11 @@
         <v>-12386807.29169234</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>11.6</v>
+      </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
@@ -10651,9 +10599,11 @@
         <v>-12344770.28449234</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>11.6</v>
+      </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
@@ -10688,7 +10638,7 @@
         <v>-12345021.88419234</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
         <v>11.89</v>
@@ -10727,7 +10677,7 @@
         <v>-12345021.88419234</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>11.55</v>
@@ -10766,7 +10716,7 @@
         <v>-12345021.88419234</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I311" t="n">
         <v>11.55</v>
@@ -10805,7 +10755,7 @@
         <v>-12345021.88419234</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I312" t="n">
         <v>11.55</v>
@@ -10844,7 +10794,7 @@
         <v>-12344978.88419234</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I313" t="n">
         <v>11.55</v>
@@ -10883,9 +10833,11 @@
         <v>-12418808.89179234</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>11.89</v>
+      </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
@@ -10920,9 +10872,11 @@
         <v>-12416219.90874149</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>11.69</v>
+      </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
@@ -10957,9 +10911,11 @@
         <v>-12416219.90874149</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>11.8</v>
+      </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
@@ -11253,7 +11209,7 @@
         <v>-12515263.9949415</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I324" t="n">
         <v>11.7</v>
@@ -11292,9 +11248,11 @@
         <v>-12515263.9949415</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>11.56</v>
+      </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
@@ -11329,7 +11287,7 @@
         <v>-12526977.5818415</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I326" t="n">
         <v>11.56</v>
@@ -11368,7 +11326,7 @@
         <v>-12526977.5818415</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I327" t="n">
         <v>11.55</v>
@@ -11407,7 +11365,7 @@
         <v>-12535413.3749415</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I328" t="n">
         <v>11.55</v>
@@ -11446,7 +11404,7 @@
         <v>-12535413.3749415</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I329" t="n">
         <v>11.54</v>
@@ -11485,7 +11443,7 @@
         <v>-12655488.5554415</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I330" t="n">
         <v>11.54</v>
@@ -11524,7 +11482,7 @@
         <v>-12653152.9177415</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I331" t="n">
         <v>11.53</v>
@@ -11563,7 +11521,7 @@
         <v>-12653109.9177415</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I332" t="n">
         <v>11.54</v>
@@ -11602,7 +11560,7 @@
         <v>-12885754.7323415</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I333" t="n">
         <v>11.7</v>
@@ -11619,6 +11577,6 @@
       <c r="M333" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest TRV.xlsx
+++ b/BackTest/2020-01-20 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-4925595.819999999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-4925545.819999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-4922545.819999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-4922545.819999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-4922545.819999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-4927944.113399999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-4874389.197899999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-4880876.282399999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-4920331.751299999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-5109251.824499999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-5108511.824499999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-5118511.824499999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-5313809.22938055</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-5622653.79878055</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-5645532.323080551</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-6065383.111980551</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-6187650.834580551</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-6198865.485480551</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-6198865.485480551</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-6198865.485480551</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-6198865.485480551</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-6214398.098980551</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-6214398.098980551</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-6891048.35298055</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-6890507.35298055</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-6890607.35298055</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-6890342.92108055</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-6980988.52598055</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-6980947.52598055</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-6996250.08678055</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-6996189.08678055</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-6995873.08678055</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-6998836.18028055</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-7001535.13548055</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-7047765.94438055</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-7150646.72828055</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-7150646.72828055</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-7149596.72828055</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-7267295.07188055</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-7267254.07188055</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-7267204.07188055</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-7283489.64458055</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-7251624.562454321</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-7269121.140954321</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-7269021.140954321</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-7269021.140954321</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-7269021.140954321</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-7300152.531154322</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-7300072.531154322</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-7300072.531154322</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-9718385.570154322</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -10120,11 +10120,17 @@
         <v>-11782476.58049234</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>11.67</v>
+      </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10153,11 +10159,17 @@
         <v>-11934861.70729234</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>11.67</v>
+      </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10194,7 +10206,7 @@
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L297" t="n">
@@ -10225,9 +10237,11 @@
         <v>-12280441.99529234</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>11.52</v>
+      </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
@@ -10262,9 +10276,11 @@
         <v>-12299770.48919234</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>11.7</v>
+      </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
@@ -10299,9 +10315,11 @@
         <v>-12297583.77309234</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>11.69</v>
+      </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
@@ -10412,9 +10430,11 @@
         <v>-12335138.75539234</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>11.6</v>
+      </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
@@ -10638,11 +10658,9 @@
         <v>-12345021.88419234</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>11.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
@@ -10833,11 +10851,9 @@
         <v>-12418808.89179234</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>11.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
@@ -10872,11 +10888,9 @@
         <v>-12416219.90874149</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>11.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
@@ -10911,11 +10925,9 @@
         <v>-12416219.90874149</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>11.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
@@ -11209,11 +11221,9 @@
         <v>-12515263.9949415</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>11.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
@@ -11248,11 +11258,9 @@
         <v>-12515263.9949415</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>11.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
@@ -11287,11 +11295,9 @@
         <v>-12526977.5818415</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>11.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
@@ -11326,11 +11332,9 @@
         <v>-12526977.5818415</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>11.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
@@ -11404,11 +11408,9 @@
         <v>-12535413.3749415</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>11.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
@@ -11443,11 +11445,9 @@
         <v>-12655488.5554415</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>11.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
@@ -11482,11 +11482,9 @@
         <v>-12653152.9177415</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>11.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
@@ -11560,11 +11558,9 @@
         <v>-12885754.7323415</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>11.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
@@ -11577,6 +11573,6 @@
       <c r="M333" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest TRV.xlsx
+++ b/BackTest/2020-01-20 BackTest TRV.xlsx
@@ -3289,7 +3289,7 @@
         <v>-5313809.22938055</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-5622653.79878055</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-5722286.98178055</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-5722286.98178055</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-5645532.323080551</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-6065383.111980551</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-6187650.834580551</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-6198865.485480551</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-6996189.08678055</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-6996098.08678055</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-7004071.13548055</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-7047765.94438055</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-7150646.72828055</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-7150646.72828055</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-7149596.72828055</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-7267295.07188055</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-7267254.07188055</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-7269021.140954321</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-9718385.570154322</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -10120,1340 +10120,1186 @@
         <v>-11782476.58049234</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>11.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="C296" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="D296" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="E296" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="F296" t="n">
+        <v>152385.1268</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-11934861.70729234</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="C297" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="D297" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="E297" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="F297" t="n">
+        <v>345623.288</v>
+      </c>
+      <c r="G297" t="n">
+        <v>-12280484.99529234</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C298" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D298" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E298" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F298" t="n">
+        <v>43</v>
+      </c>
+      <c r="G298" t="n">
+        <v>-12280441.99529234</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C299" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D299" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E299" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F299" t="n">
+        <v>19328.4939</v>
+      </c>
+      <c r="G299" t="n">
+        <v>-12299770.48919234</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C300" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D300" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E300" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F300" t="n">
+        <v>2186.7161</v>
+      </c>
+      <c r="G300" t="n">
+        <v>-12297583.77309234</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="C301" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="D301" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="E301" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="F301" t="n">
+        <v>43</v>
+      </c>
+      <c r="G301" t="n">
+        <v>-12297540.77309234</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C302" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D302" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E302" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F302" t="n">
+        <v>37741.6976</v>
+      </c>
+      <c r="G302" t="n">
+        <v>-12335282.47069234</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C303" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="D303" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="E303" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F303" t="n">
+        <v>143.7153</v>
+      </c>
+      <c r="G303" t="n">
+        <v>-12335138.75539234</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C304" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D304" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E304" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F304" t="n">
+        <v>61559.5886</v>
+      </c>
+      <c r="G304" t="n">
+        <v>-12396698.34399234</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C305" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="D305" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="E305" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F305" t="n">
+        <v>19974.0329</v>
+      </c>
+      <c r="G305" t="n">
+        <v>-12376724.31109234</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C306" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D306" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E306" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F306" t="n">
+        <v>10082.9806</v>
+      </c>
+      <c r="G306" t="n">
+        <v>-12386807.29169234</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C307" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D307" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E307" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F307" t="n">
+        <v>18738.2036</v>
+      </c>
+      <c r="G307" t="n">
+        <v>-12386807.29169234</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C308" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="D308" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="E308" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F308" t="n">
+        <v>42037.0072</v>
+      </c>
+      <c r="G308" t="n">
+        <v>-12344770.28449234</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="C309" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D309" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E309" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="F309" t="n">
+        <v>251.5997</v>
+      </c>
+      <c r="G309" t="n">
+        <v>-12345021.88419234</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="C310" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D310" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E310" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="F310" t="n">
+        <v>111201.7973</v>
+      </c>
+      <c r="G310" t="n">
+        <v>-12345021.88419234</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="C311" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D311" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="E311" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="F311" t="n">
+        <v>17885.0806</v>
+      </c>
+      <c r="G311" t="n">
+        <v>-12345021.88419234</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="C312" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D312" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E312" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="F312" t="n">
+        <v>304282.746</v>
+      </c>
+      <c r="G312" t="n">
+        <v>-12345021.88419234</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="C313" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="D313" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="E313" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="F313" t="n">
+        <v>43</v>
+      </c>
+      <c r="G313" t="n">
+        <v>-12344978.88419234</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C314" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D314" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E314" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F314" t="n">
+        <v>73830.0076</v>
+      </c>
+      <c r="G314" t="n">
+        <v>-12418808.89179234</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C315" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D315" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E315" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F315" t="n">
+        <v>2588.983050847457</v>
+      </c>
+      <c r="G315" t="n">
+        <v>-12416219.90874149</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C316" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D316" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E316" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F316" t="n">
+        <v>672.4485</v>
+      </c>
+      <c r="G316" t="n">
+        <v>-12416219.90874149</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="C317" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D317" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E317" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="F317" t="n">
+        <v>26240.1314</v>
+      </c>
+      <c r="G317" t="n">
+        <v>-12442460.04014149</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C318" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D318" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E318" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F318" t="n">
+        <v>52.0123</v>
+      </c>
+      <c r="G318" t="n">
+        <v>-12442408.0278415</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C319" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D319" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E319" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F319" t="n">
+        <v>39609.5168</v>
+      </c>
+      <c r="G319" t="n">
+        <v>-12442408.0278415</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="C320" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="D320" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E320" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="F320" t="n">
+        <v>29106.526</v>
+      </c>
+      <c r="G320" t="n">
+        <v>-12471514.5538415</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C321" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D321" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E321" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F321" t="n">
+        <v>281.0059</v>
+      </c>
+      <c r="G321" t="n">
+        <v>-12471233.5479415</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C322" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D322" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E322" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F322" t="n">
+        <v>672.4485</v>
+      </c>
+      <c r="G322" t="n">
+        <v>-12471905.9964415</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="C323" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D323" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E323" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="F323" t="n">
+        <v>7386.4345</v>
+      </c>
+      <c r="G323" t="n">
+        <v>-12464519.5619415</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="C324" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="D324" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="E324" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="F324" t="n">
+        <v>50744.433</v>
+      </c>
+      <c r="G324" t="n">
+        <v>-12515263.9949415</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="C325" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="D325" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="E325" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="F325" t="n">
+        <v>35436.4972</v>
+      </c>
+      <c r="G325" t="n">
+        <v>-12515263.9949415</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="C326" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D326" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="E326" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="F326" t="n">
+        <v>11713.5869</v>
+      </c>
+      <c r="G326" t="n">
+        <v>-12526977.5818415</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="C327" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D327" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E327" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="F327" t="n">
+        <v>47427.3295</v>
+      </c>
+      <c r="G327" t="n">
+        <v>-12526977.5818415</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="C328" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="D328" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="E328" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="F328" t="n">
+        <v>8435.793100000001</v>
+      </c>
+      <c r="G328" t="n">
+        <v>-12535413.3749415</v>
+      </c>
+      <c r="H328" t="n">
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="J328" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="C329" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="D329" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="E329" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="F329" t="n">
+        <v>20959.2855</v>
+      </c>
+      <c r="G329" t="n">
+        <v>-12535413.3749415</v>
+      </c>
+      <c r="H329" t="n">
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="J329" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C330" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="D330" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E330" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="F330" t="n">
+        <v>120075.1805</v>
+      </c>
+      <c r="G330" t="n">
+        <v>-12655488.5554415</v>
+      </c>
+      <c r="H330" t="n">
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="J330" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="K330" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="C296" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="D296" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="E296" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="F296" t="n">
-        <v>152385.1268</v>
-      </c>
-      <c r="G296" t="n">
-        <v>-11934861.70729234</v>
-      </c>
-      <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="C297" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="D297" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="E297" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="F297" t="n">
-        <v>345623.288</v>
-      </c>
-      <c r="G297" t="n">
-        <v>-12280484.99529234</v>
-      </c>
-      <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C298" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D298" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E298" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F298" t="n">
-        <v>43</v>
-      </c>
-      <c r="G298" t="n">
-        <v>-12280441.99529234</v>
-      </c>
-      <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C299" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="D299" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="E299" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F299" t="n">
-        <v>19328.4939</v>
-      </c>
-      <c r="G299" t="n">
-        <v>-12299770.48919234</v>
-      </c>
-      <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C300" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D300" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E300" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F300" t="n">
-        <v>2186.7161</v>
-      </c>
-      <c r="G300" t="n">
-        <v>-12297583.77309234</v>
-      </c>
-      <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="C301" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="D301" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="E301" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="F301" t="n">
-        <v>43</v>
-      </c>
-      <c r="G301" t="n">
-        <v>-12297540.77309234</v>
-      </c>
-      <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="C302" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D302" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E302" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F302" t="n">
-        <v>37741.6976</v>
-      </c>
-      <c r="G302" t="n">
-        <v>-12335282.47069234</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C303" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="D303" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="E303" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F303" t="n">
-        <v>143.7153</v>
-      </c>
-      <c r="G303" t="n">
-        <v>-12335138.75539234</v>
-      </c>
-      <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C304" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D304" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E304" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F304" t="n">
-        <v>61559.5886</v>
-      </c>
-      <c r="G304" t="n">
-        <v>-12396698.34399234</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C305" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="D305" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="E305" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F305" t="n">
-        <v>19974.0329</v>
-      </c>
-      <c r="G305" t="n">
-        <v>-12376724.31109234</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C306" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D306" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E306" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F306" t="n">
-        <v>10082.9806</v>
-      </c>
-      <c r="G306" t="n">
-        <v>-12386807.29169234</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C307" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D307" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E307" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F307" t="n">
-        <v>18738.2036</v>
-      </c>
-      <c r="G307" t="n">
-        <v>-12386807.29169234</v>
-      </c>
-      <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C308" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="D308" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="E308" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F308" t="n">
-        <v>42037.0072</v>
-      </c>
-      <c r="G308" t="n">
-        <v>-12344770.28449234</v>
-      </c>
-      <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="C309" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="D309" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="E309" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="F309" t="n">
-        <v>251.5997</v>
-      </c>
-      <c r="G309" t="n">
-        <v>-12345021.88419234</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="C310" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="D310" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="E310" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="F310" t="n">
-        <v>111201.7973</v>
-      </c>
-      <c r="G310" t="n">
-        <v>-12345021.88419234</v>
-      </c>
-      <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="C311" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="D311" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="E311" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="F311" t="n">
-        <v>17885.0806</v>
-      </c>
-      <c r="G311" t="n">
-        <v>-12345021.88419234</v>
-      </c>
-      <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="C312" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="D312" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="E312" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="F312" t="n">
-        <v>304282.746</v>
-      </c>
-      <c r="G312" t="n">
-        <v>-12345021.88419234</v>
-      </c>
-      <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="C313" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="D313" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="E313" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="F313" t="n">
-        <v>43</v>
-      </c>
-      <c r="G313" t="n">
-        <v>-12344978.88419234</v>
-      </c>
-      <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C314" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="D314" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="E314" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F314" t="n">
-        <v>73830.0076</v>
-      </c>
-      <c r="G314" t="n">
-        <v>-12418808.89179234</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C315" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D315" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E315" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F315" t="n">
-        <v>2588.983050847457</v>
-      </c>
-      <c r="G315" t="n">
-        <v>-12416219.90874149</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C316" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D316" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E316" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F316" t="n">
-        <v>672.4485</v>
-      </c>
-      <c r="G316" t="n">
-        <v>-12416219.90874149</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="C317" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="D317" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="E317" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="F317" t="n">
-        <v>26240.1314</v>
-      </c>
-      <c r="G317" t="n">
-        <v>-12442460.04014149</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C318" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D318" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E318" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F318" t="n">
-        <v>52.0123</v>
-      </c>
-      <c r="G318" t="n">
-        <v>-12442408.0278415</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C319" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D319" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E319" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F319" t="n">
-        <v>39609.5168</v>
-      </c>
-      <c r="G319" t="n">
-        <v>-12442408.0278415</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="C320" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="D320" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="E320" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="F320" t="n">
-        <v>29106.526</v>
-      </c>
-      <c r="G320" t="n">
-        <v>-12471514.5538415</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C321" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D321" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E321" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F321" t="n">
-        <v>281.0059</v>
-      </c>
-      <c r="G321" t="n">
-        <v>-12471233.5479415</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C322" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="D322" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E322" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F322" t="n">
-        <v>672.4485</v>
-      </c>
-      <c r="G322" t="n">
-        <v>-12471905.9964415</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="C323" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="D323" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E323" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="F323" t="n">
-        <v>7386.4345</v>
-      </c>
-      <c r="G323" t="n">
-        <v>-12464519.5619415</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="C324" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="D324" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="E324" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="F324" t="n">
-        <v>50744.433</v>
-      </c>
-      <c r="G324" t="n">
-        <v>-12515263.9949415</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="C325" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="D325" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="E325" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="F325" t="n">
-        <v>35436.4972</v>
-      </c>
-      <c r="G325" t="n">
-        <v>-12515263.9949415</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="C326" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="D326" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="E326" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="F326" t="n">
-        <v>11713.5869</v>
-      </c>
-      <c r="G326" t="n">
-        <v>-12526977.5818415</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="C327" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="D327" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="E327" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="F327" t="n">
-        <v>47427.3295</v>
-      </c>
-      <c r="G327" t="n">
-        <v>-12526977.5818415</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="C328" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="D328" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="E328" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="F328" t="n">
-        <v>8435.793100000001</v>
-      </c>
-      <c r="G328" t="n">
-        <v>-12535413.3749415</v>
-      </c>
-      <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="C329" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="D329" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="E329" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="F329" t="n">
-        <v>20959.2855</v>
-      </c>
-      <c r="G329" t="n">
-        <v>-12535413.3749415</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C330" t="n">
-        <v>11.53</v>
-      </c>
-      <c r="D330" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E330" t="n">
-        <v>11.53</v>
-      </c>
-      <c r="F330" t="n">
-        <v>120075.1805</v>
-      </c>
-      <c r="G330" t="n">
-        <v>-12655488.5554415</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11482,10 +11328,14 @@
         <v>-12653152.9177415</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J331" t="n">
+        <v>11.55</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11524,7 +11374,9 @@
       <c r="I332" t="n">
         <v>11.54</v>
       </c>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>11.55</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11558,10 +11410,14 @@
         <v>-12885754.7323415</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J333" t="n">
+        <v>11.55</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-20 BackTest TRV.xlsx
+++ b/BackTest/2020-01-20 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M333"/>
+  <dimension ref="A1:L333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>3042</v>
       </c>
       <c r="G2" t="n">
-        <v>-4925595.819999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>50</v>
       </c>
       <c r="G3" t="n">
-        <v>-4925545.819999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>3000</v>
       </c>
       <c r="G4" t="n">
-        <v>-4922545.819999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>25000</v>
       </c>
       <c r="G5" t="n">
-        <v>-4922545.819999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>160913.1442</v>
       </c>
       <c r="G6" t="n">
-        <v>-4922545.819999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>5398.2934</v>
       </c>
       <c r="G7" t="n">
-        <v>-4927944.113399999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>53554.9155</v>
       </c>
       <c r="G8" t="n">
-        <v>-4874389.197899999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>6487.0845</v>
       </c>
       <c r="G9" t="n">
-        <v>-4880876.282399999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>39455.4689</v>
       </c>
       <c r="G10" t="n">
-        <v>-4920331.751299999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>188920.0732</v>
       </c>
       <c r="G11" t="n">
-        <v>-5109251.824499999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>740</v>
       </c>
       <c r="G12" t="n">
-        <v>-5108511.824499999</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>107.8558</v>
       </c>
       <c r="G13" t="n">
-        <v>-5108511.824499999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>10000</v>
       </c>
       <c r="G14" t="n">
-        <v>-5118511.824499999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>188180.3527</v>
       </c>
       <c r="G15" t="n">
-        <v>-5306692.177199999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>134609.1622</v>
       </c>
       <c r="G16" t="n">
-        <v>-5441301.339399999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>769</v>
       </c>
       <c r="G17" t="n">
-        <v>-5440532.339399999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>45000</v>
       </c>
       <c r="G18" t="n">
-        <v>-5485532.339399999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>658.3661</v>
       </c>
       <c r="G19" t="n">
-        <v>-5484873.973299999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>905.4693</v>
       </c>
       <c r="G20" t="n">
-        <v>-5484873.973299999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>41899.666</v>
       </c>
       <c r="G21" t="n">
-        <v>-5484873.973299999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>16734.6709</v>
       </c>
       <c r="G22" t="n">
-        <v>-5484873.973299999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>13152.9534</v>
       </c>
       <c r="G23" t="n">
-        <v>-5484873.973299999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>45074.1301</v>
       </c>
       <c r="G24" t="n">
-        <v>-5484873.973299999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>42</v>
       </c>
       <c r="G25" t="n">
-        <v>-5484831.973299999</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>122941.241</v>
       </c>
       <c r="G26" t="n">
-        <v>-5607773.214299999</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>2870</v>
       </c>
       <c r="G27" t="n">
-        <v>-5604903.214299999</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>39303.3906</v>
       </c>
       <c r="G28" t="n">
-        <v>-5604903.214299999</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>2331.6465</v>
       </c>
       <c r="G29" t="n">
-        <v>-5602571.567799999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>14901.1595</v>
       </c>
       <c r="G30" t="n">
-        <v>-5587670.408299999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>12885.1343</v>
       </c>
       <c r="G31" t="n">
-        <v>-5574785.273999999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>824</v>
       </c>
       <c r="G32" t="n">
-        <v>-5573961.273999999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>825.7638315441784</v>
       </c>
       <c r="G33" t="n">
-        <v>-5574787.037831543</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>96703.3809</v>
       </c>
       <c r="G34" t="n">
-        <v>-5478083.656931543</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>1785</v>
       </c>
       <c r="G35" t="n">
-        <v>-5476298.656931543</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>28000</v>
       </c>
       <c r="G36" t="n">
-        <v>-5504298.656931543</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>42</v>
       </c>
       <c r="G37" t="n">
-        <v>-5504256.656931543</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>2622.6961</v>
       </c>
       <c r="G38" t="n">
-        <v>-5504256.656931543</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>66000</v>
       </c>
       <c r="G39" t="n">
-        <v>-5570256.656931543</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>42</v>
       </c>
       <c r="G40" t="n">
-        <v>-5570214.656931543</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>67138.8539</v>
       </c>
       <c r="G41" t="n">
-        <v>-5637353.510831543</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>8307.782999999999</v>
       </c>
       <c r="G42" t="n">
-        <v>-5629045.727831543</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>11479.9519</v>
       </c>
       <c r="G43" t="n">
-        <v>-5640525.679731543</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>3268.5495</v>
       </c>
       <c r="G44" t="n">
-        <v>-5643794.229231543</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>51755.8747</v>
       </c>
       <c r="G45" t="n">
-        <v>-5695550.103931542</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>35649.5498</v>
       </c>
       <c r="G46" t="n">
-        <v>-5731199.653731543</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>1224.3166</v>
       </c>
       <c r="G47" t="n">
-        <v>-5731199.653731543</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>632.1660000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>-5731199.653731543</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>24802.37708253707</v>
       </c>
       <c r="G49" t="n">
-        <v>-5706397.276649006</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>31816.6079</v>
       </c>
       <c r="G50" t="n">
-        <v>-5738213.884549006</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>1982.7452</v>
       </c>
       <c r="G51" t="n">
-        <v>-5740196.629749006</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>84</v>
       </c>
       <c r="G52" t="n">
-        <v>-5740112.629749006</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>4225.1843</v>
       </c>
       <c r="G53" t="n">
-        <v>-5744337.814049006</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>3012.6464</v>
       </c>
       <c r="G54" t="n">
-        <v>-5747350.460449005</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>55132.2319</v>
       </c>
       <c r="G55" t="n">
-        <v>-5802482.692349005</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>55988.5138</v>
       </c>
       <c r="G56" t="n">
-        <v>-5858471.206149005</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>67669.71090000001</v>
       </c>
       <c r="G57" t="n">
-        <v>-5926140.917049006</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>101376.7297</v>
       </c>
       <c r="G58" t="n">
-        <v>-5926140.917049006</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>54236.1975</v>
       </c>
       <c r="G59" t="n">
-        <v>-5871904.719549006</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>58419.0163</v>
       </c>
       <c r="G60" t="n">
-        <v>-5871904.719549006</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>55838.3201</v>
       </c>
       <c r="G61" t="n">
-        <v>-5871904.719549006</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>42</v>
       </c>
       <c r="G62" t="n">
-        <v>-5871862.719549006</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>3022</v>
       </c>
       <c r="G63" t="n">
-        <v>-5871862.719549006</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>0.7613</v>
       </c>
       <c r="G64" t="n">
-        <v>-5871862.719549006</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>35324</v>
       </c>
       <c r="G65" t="n">
-        <v>-5907186.719549006</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>0.2356</v>
       </c>
       <c r="G66" t="n">
-        <v>-5907186.719549006</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>2505.6212</v>
       </c>
       <c r="G67" t="n">
-        <v>-5909692.340749006</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>121146.8103</v>
       </c>
       <c r="G68" t="n">
-        <v>-6030839.151049006</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>161882.565</v>
       </c>
       <c r="G69" t="n">
-        <v>-6030839.151049006</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>71410.92419999999</v>
       </c>
       <c r="G70" t="n">
-        <v>-5959428.226849006</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>17429.0686</v>
       </c>
       <c r="G71" t="n">
-        <v>-5976857.295449005</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>144694.2911</v>
       </c>
       <c r="G72" t="n">
-        <v>-5832163.004349005</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>110268.413</v>
       </c>
       <c r="G73" t="n">
-        <v>-5832163.004349005</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>64957.5133</v>
       </c>
       <c r="G74" t="n">
-        <v>-5832163.004349005</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>280.9399</v>
       </c>
       <c r="G75" t="n">
-        <v>-5831882.064449006</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>28000</v>
       </c>
       <c r="G76" t="n">
-        <v>-5831882.064449006</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>15000</v>
       </c>
       <c r="G77" t="n">
-        <v>-5816882.064449006</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>2200</v>
       </c>
       <c r="G78" t="n">
-        <v>-5814682.064449006</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>2904.7984</v>
       </c>
       <c r="G79" t="n">
-        <v>-5811777.266049006</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>77047.54526845583</v>
       </c>
       <c r="G80" t="n">
-        <v>-5734729.720780551</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>42</v>
       </c>
       <c r="G81" t="n">
-        <v>-5734729.720780551</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>41</v>
       </c>
       <c r="G82" t="n">
-        <v>-5734688.720780551</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>124649.8416</v>
       </c>
       <c r="G83" t="n">
-        <v>-5610038.879180551</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>139932.4685</v>
       </c>
       <c r="G84" t="n">
-        <v>-5470106.41068055</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>35532.6135</v>
       </c>
       <c r="G85" t="n">
-        <v>-5470106.41068055</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>126297.1813</v>
       </c>
       <c r="G86" t="n">
-        <v>-5343809.22938055</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>198129.833</v>
       </c>
       <c r="G87" t="n">
-        <v>-5343809.22938055</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>30000</v>
       </c>
       <c r="G88" t="n">
-        <v>-5313809.22938055</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>308844.5694</v>
       </c>
       <c r="G89" t="n">
-        <v>-5622653.79878055</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>97050</v>
       </c>
       <c r="G90" t="n">
-        <v>-5525603.79878055</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>26073.0127</v>
       </c>
       <c r="G91" t="n">
-        <v>-5499530.78608055</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>222756.1957</v>
       </c>
       <c r="G92" t="n">
-        <v>-5722286.98178055</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>9000</v>
       </c>
       <c r="G93" t="n">
-        <v>-5722286.98178055</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>23989.7372</v>
       </c>
       <c r="G94" t="n">
-        <v>-5722286.98178055</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>76754.6587</v>
       </c>
       <c r="G95" t="n">
-        <v>-5645532.323080551</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>419850.7889</v>
       </c>
       <c r="G96" t="n">
-        <v>-6065383.111980551</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>122267.7226</v>
       </c>
       <c r="G97" t="n">
-        <v>-6187650.834580551</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>11214.6509</v>
       </c>
       <c r="G98" t="n">
-        <v>-6198865.485480551</v>
-      </c>
-      <c r="H98" t="n">
         <v>2</v>
       </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>22961.7834</v>
       </c>
       <c r="G99" t="n">
-        <v>-6198865.485480551</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>15697.1139</v>
       </c>
       <c r="G100" t="n">
-        <v>-6198865.485480551</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>41114.4591</v>
       </c>
       <c r="G101" t="n">
-        <v>-6198865.485480551</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>15532.6135</v>
       </c>
       <c r="G102" t="n">
-        <v>-6214398.098980551</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>27697.0424</v>
       </c>
       <c r="G103" t="n">
-        <v>-6214398.098980551</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>676650.254</v>
       </c>
       <c r="G104" t="n">
-        <v>-6891048.35298055</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>541</v>
       </c>
       <c r="G105" t="n">
-        <v>-6890507.35298055</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>100</v>
       </c>
       <c r="G106" t="n">
-        <v>-6890607.35298055</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>264.4319</v>
       </c>
       <c r="G107" t="n">
-        <v>-6890342.92108055</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>90645.60490000001</v>
       </c>
       <c r="G108" t="n">
-        <v>-6980988.52598055</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>41</v>
       </c>
       <c r="G109" t="n">
-        <v>-6980947.52598055</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>15302.5608</v>
       </c>
       <c r="G110" t="n">
-        <v>-6996250.08678055</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>52788.3153</v>
       </c>
       <c r="G111" t="n">
-        <v>-6996250.08678055</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>61</v>
       </c>
       <c r="G112" t="n">
-        <v>-6996189.08678055</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>91</v>
       </c>
       <c r="G113" t="n">
-        <v>-6996098.08678055</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>225</v>
       </c>
       <c r="G114" t="n">
-        <v>-6995873.08678055</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>2963.0935</v>
       </c>
       <c r="G115" t="n">
-        <v>-6998836.18028055</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>2698.9552</v>
       </c>
       <c r="G116" t="n">
-        <v>-7001535.13548055</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>2536</v>
       </c>
       <c r="G117" t="n">
-        <v>-7004071.13548055</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>6529.653</v>
       </c>
       <c r="G118" t="n">
-        <v>-7004071.13548055</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>43694.8089</v>
       </c>
       <c r="G119" t="n">
-        <v>-7047765.94438055</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>102880.7839</v>
       </c>
       <c r="G120" t="n">
-        <v>-7150646.72828055</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>53881.9894</v>
       </c>
       <c r="G121" t="n">
-        <v>-7150646.72828055</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>1050</v>
       </c>
       <c r="G122" t="n">
-        <v>-7149596.72828055</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>117698.3436</v>
       </c>
       <c r="G123" t="n">
-        <v>-7267295.07188055</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>41</v>
       </c>
       <c r="G124" t="n">
-        <v>-7267254.07188055</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>50</v>
       </c>
       <c r="G125" t="n">
-        <v>-7267204.07188055</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>16285.5727</v>
       </c>
       <c r="G126" t="n">
-        <v>-7283489.64458055</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>8163.934426229508</v>
       </c>
       <c r="G127" t="n">
-        <v>-7275325.710154321</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>23701.1477</v>
       </c>
       <c r="G128" t="n">
-        <v>-7251624.562454321</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>458</v>
       </c>
       <c r="G129" t="n">
-        <v>-7251624.562454321</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>17496.5785</v>
       </c>
       <c r="G130" t="n">
-        <v>-7269121.140954321</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>100</v>
       </c>
       <c r="G131" t="n">
-        <v>-7269021.140954321</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>3965</v>
       </c>
       <c r="G132" t="n">
-        <v>-7269021.140954321</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>1000</v>
       </c>
       <c r="G133" t="n">
-        <v>-7269021.140954321</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>31131.3902</v>
       </c>
       <c r="G134" t="n">
-        <v>-7300152.531154322</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>80</v>
       </c>
       <c r="G135" t="n">
-        <v>-7300072.531154322</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>12092</v>
       </c>
       <c r="G136" t="n">
-        <v>-7300072.531154322</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>71558.467</v>
       </c>
       <c r="G137" t="n">
-        <v>-7371630.998154322</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>202473.5238</v>
       </c>
       <c r="G138" t="n">
-        <v>-7371630.998154322</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>33617.2327</v>
       </c>
       <c r="G139" t="n">
-        <v>-7405248.230854321</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>9536.874900000001</v>
       </c>
       <c r="G140" t="n">
-        <v>-7405248.230854321</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>142.5216</v>
       </c>
       <c r="G141" t="n">
-        <v>-7405390.752454321</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>11594.1725</v>
       </c>
       <c r="G142" t="n">
-        <v>-7393796.579954321</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>76754.6587</v>
       </c>
       <c r="G143" t="n">
-        <v>-7470551.23865432</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>2060712.2589</v>
       </c>
       <c r="G144" t="n">
-        <v>-9531263.497554321</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>50</v>
       </c>
       <c r="G145" t="n">
-        <v>-9531213.497554321</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>40479.5861</v>
       </c>
       <c r="G146" t="n">
-        <v>-9571693.083654322</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>149896.1685</v>
       </c>
       <c r="G147" t="n">
-        <v>-9721589.252154322</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>50103.8315</v>
       </c>
       <c r="G148" t="n">
-        <v>-9721589.252154322</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>107764.175</v>
       </c>
       <c r="G149" t="n">
-        <v>-9829353.427154323</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>266.4048</v>
       </c>
       <c r="G150" t="n">
-        <v>-9829619.831954323</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>101212.2817</v>
       </c>
       <c r="G151" t="n">
-        <v>-9728407.550254323</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>48434.5822</v>
       </c>
       <c r="G152" t="n">
-        <v>-9728407.550254323</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>77.5254</v>
       </c>
       <c r="G153" t="n">
-        <v>-9728485.075654322</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>1500</v>
       </c>
       <c r="G154" t="n">
-        <v>-9728485.075654322</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>10099.5055</v>
       </c>
       <c r="G155" t="n">
-        <v>-9718385.570154322</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>1534.2582</v>
       </c>
       <c r="G156" t="n">
-        <v>-9718385.570154322</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>3662.4383</v>
       </c>
       <c r="G157" t="n">
-        <v>-9718385.570154322</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>5222.3863</v>
       </c>
       <c r="G158" t="n">
-        <v>-9723607.956454322</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>31917.2832</v>
       </c>
       <c r="G159" t="n">
-        <v>-9691690.673254322</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>179449.3844</v>
       </c>
       <c r="G160" t="n">
-        <v>-9871140.057654323</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>314953.7027</v>
       </c>
       <c r="G161" t="n">
-        <v>-9556186.354954323</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>253960.8849</v>
       </c>
       <c r="G162" t="n">
-        <v>-9810147.239854323</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>37127.2866</v>
       </c>
       <c r="G163" t="n">
-        <v>-9847274.526454322</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>15032.6616</v>
       </c>
       <c r="G164" t="n">
-        <v>-9847274.526454322</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>68444.985</v>
       </c>
       <c r="G165" t="n">
-        <v>-9778829.541454323</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>170.2601</v>
       </c>
       <c r="G166" t="n">
-        <v>-9778659.281354323</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>141997.5767</v>
       </c>
       <c r="G167" t="n">
-        <v>-9920656.858054323</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>476.8967</v>
       </c>
       <c r="G168" t="n">
-        <v>-9920179.961354323</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>100000</v>
       </c>
       <c r="G169" t="n">
-        <v>-10020179.96135432</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>100000</v>
       </c>
       <c r="G170" t="n">
-        <v>-10020179.96135432</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>94018.75079999999</v>
       </c>
       <c r="G171" t="n">
-        <v>-9926161.210554322</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>229.3756</v>
       </c>
       <c r="G172" t="n">
-        <v>-9925931.834954321</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>10600.034</v>
       </c>
       <c r="G173" t="n">
-        <v>-9925931.834954321</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>641145.5818</v>
       </c>
       <c r="G174" t="n">
-        <v>-10567077.41675432</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>826.4462809917355</v>
       </c>
       <c r="G175" t="n">
-        <v>-10566250.97047333</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>99938.3495</v>
       </c>
       <c r="G176" t="n">
-        <v>-10566250.97047333</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>97372.1339</v>
       </c>
       <c r="G177" t="n">
-        <v>-10663623.10437333</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>8715.4596</v>
       </c>
       <c r="G178" t="n">
-        <v>-10663623.10437333</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>42</v>
       </c>
       <c r="G179" t="n">
-        <v>-10663581.10437333</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>5174.3548</v>
       </c>
       <c r="G180" t="n">
-        <v>-10668755.45917333</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>112171.0901</v>
       </c>
       <c r="G181" t="n">
-        <v>-10780926.54927333</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>101375.2307</v>
       </c>
       <c r="G182" t="n">
-        <v>-10679551.31857333</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>2374.1482</v>
       </c>
       <c r="G183" t="n">
-        <v>-10677177.17037333</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>80452.9559</v>
       </c>
       <c r="G184" t="n">
-        <v>-10596724.21447333</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>223907.1428</v>
       </c>
       <c r="G185" t="n">
-        <v>-10596724.21447333</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>291126.5191</v>
       </c>
       <c r="G186" t="n">
-        <v>-10887850.73357333</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>1178.8341</v>
       </c>
       <c r="G187" t="n">
-        <v>-10886671.89947333</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>746.2305</v>
       </c>
       <c r="G188" t="n">
-        <v>-10886671.89947333</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,15 @@
         <v>4677.8034</v>
       </c>
       <c r="G189" t="n">
-        <v>-10891349.70287333</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6083,15 @@
         <v>4773.1253</v>
       </c>
       <c r="G190" t="n">
-        <v>-10891349.70287333</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6113,15 @@
         <v>223756</v>
       </c>
       <c r="G191" t="n">
-        <v>-10891349.70287333</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6143,15 @@
         <v>9450.9287</v>
       </c>
       <c r="G192" t="n">
-        <v>-10891349.70287333</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6173,15 @@
         <v>25721.4438</v>
       </c>
       <c r="G193" t="n">
-        <v>-10865628.25907333</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6203,15 @@
         <v>6356.949</v>
       </c>
       <c r="G194" t="n">
-        <v>-10859271.31007333</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6233,15 @@
         <v>140481.441</v>
       </c>
       <c r="G195" t="n">
-        <v>-10718789.86907333</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6263,15 @@
         <v>47443.5011</v>
       </c>
       <c r="G196" t="n">
-        <v>-10671346.36797333</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6293,15 @@
         <v>30000</v>
       </c>
       <c r="G197" t="n">
-        <v>-10671346.36797333</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6323,15 @@
         <v>18424.6277</v>
       </c>
       <c r="G198" t="n">
-        <v>-10689770.99567333</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6353,15 @@
         <v>13650</v>
       </c>
       <c r="G199" t="n">
-        <v>-10676120.99567333</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6383,15 @@
         <v>350</v>
       </c>
       <c r="G200" t="n">
-        <v>-10676470.99567333</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6413,15 @@
         <v>50079.9745</v>
       </c>
       <c r="G201" t="n">
-        <v>-10726550.97017333</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6443,15 @@
         <v>180</v>
       </c>
       <c r="G202" t="n">
-        <v>-10726370.97017333</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6473,15 @@
         <v>1320.0255</v>
       </c>
       <c r="G203" t="n">
-        <v>-10727690.99567333</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6503,15 @@
         <v>75459.9745</v>
       </c>
       <c r="G204" t="n">
-        <v>-10727690.99567333</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6533,15 @@
         <v>150</v>
       </c>
       <c r="G205" t="n">
-        <v>-10727540.99567333</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6563,15 @@
         <v>700</v>
       </c>
       <c r="G206" t="n">
-        <v>-10728240.99567333</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6593,15 @@
         <v>6191.823</v>
       </c>
       <c r="G207" t="n">
-        <v>-10728240.99567333</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6623,15 @@
         <v>1218.2611</v>
       </c>
       <c r="G208" t="n">
-        <v>-10729459.25677333</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6653,15 @@
         <v>3559.3877</v>
       </c>
       <c r="G209" t="n">
-        <v>-10729459.25677333</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6683,15 @@
         <v>42</v>
       </c>
       <c r="G210" t="n">
-        <v>-10729417.25677333</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6713,15 @@
         <v>126</v>
       </c>
       <c r="G211" t="n">
-        <v>-10729543.25677333</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6743,15 @@
         <v>10000</v>
       </c>
       <c r="G212" t="n">
-        <v>-10739543.25677333</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6773,15 @@
         <v>100447.589</v>
       </c>
       <c r="G213" t="n">
-        <v>-10839990.84577333</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6803,15 @@
         <v>75</v>
       </c>
       <c r="G214" t="n">
-        <v>-10839915.84577333</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6833,15 @@
         <v>750</v>
       </c>
       <c r="G215" t="n">
-        <v>-10840665.84577333</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6863,15 @@
         <v>1497.9989</v>
       </c>
       <c r="G216" t="n">
-        <v>-10842163.84467333</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6893,15 @@
         <v>12975.3272</v>
       </c>
       <c r="G217" t="n">
-        <v>-10829188.51747333</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6923,15 @@
         <v>83.47245409015025</v>
       </c>
       <c r="G218" t="n">
-        <v>-10829188.51747333</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +6953,15 @@
         <v>35000</v>
       </c>
       <c r="G219" t="n">
-        <v>-10864188.51747333</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +6983,15 @@
         <v>31385.4791</v>
       </c>
       <c r="G220" t="n">
-        <v>-10895573.99657333</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7013,15 @@
         <v>44</v>
       </c>
       <c r="G221" t="n">
-        <v>-10895617.99657333</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7043,15 @@
         <v>15354</v>
       </c>
       <c r="G222" t="n">
-        <v>-10880263.99657333</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7073,15 @@
         <v>177.2455</v>
       </c>
       <c r="G223" t="n">
-        <v>-10880263.99657333</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7103,15 @@
         <v>40135.8527</v>
       </c>
       <c r="G224" t="n">
-        <v>-10840128.14387333</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7133,15 @@
         <v>822.7545</v>
       </c>
       <c r="G225" t="n">
-        <v>-10840950.89837333</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7163,15 @@
         <v>26954.038</v>
       </c>
       <c r="G226" t="n">
-        <v>-10867904.93637333</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7193,15 @@
         <v>34354.559</v>
       </c>
       <c r="G227" t="n">
-        <v>-10902259.49537333</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7223,15 @@
         <v>83.33333333333333</v>
       </c>
       <c r="G228" t="n">
-        <v>-10902176.16204</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7253,15 @@
         <v>264</v>
       </c>
       <c r="G229" t="n">
-        <v>-10902440.16204</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7283,15 @@
         <v>7114.4388</v>
       </c>
       <c r="G230" t="n">
-        <v>-10902440.16204</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7313,15 @@
         <v>2049.8333</v>
       </c>
       <c r="G231" t="n">
-        <v>-10904489.99534</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7343,15 @@
         <v>7480.6134</v>
       </c>
       <c r="G232" t="n">
-        <v>-10904489.99534</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7373,15 @@
         <v>50</v>
       </c>
       <c r="G233" t="n">
-        <v>-10904439.99534</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7403,15 @@
         <v>263.7007</v>
       </c>
       <c r="G234" t="n">
-        <v>-10904703.69604</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7433,15 @@
         <v>7951.7456</v>
       </c>
       <c r="G235" t="n">
-        <v>-10904703.69604</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7463,15 @@
         <v>240833.8827</v>
       </c>
       <c r="G236" t="n">
-        <v>-10663869.81334</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +7493,15 @@
         <v>14039.0525</v>
       </c>
       <c r="G237" t="n">
-        <v>-10677908.86584</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +7523,15 @@
         <v>12174</v>
       </c>
       <c r="G238" t="n">
-        <v>-10690082.86584</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +7553,15 @@
         <v>50</v>
       </c>
       <c r="G239" t="n">
-        <v>-10690032.86584</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +7583,15 @@
         <v>91898.647</v>
       </c>
       <c r="G240" t="n">
-        <v>-10781931.51284</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +7613,15 @@
         <v>44230.9463</v>
       </c>
       <c r="G241" t="n">
-        <v>-10826162.45914</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +7643,15 @@
         <v>8788.5602</v>
       </c>
       <c r="G242" t="n">
-        <v>-10834951.01934</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +7673,15 @@
         <v>455461.5558</v>
       </c>
       <c r="G243" t="n">
-        <v>-10379489.46354</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +7703,15 @@
         <v>100</v>
       </c>
       <c r="G244" t="n">
-        <v>-10379389.46354</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +7733,15 @@
         <v>423.0457</v>
       </c>
       <c r="G245" t="n">
-        <v>-10379812.50924</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +7763,15 @@
         <v>45</v>
       </c>
       <c r="G246" t="n">
-        <v>-10379767.50924</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +7793,15 @@
         <v>98604.54059999999</v>
       </c>
       <c r="G247" t="n">
-        <v>-10478372.04984</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +7823,15 @@
         <v>50</v>
       </c>
       <c r="G248" t="n">
-        <v>-10478322.04984</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +7853,15 @@
         <v>12239</v>
       </c>
       <c r="G249" t="n">
-        <v>-10490561.04984</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,18 +7883,15 @@
         <v>12926.4486</v>
       </c>
       <c r="G250" t="n">
-        <v>-10477634.60124</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8665,18 +7913,15 @@
         <v>228.8512</v>
       </c>
       <c r="G251" t="n">
-        <v>-10477405.75004</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8698,18 +7943,15 @@
         <v>13562.4932</v>
       </c>
       <c r="G252" t="n">
-        <v>-10490968.24324</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8731,18 +7973,15 @@
         <v>138551.1859</v>
       </c>
       <c r="G253" t="n">
-        <v>-10629519.42914</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8764,18 +8003,15 @@
         <v>69937.19070000001</v>
       </c>
       <c r="G254" t="n">
-        <v>-10699456.61984</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8797,18 +8033,15 @@
         <v>25815.1074</v>
       </c>
       <c r="G255" t="n">
-        <v>-10699456.61984</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8830,18 +8063,15 @@
         <v>128577.2526</v>
       </c>
       <c r="G256" t="n">
-        <v>-10828033.87244</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8863,18 +8093,15 @@
         <v>5015.3159</v>
       </c>
       <c r="G257" t="n">
-        <v>-10828033.87244</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8896,18 +8123,15 @@
         <v>1910</v>
       </c>
       <c r="G258" t="n">
-        <v>-10826123.87244</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8929,18 +8153,15 @@
         <v>240931.1505</v>
       </c>
       <c r="G259" t="n">
-        <v>-11067055.02294</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8962,18 +8183,15 @@
         <v>163522.1201</v>
       </c>
       <c r="G260" t="n">
-        <v>-11067055.02294</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8995,18 +8213,15 @@
         <v>18587.2938</v>
       </c>
       <c r="G261" t="n">
-        <v>-11048467.72914</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9028,18 +8243,15 @@
         <v>41922.1174</v>
       </c>
       <c r="G262" t="n">
-        <v>-11048467.72914</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9061,18 +8273,15 @@
         <v>2000</v>
       </c>
       <c r="G263" t="n">
-        <v>-11048467.72914</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9094,18 +8303,15 @@
         <v>19978.0947</v>
       </c>
       <c r="G264" t="n">
-        <v>-11048467.72914</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9127,18 +8333,15 @@
         <v>21910.1879</v>
       </c>
       <c r="G265" t="n">
-        <v>-11048467.72914</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9160,18 +8363,15 @@
         <v>78922.66590000001</v>
       </c>
       <c r="G266" t="n">
-        <v>-10969545.06324</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9193,18 +8393,15 @@
         <v>15796.2393</v>
       </c>
       <c r="G267" t="n">
-        <v>-10969545.06324</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9226,18 +8423,15 @@
         <v>826.4462809917355</v>
       </c>
       <c r="G268" t="n">
-        <v>-10968718.61695901</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9259,18 +8453,15 @@
         <v>79699.1121</v>
       </c>
       <c r="G269" t="n">
-        <v>-11048417.72905901</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9292,18 +8483,15 @@
         <v>50</v>
       </c>
       <c r="G270" t="n">
-        <v>-11048367.72905901</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9325,18 +8513,15 @@
         <v>14705.4775</v>
       </c>
       <c r="G271" t="n">
-        <v>-11033662.25155901</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9358,18 +8543,15 @@
         <v>56000</v>
       </c>
       <c r="G272" t="n">
-        <v>-10977662.25155901</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9391,18 +8573,15 @@
         <v>3175.3598</v>
       </c>
       <c r="G273" t="n">
-        <v>-10980837.61135901</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9424,18 +8603,15 @@
         <v>14039.0525</v>
       </c>
       <c r="G274" t="n">
-        <v>-10994876.66385901</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9457,18 +8633,15 @@
         <v>4538.7663</v>
       </c>
       <c r="G275" t="n">
-        <v>-10990337.89755901</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9490,18 +8663,15 @@
         <v>50</v>
       </c>
       <c r="G276" t="n">
-        <v>-10990287.89755901</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9523,18 +8693,15 @@
         <v>61.2337</v>
       </c>
       <c r="G277" t="n">
-        <v>-10990349.13125901</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9556,18 +8723,15 @@
         <v>150</v>
       </c>
       <c r="G278" t="n">
-        <v>-10990499.13125901</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9589,18 +8753,15 @@
         <v>28017.2826</v>
       </c>
       <c r="G279" t="n">
-        <v>-11018516.41385901</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9622,18 +8783,15 @@
         <v>4728.4776</v>
       </c>
       <c r="G280" t="n">
-        <v>-11018516.41385901</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9655,18 +8813,15 @@
         <v>50</v>
       </c>
       <c r="G281" t="n">
-        <v>-11018466.41385901</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9688,18 +8843,15 @@
         <v>3120.2838</v>
       </c>
       <c r="G282" t="n">
-        <v>-11015346.13005901</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9721,18 +8873,15 @@
         <v>265726.5336</v>
       </c>
       <c r="G283" t="n">
-        <v>-11281072.66365901</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9754,18 +8903,15 @@
         <v>3238.6351</v>
       </c>
       <c r="G284" t="n">
-        <v>-11284311.29875901</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -9787,18 +8933,15 @@
         <v>83.33333333333333</v>
       </c>
       <c r="G285" t="n">
-        <v>-11284311.29875901</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9820,18 +8963,15 @@
         <v>8039.3329</v>
       </c>
       <c r="G286" t="n">
-        <v>-11292350.63165901</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -9853,18 +8993,15 @@
         <v>42</v>
       </c>
       <c r="G287" t="n">
-        <v>-11292308.63165901</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9886,18 +9023,15 @@
         <v>38331.04226666666</v>
       </c>
       <c r="G288" t="n">
-        <v>-11292308.63165901</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -9919,18 +9053,15 @@
         <v>125239.7903333333</v>
       </c>
       <c r="G289" t="n">
-        <v>-11417548.42199234</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -9952,18 +9083,15 @@
         <v>29776.2884</v>
       </c>
       <c r="G290" t="n">
-        <v>-11387772.13359234</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -9985,18 +9113,15 @@
         <v>326396.1894</v>
       </c>
       <c r="G291" t="n">
-        <v>-11714168.32299234</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10018,18 +9143,15 @@
         <v>69338.5049</v>
       </c>
       <c r="G292" t="n">
-        <v>-11714168.32299234</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10051,18 +9173,15 @@
         <v>68308.25750000001</v>
       </c>
       <c r="G293" t="n">
-        <v>-11782476.58049234</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10084,18 +9203,15 @@
         <v>454.1433</v>
       </c>
       <c r="G294" t="n">
-        <v>-11782476.58049234</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10117,18 +9233,15 @@
         <v>254515.7319</v>
       </c>
       <c r="G295" t="n">
-        <v>-11782476.58049234</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10150,18 +9263,15 @@
         <v>152385.1268</v>
       </c>
       <c r="G296" t="n">
-        <v>-11934861.70729234</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10183,18 +9293,15 @@
         <v>345623.288</v>
       </c>
       <c r="G297" t="n">
-        <v>-12280484.99529234</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10216,18 +9323,15 @@
         <v>43</v>
       </c>
       <c r="G298" t="n">
-        <v>-12280441.99529234</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10249,18 +9353,15 @@
         <v>19328.4939</v>
       </c>
       <c r="G299" t="n">
-        <v>-12299770.48919234</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10282,18 +9383,15 @@
         <v>2186.7161</v>
       </c>
       <c r="G300" t="n">
-        <v>-12297583.77309234</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10315,18 +9413,15 @@
         <v>43</v>
       </c>
       <c r="G301" t="n">
-        <v>-12297540.77309234</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10348,18 +9443,15 @@
         <v>37741.6976</v>
       </c>
       <c r="G302" t="n">
-        <v>-12335282.47069234</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10381,18 +9473,15 @@
         <v>143.7153</v>
       </c>
       <c r="G303" t="n">
-        <v>-12335138.75539234</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10414,18 +9503,15 @@
         <v>61559.5886</v>
       </c>
       <c r="G304" t="n">
-        <v>-12396698.34399234</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10447,18 +9533,15 @@
         <v>19974.0329</v>
       </c>
       <c r="G305" t="n">
-        <v>-12376724.31109234</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10480,18 +9563,15 @@
         <v>10082.9806</v>
       </c>
       <c r="G306" t="n">
-        <v>-12386807.29169234</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10513,18 +9593,15 @@
         <v>18738.2036</v>
       </c>
       <c r="G307" t="n">
-        <v>-12386807.29169234</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10546,18 +9623,15 @@
         <v>42037.0072</v>
       </c>
       <c r="G308" t="n">
-        <v>-12344770.28449234</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -10579,18 +9653,15 @@
         <v>251.5997</v>
       </c>
       <c r="G309" t="n">
-        <v>-12345021.88419234</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -10612,18 +9683,15 @@
         <v>111201.7973</v>
       </c>
       <c r="G310" t="n">
-        <v>-12345021.88419234</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -10645,18 +9713,15 @@
         <v>17885.0806</v>
       </c>
       <c r="G311" t="n">
-        <v>-12345021.88419234</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -10678,18 +9743,15 @@
         <v>304282.746</v>
       </c>
       <c r="G312" t="n">
-        <v>-12345021.88419234</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -10711,18 +9773,15 @@
         <v>43</v>
       </c>
       <c r="G313" t="n">
-        <v>-12344978.88419234</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -10744,18 +9803,15 @@
         <v>73830.0076</v>
       </c>
       <c r="G314" t="n">
-        <v>-12418808.89179234</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -10777,18 +9833,15 @@
         <v>2588.983050847457</v>
       </c>
       <c r="G315" t="n">
-        <v>-12416219.90874149</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -10810,18 +9863,15 @@
         <v>672.4485</v>
       </c>
       <c r="G316" t="n">
-        <v>-12416219.90874149</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -10843,18 +9893,15 @@
         <v>26240.1314</v>
       </c>
       <c r="G317" t="n">
-        <v>-12442460.04014149</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -10876,18 +9923,15 @@
         <v>52.0123</v>
       </c>
       <c r="G318" t="n">
-        <v>-12442408.0278415</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -10909,18 +9953,15 @@
         <v>39609.5168</v>
       </c>
       <c r="G319" t="n">
-        <v>-12442408.0278415</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -10942,18 +9983,15 @@
         <v>29106.526</v>
       </c>
       <c r="G320" t="n">
-        <v>-12471514.5538415</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -10975,18 +10013,15 @@
         <v>281.0059</v>
       </c>
       <c r="G321" t="n">
-        <v>-12471233.5479415</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11008,18 +10043,15 @@
         <v>672.4485</v>
       </c>
       <c r="G322" t="n">
-        <v>-12471905.9964415</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11041,18 +10073,15 @@
         <v>7386.4345</v>
       </c>
       <c r="G323" t="n">
-        <v>-12464519.5619415</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11074,18 +10103,15 @@
         <v>50744.433</v>
       </c>
       <c r="G324" t="n">
-        <v>-12515263.9949415</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -11107,18 +10133,15 @@
         <v>35436.4972</v>
       </c>
       <c r="G325" t="n">
-        <v>-12515263.9949415</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -11140,18 +10163,15 @@
         <v>11713.5869</v>
       </c>
       <c r="G326" t="n">
-        <v>-12526977.5818415</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -11173,18 +10193,15 @@
         <v>47427.3295</v>
       </c>
       <c r="G327" t="n">
-        <v>-12526977.5818415</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -11206,22 +10223,15 @@
         <v>8435.793100000001</v>
       </c>
       <c r="G328" t="n">
-        <v>-12535413.3749415</v>
-      </c>
-      <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="J328" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H328" t="inlineStr"/>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -11243,26 +10253,19 @@
         <v>20959.2855</v>
       </c>
       <c r="G329" t="n">
-        <v>-12535413.3749415</v>
+        <v>1</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>11.54</v>
       </c>
       <c r="I329" t="n">
         <v>11.54</v>
       </c>
-      <c r="J329" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
+      <c r="L329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -11284,26 +10287,23 @@
         <v>120075.1805</v>
       </c>
       <c r="G330" t="n">
-        <v>-12655488.5554415</v>
+        <v>1</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>11.54</v>
       </c>
       <c r="I330" t="n">
         <v>11.54</v>
       </c>
-      <c r="J330" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="K330" t="inlineStr">
+      <c r="J330" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>1</v>
+      </c>
+      <c r="L330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -11325,26 +10325,23 @@
         <v>2335.6377</v>
       </c>
       <c r="G331" t="n">
-        <v>-12653152.9177415</v>
+        <v>1</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>11.53</v>
       </c>
       <c r="I331" t="n">
-        <v>11.53</v>
-      </c>
-      <c r="J331" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="K331" t="inlineStr">
+        <v>11.54</v>
+      </c>
+      <c r="J331" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -11366,26 +10363,23 @@
         <v>43</v>
       </c>
       <c r="G332" t="n">
-        <v>-12653109.9177415</v>
+        <v>1</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>11.54</v>
       </c>
       <c r="I332" t="n">
         <v>11.54</v>
       </c>
-      <c r="J332" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="K332" t="inlineStr">
+      <c r="J332" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -11407,26 +10401,23 @@
         <v>232644.8146</v>
       </c>
       <c r="G333" t="n">
-        <v>-12885754.7323415</v>
+        <v>1</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>11.7</v>
       </c>
       <c r="I333" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J333" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="K333" t="inlineStr">
+        <v>11.54</v>
+      </c>
+      <c r="J333" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>1</v>
+      </c>
+      <c r="L333" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
